--- a/companies/trendyol/phoneCase/phoneCase.xlsx
+++ b/companies/trendyol/phoneCase/phoneCase.xlsx
@@ -224,7 +224,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -450,26 +450,6 @@
       <sz val="14.0"/>
       <color indexed="8"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="8"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -583,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -763,11 +743,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="true"/>
     </xf>
@@ -788,22 +768,6 @@
       <protection locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="true"/>
     </xf>
@@ -1290,16 +1254,6 @@
       </c>
       <c r="AB1" s="50" t="inlineStr">
         <is>
-          <t>Garanti Tipi</t>
-        </is>
-      </c>
-      <c r="AC1" s="51" t="inlineStr">
-        <is>
-          <t>Garanti Süresi</t>
-        </is>
-      </c>
-      <c r="AD1" s="52" t="inlineStr">
-        <is>
           <t>Uyumlu Marka</t>
         </is>
       </c>
@@ -1317,7 +1271,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="29">
+  <dataValidations count="27">
     <dataValidation type="list" sqref="Y2:Y1048576" allowBlank="true" errorStyle="stop" errorTitle="DEĞER SEÇİMİ HATASI" error="Sadece izin verilen değerleri girebilirsiniz. Lütfen kontrol ediniz." showErrorMessage="true">
       <formula1>Urun_Ozellik_Bilgileri!$A$2:$A$7</formula1>
     </dataValidation>
@@ -1325,25 +1279,19 @@
       <formula1>Urun_Ozellik_Bilgileri!$B$2:$B$4</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AA2:AA1048576" allowBlank="true" errorStyle="stop" errorTitle="DEĞER SEÇİMİ HATASI" error="Sadece izin verilen değerleri girebilirsiniz. Lütfen kontrol ediniz." showErrorMessage="true">
-      <formula1>Urun_Ozellik_Bilgileri!$C$2:$C$799</formula1>
+      <formula1>Urun_Ozellik_Bilgileri!$C$2:$C$1014</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AB2:AB1048576" allowBlank="true" errorStyle="stop" errorTitle="DEĞER SEÇİMİ HATASI" error="Sadece izin verilen değerleri girebilirsiniz. Lütfen kontrol ediniz." showErrorMessage="true">
-      <formula1>Urun_Ozellik_Bilgileri!$D$2:$D$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="AC2:AC1048576" allowBlank="true" errorStyle="stop" errorTitle="DEĞER SEÇİMİ HATASI" error="Sadece izin verilen değerleri girebilirsiniz. Lütfen kontrol ediniz." showErrorMessage="true">
-      <formula1>Urun_Ozellik_Bilgileri!$E$2:$E$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="AD2:AD1048576" allowBlank="true" errorStyle="stop" errorTitle="DEĞER SEÇİMİ HATASI" error="Sadece izin verilen değerleri girebilirsiniz. Lütfen kontrol ediniz." showErrorMessage="true">
-      <formula1>Urun_Ozellik_Bilgileri!$F$2:$F$12</formula1>
+      <formula1>Urun_Ozellik_Bilgileri!$D$2:$D$17</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1048576" allowBlank="true" errorStyle="stop" promptTitle="PARA BİRİMİ GİRİN" prompt="Ürün fiyatının para birimi değerini girin." showInputMessage="true" errorTitle="DEĞER SEÇİMİ HATASI" error="Sadece izin verilen değerleri girebilirsiniz. Lütfen kontrol ediniz." showErrorMessage="true">
-      <formula1>Urun_Ozellik_Bilgileri!$G$2:$G$2</formula1>
+      <formula1>Urun_Ozellik_Bilgileri!$E$2:$E$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="L2:L1048576" allowBlank="true" errorStyle="stop" promptTitle="KDV ORANI GİRİN" prompt="KDV değerini listeden seçiniz." showInputMessage="true">
-      <formula1>Urun_Ozellik_Bilgileri!$H$2:$H$5</formula1>
+      <formula1>Urun_Ozellik_Bilgileri!$F$2:$F$5</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="W2:W1048576" allowBlank="true" errorStyle="stop" promptTitle="SEVKİYAT TİPİ GİRİN" prompt="Sevkiyat tipini listeden seçiniz." showInputMessage="true" errorTitle="DEĞER SEÇİMİ HATASI" error="Sadece izin verilen değerleri girebilirsiniz. Lütfen kontrol ediniz." showErrorMessage="true">
-      <formula1>Urun_Ozellik_Bilgileri!$I$2:$I$3</formula1>
+      <formula1>Urun_Ozellik_Bilgileri!$G$2:$G$3</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="between" sqref="V2:V1048576" allowBlank="true" errorStyle="stop" promptTitle="SEVKİYAT SÜRESİ GİRİN" prompt="Sadece sayı girebilirsiniz. ÖRNEK: 5" showInputMessage="true" errorTitle="SEVKİYAT SÜRESİ HATASI" error="Sevkiyat süresi değeri sadece sayı olmalıdır." showErrorMessage="true">
       <formula1>0</formula1>
@@ -1427,47 +1375,37 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="53" t="inlineStr">
+      <c r="A1" s="51" t="inlineStr">
         <is>
           <t>Materyal</t>
         </is>
       </c>
-      <c r="B1" s="54" t="inlineStr">
+      <c r="B1" s="52" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="C1" s="55" t="inlineStr">
+      <c r="C1" s="53" t="inlineStr">
         <is>
           <t>Cep Telefonu Modeli</t>
         </is>
       </c>
-      <c r="D1" s="56" t="inlineStr">
-        <is>
-          <t>Garanti Tipi</t>
-        </is>
-      </c>
-      <c r="E1" s="57" t="inlineStr">
-        <is>
-          <t>Garanti Süresi</t>
-        </is>
-      </c>
-      <c r="F1" s="58" t="inlineStr">
+      <c r="D1" s="54" t="inlineStr">
         <is>
           <t>Uyumlu Marka</t>
         </is>
       </c>
-      <c r="G1" s="59" t="inlineStr">
+      <c r="E1" s="55" t="inlineStr">
         <is>
           <t>Para Birimi</t>
         </is>
       </c>
-      <c r="H1" s="60" t="inlineStr">
+      <c r="F1" s="56" t="inlineStr">
         <is>
           <t>KDV Oranı</t>
         </is>
       </c>
-      <c r="I1" s="61" t="inlineStr">
+      <c r="G1" s="57" t="inlineStr">
         <is>
           <t>Sevkiyat Tipi</t>
         </is>
@@ -1491,30 +1429,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>İthalatçı Garantili</t>
+          <t>Alcatel Uyumlu</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1 Yıl</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>TRY</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
         <is>
           <t>Hızlı Teslimat</t>
         </is>
@@ -1538,25 +1466,15 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Resmi Distribütör Garantili</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2 Yıl</t>
+          <t>Apple Uyumlu</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Belirtilmemiş</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Bugün Kargoda</t>
         </is>
@@ -1575,20 +1493,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Alcatel 1S 2019</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3 Yıl</t>
+          <t>Alcatel 1 2022</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Asus Uyumlu</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
-        <is>
-          <t>Casper</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -1602,20 +1515,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Alcatel 1S 2020</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4 Yıl</t>
+          <t>Alcatel 1S 2019</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Belirtilmemiş</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
-        <is>
-          <t>General Mobile</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1629,17 +1537,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Alcatel 1S 2021</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5 Yıl</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Huawei</t>
+          <t>Alcatel 1S 2020</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Casper Uyumlu</t>
         </is>
       </c>
     </row>
@@ -1651,5591 +1554,7111 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Alcatel 3</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>6 Ay</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Lenovo</t>
+          <t>Alcatel 1S 2021</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>General Mobile Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>Alcatel 3V</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Belirtilmemiş</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Oppo</t>
+          <t>Alcatel 3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Honor Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>Alcatel 3X 2019</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>POCO</t>
+          <t>Alcatel 3V</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Huawei Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
-          <t>Alcatel 5</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Reeder</t>
+          <t>Alcatel 3X 2019</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Infinix Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>Alcatel A3 XL</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Samsung</t>
+          <t>Alcatel 3X 2020</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Lenovo Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>Alcatel A7</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Xiaomi</t>
+          <t>Alcatel 5</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Oppo Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="inlineStr">
         <is>
-          <t>Alcatel U5</t>
+          <t>Alcatel A3 XL</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>POCO Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="C14" t="inlineStr">
         <is>
-          <t>Asus Zenfone 2</t>
+          <t>Alcatel A7</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Reeder Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="C15" t="inlineStr">
         <is>
-          <t>Asus Zenfone 2 Laser 5.0 inç</t>
+          <t>Alcatel U5</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Samsung Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="inlineStr">
         <is>
-          <t>Asus Zenfone 2 Laser 5.5 inç</t>
+          <t>Android One 4G</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TCL Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="inlineStr">
         <is>
-          <t>Asus Zenfone 3</t>
+          <t>Asus Zenfone 2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Xiaomi Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="C18" t="inlineStr">
         <is>
-          <t>Asus Zenfone 3 Delux 5.5 inç</t>
+          <t>Asus Zenfone 2 Laser 5.0 inç</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="C19" t="inlineStr">
         <is>
-          <t>Asus Zenfone 3 Delux 5.7 inç</t>
+          <t>Asus Zenfone 2 Laser 5.5 inç</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="C20" t="inlineStr">
         <is>
-          <t>Asus Zenfone 3 Laser</t>
+          <t>Asus Zenfone 3</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="C21" t="inlineStr">
         <is>
-          <t>Asus Zenfone 3 Max 5.2 inç</t>
+          <t>Asus Zenfone 3 Delux 5.5 inç</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="C22" t="inlineStr">
         <is>
-          <t>Asus Zenfone 3 Max 5.5 inç</t>
+          <t>Asus Zenfone 3 Delux 5.7 inç</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="C23" t="inlineStr">
         <is>
-          <t>Asus Zenfone 4</t>
+          <t>Asus Zenfone 3 Laser</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="C24" t="inlineStr">
         <is>
-          <t>Asus Zenfone 4 Max 5.2 inç</t>
+          <t>Asus Zenfone 3 Max 5.2 inç</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="inlineStr">
         <is>
-          <t>Asus Zenfone 4 Max 5.5 inç</t>
+          <t>Asus Zenfone 3 Max 5.5 inç</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="inlineStr">
         <is>
-          <t>Asus Zenfone 4 Selfie</t>
+          <t>Asus Zenfone 4</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="inlineStr">
         <is>
-          <t>Asus Zenfone 5</t>
+          <t>Asus Zenfone 4 Max 5.2 inç</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="inlineStr">
         <is>
-          <t>Asus Zenfone GO 5.0 inç</t>
+          <t>Asus Zenfone 4 Max 5.5 inç</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="C29" t="inlineStr">
         <is>
-          <t>Asus Zenfone GO 5.2 inç</t>
+          <t>Asus Zenfone 4 Selfie</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="inlineStr">
         <is>
-          <t>Asus ZenFone Live 5.0 inç</t>
+          <t>Asus Zenfone 5</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="inlineStr">
         <is>
-          <t>Asus ZenFone Live 5.5 inç</t>
+          <t>Asus Zenfone GO 5.0 inç</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="C32" t="inlineStr">
         <is>
-          <t>Asus Zenfone Max</t>
+          <t>Asus Zenfone GO 5.2 inç</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="C33" t="inlineStr">
         <is>
-          <t>Asus ZenFone Max Plus</t>
+          <t>Asus ZenFone Live 5.0 inç</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="C34" t="inlineStr">
         <is>
-          <t>Asus ZenFone Max Pro M1</t>
+          <t>Asus ZenFone Live 5.5 inç</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="C35" t="inlineStr">
         <is>
-          <t>Asus Zenfone Selfie</t>
+          <t>Asus Zenfone Max</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="C36" t="inlineStr">
         <is>
-          <t>Avea inTouch 4</t>
+          <t>Asus ZenFone Max Plus</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="C37" t="inlineStr">
         <is>
-          <t>Casper Via A1</t>
+          <t>Asus ZenFone Max Pro M1</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="C38" t="inlineStr">
         <is>
-          <t>Casper Via A1 Plus</t>
+          <t>Asus Zenfone Selfie</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="C39" t="inlineStr">
         <is>
-          <t>Casper Via A2</t>
+          <t>Avea inTouch 4</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="C40" t="inlineStr">
         <is>
-          <t>Casper Via A3</t>
+          <t>Casper Via A1</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="C41" t="inlineStr">
         <is>
-          <t>Casper Via A3 Plus</t>
+          <t>Casper Via A1 Plus</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="C42" t="inlineStr">
         <is>
-          <t>Casper Via E1</t>
+          <t>Casper Via A2</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="C43" t="inlineStr">
         <is>
-          <t>Casper Via E1c</t>
+          <t>Casper Via A3</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="C44" t="inlineStr">
         <is>
-          <t>Casper Via E2</t>
+          <t>Casper Via A3 Plus</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="C45" t="inlineStr">
         <is>
-          <t>Casper Via F1</t>
+          <t>Casper Via A4</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="C46" t="inlineStr">
         <is>
-          <t>Casper Via F2</t>
+          <t>Casper Via E1</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="C47" t="inlineStr">
         <is>
-          <t>Casper Via G1</t>
+          <t>Casper Via E1c</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="C48" t="inlineStr">
         <is>
-          <t>Casper Via G1 Plus</t>
+          <t>Casper Via E2</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="C49" t="inlineStr">
         <is>
-          <t>Casper Via G3</t>
+          <t>Casper Via E3</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="C50" t="inlineStr">
         <is>
-          <t>Casper Via G4</t>
+          <t>Casper Via F1</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="C51" t="inlineStr">
         <is>
-          <t>Casper Via M1</t>
+          <t>Casper Via F2</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="C52" t="inlineStr">
         <is>
-          <t>Casper Via M2</t>
+          <t>Casper Via F3</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="C53" t="inlineStr">
         <is>
-          <t>Casper Via M3</t>
+          <t>Casper Via F30</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="C54" t="inlineStr">
         <is>
-          <t>Casper Via M4</t>
+          <t>Casper Via G1</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="C55" t="inlineStr">
         <is>
-          <t>Casper Via P1</t>
+          <t>Casper Via G1 Plus</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="C56" t="inlineStr">
         <is>
-          <t>Casper Via S</t>
+          <t>Casper Via G3</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="C57" t="inlineStr">
         <is>
-          <t>Casper Via V10</t>
+          <t>Casper Via G4</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="C58" t="inlineStr">
         <is>
-          <t>Casper Via V6</t>
+          <t>Casper Via M1</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="C59" t="inlineStr">
         <is>
-          <t>Casper Via V6X</t>
+          <t>Casper Via M2</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="C60" t="inlineStr">
         <is>
-          <t>Casper Via V8</t>
+          <t>Casper Via M3</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="C61" t="inlineStr">
         <is>
-          <t>Casper Via V8c</t>
+          <t>Casper Via M4</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="C62" t="inlineStr">
         <is>
-          <t>Galaxy A01</t>
+          <t>Casper Via P1</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="C63" t="inlineStr">
         <is>
-          <t>Galaxy A02</t>
+          <t>Casper Via P2</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="C64" t="inlineStr">
         <is>
-          <t>Galaxy A02s</t>
+          <t>Casper Via P3</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="C65" t="inlineStr">
         <is>
-          <t>Galaxy A03 Core</t>
+          <t>Casper Via S</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="C66" t="inlineStr">
         <is>
-          <t>Galaxy A04</t>
+          <t>Casper Via V10</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="C67" t="inlineStr">
         <is>
-          <t>Galaxy A04e</t>
+          <t>Casper Via V6</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="C68" t="inlineStr">
         <is>
-          <t>Galaxy A04s</t>
+          <t>Casper Via V6X</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="C69" t="inlineStr">
         <is>
-          <t>Galaxy A10</t>
+          <t>Casper Via V8</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="C70" t="inlineStr">
         <is>
-          <t>Galaxy A10s</t>
+          <t>Casper Via V8c</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="C71" t="inlineStr">
         <is>
-          <t>Galaxy A11</t>
+          <t>Galaxy A01</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="C72" t="inlineStr">
         <is>
-          <t>Galaxy A12</t>
+          <t>Galaxy A02</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="C73" t="inlineStr">
         <is>
-          <t>Galaxy A13</t>
+          <t>Galaxy A02s</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="C74" t="inlineStr">
         <is>
-          <t>Galaxy A14</t>
+          <t>Galaxy A03</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="C75" t="inlineStr">
         <is>
-          <t>Galaxy A14 5G</t>
+          <t>Galaxy A03 Core</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="C76" t="inlineStr">
         <is>
-          <t>Galaxy A20</t>
+          <t>Galaxy A04</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="C77" t="inlineStr">
         <is>
-          <t>Galaxy A20e</t>
+          <t>Galaxy A04e</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="C78" t="inlineStr">
         <is>
-          <t>Galaxy A20S</t>
+          <t>Galaxy A04s</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="C79" t="inlineStr">
         <is>
-          <t>Galaxy A21</t>
+          <t>Galaxy A05</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="C80" t="inlineStr">
         <is>
-          <t>Galaxy A21S</t>
+          <t>Galaxy A05S</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="C81" t="inlineStr">
         <is>
-          <t>Galaxy A22 4G</t>
+          <t>Galaxy A10</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="C82" t="inlineStr">
         <is>
-          <t>Galaxy A23</t>
+          <t>Galaxy A10s</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="C83" t="inlineStr">
         <is>
-          <t>Galaxy A24</t>
+          <t>Galaxy A11</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="C84" t="inlineStr">
         <is>
-          <t>Galaxy A2 Core</t>
+          <t>Galaxy A12</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="C85" t="inlineStr">
         <is>
-          <t>Galaxy A3</t>
+          <t>Galaxy A13</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="C86" t="inlineStr">
         <is>
-          <t>Galaxy A3 (2016)</t>
+          <t>Galaxy A14</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="C87" t="inlineStr">
         <is>
-          <t>Galaxy A3 (2017)</t>
+          <t>Galaxy A14 5G</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="C88" t="inlineStr">
         <is>
-          <t>Galaxy A30</t>
+          <t>Galaxy A15</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="C89" t="inlineStr">
         <is>
-          <t>Galaxy A30S</t>
+          <t>Galaxy A20</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="C90" t="inlineStr">
         <is>
-          <t>Galaxy A31</t>
+          <t>Galaxy A20e</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="C91" t="inlineStr">
         <is>
-          <t>Galaxy A32 4G</t>
+          <t>Galaxy A20S</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="C92" t="inlineStr">
         <is>
-          <t>Galaxy A33</t>
+          <t>Galaxy A21</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="C93" t="inlineStr">
         <is>
-          <t>Galaxy A34</t>
+          <t>Galaxy A21S</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="C94" t="inlineStr">
         <is>
-          <t>Galaxy A34 5G</t>
+          <t>Galaxy A22 4G</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="C95" t="inlineStr">
         <is>
-          <t>Galaxy A40</t>
+          <t>Galaxy A23</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="C96" t="inlineStr">
         <is>
-          <t>Galaxy A41</t>
+          <t>Galaxy A24</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="C97" t="inlineStr">
         <is>
-          <t>Galaxy A5</t>
+          <t>Galaxy A25</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="C98" t="inlineStr">
         <is>
-          <t>Galaxy A5 (2016)</t>
+          <t>Galaxy A2 Core</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="C99" t="inlineStr">
         <is>
-          <t>Galaxy A5 (2017)</t>
+          <t>Galaxy A3</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="C100" t="inlineStr">
         <is>
-          <t>Galaxy A5 (2018)</t>
+          <t>Galaxy A3 (2016)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="C101" t="inlineStr">
         <is>
-          <t>Galaxy A50</t>
+          <t>Galaxy A3 (2017)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="C102" t="inlineStr">
         <is>
-          <t>Galaxy A50s</t>
+          <t>Galaxy A30</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="C103" t="inlineStr">
         <is>
-          <t>Galaxy A51</t>
+          <t>Galaxy A30S</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="C104" t="inlineStr">
         <is>
-          <t>Galaxy A53</t>
+          <t>Galaxy A31</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="C105" t="inlineStr">
         <is>
-          <t>Galaxy A54</t>
+          <t>Galaxy A32 4G</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="C106" t="inlineStr">
         <is>
-          <t>Galaxy A6</t>
+          <t>Galaxy A33</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="C107" t="inlineStr">
         <is>
-          <t>Galaxy A6 (2018)</t>
+          <t>Galaxy A34</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="C108" t="inlineStr">
         <is>
-          <t>Galaxy A6+ Plus</t>
+          <t>Galaxy A34 5G</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="C109" t="inlineStr">
         <is>
-          <t>Galaxy A60</t>
+          <t>Galaxy A35</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="C110" t="inlineStr">
         <is>
-          <t>Galaxy A6 Plus (2018)</t>
+          <t>Galaxy A40</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="C111" t="inlineStr">
         <is>
-          <t>Galaxy A7</t>
+          <t>Galaxy A41</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="C112" t="inlineStr">
         <is>
-          <t>Galaxy A7 (2016)</t>
+          <t>Galaxy A5</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="C113" t="inlineStr">
         <is>
-          <t>Galaxy A7 (2017)</t>
+          <t>Galaxy A5 (2016)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="C114" t="inlineStr">
         <is>
-          <t>Galaxy A70</t>
+          <t>Galaxy A5 (2017)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="C115" t="inlineStr">
         <is>
-          <t>Galaxy A70S</t>
+          <t>Galaxy A5 (2018)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="C116" t="inlineStr">
         <is>
-          <t>Galaxy A71</t>
+          <t>Galaxy A50</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="C117" t="inlineStr">
         <is>
-          <t>Galaxy A7 2018</t>
+          <t>Galaxy A50s</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="C118" t="inlineStr">
         <is>
-          <t>Galaxy A73</t>
+          <t>Galaxy A51</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="C119" t="inlineStr">
         <is>
-          <t>Galaxy A8</t>
+          <t>Galaxy A53</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="C120" t="inlineStr">
         <is>
-          <t>Galaxy A80</t>
+          <t>Galaxy A54</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="C121" t="inlineStr">
         <is>
-          <t>Galaxy A81</t>
+          <t>Galaxy A6</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="C122" t="inlineStr">
         <is>
-          <t>Galaxy A8 2016</t>
+          <t>Galaxy A6 (2018)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="C123" t="inlineStr">
         <is>
-          <t>Galaxy A8 2018</t>
+          <t>Galaxy A6+ Plus</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="C124" t="inlineStr">
         <is>
-          <t>Galaxy A8 Plus 2018</t>
+          <t>Galaxy A60</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="C125" t="inlineStr">
         <is>
-          <t>Galaxy A91</t>
+          <t>Galaxy A6 Plus (2018)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="C126" t="inlineStr">
         <is>
-          <t>Galaxy A9 2016</t>
+          <t>Galaxy A7</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="C127" t="inlineStr">
         <is>
-          <t>Galaxy A9 2018</t>
+          <t>Galaxy A7 (2016)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="C128" t="inlineStr">
         <is>
-          <t>Galaxy Alpha</t>
+          <t>Galaxy A7 (2017)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="C129" t="inlineStr">
         <is>
-          <t>Galaxy C5</t>
+          <t>Galaxy A70</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="C130" t="inlineStr">
         <is>
-          <t>Galaxy C5 Pro</t>
+          <t>Galaxy A70S</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="C131" t="inlineStr">
         <is>
-          <t>Galaxy C7</t>
+          <t>Galaxy A71</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="C132" t="inlineStr">
         <is>
-          <t>Galaxy C7 Pro</t>
+          <t>Galaxy A7 2018</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="C133" t="inlineStr">
         <is>
-          <t>Galaxy C8</t>
+          <t>Galaxy A73</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="C134" t="inlineStr">
         <is>
-          <t>Galaxy C9 Pro</t>
+          <t>Galaxy A8</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="C135" t="inlineStr">
         <is>
-          <t>Galaxy Core 2</t>
+          <t>Galaxy A80</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="C136" t="inlineStr">
         <is>
-          <t>Galaxy Core Prime</t>
+          <t>Galaxy A81</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="C137" t="inlineStr">
         <is>
-          <t>Galaxy E5</t>
+          <t>Galaxy A8 2016</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="C138" t="inlineStr">
         <is>
-          <t>Galaxy E7</t>
+          <t>Galaxy A8 2018</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="C139" t="inlineStr">
         <is>
-          <t>Galaxy Grand 2</t>
+          <t>Galaxy A8 Plus 2018</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="C140" t="inlineStr">
         <is>
-          <t>Galaxy Grand Duos</t>
+          <t>Galaxy A8s</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="C141" t="inlineStr">
         <is>
-          <t>Galaxy Grand Max</t>
+          <t>Galaxy A91</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="C142" t="inlineStr">
         <is>
-          <t>Galaxy Grand Neo</t>
+          <t>Galaxy A9 2016</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="C143" t="inlineStr">
         <is>
-          <t>Galaxy Grand Prime</t>
+          <t>Galaxy A9 2018</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="C144" t="inlineStr">
         <is>
-          <t>Galaxy Grand Prime Plus</t>
+          <t>Galaxy Alpha</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="C145" t="inlineStr">
         <is>
-          <t>Galaxy Grand Prime Pro</t>
+          <t>Galaxy C5</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="C146" t="inlineStr">
         <is>
-          <t>Galaxy J1</t>
+          <t>Galaxy C5 Pro</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="C147" t="inlineStr">
         <is>
-          <t>Galaxy J1 2016</t>
+          <t>Galaxy C7</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="C148" t="inlineStr">
         <is>
-          <t>Galaxy J1 Ace</t>
+          <t>Galaxy C7 Pro</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="C149" t="inlineStr">
         <is>
-          <t>Galaxy J1 Mini</t>
+          <t>Galaxy C8</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="C150" t="inlineStr">
         <is>
-          <t>Galaxy J1 Mini Prime</t>
+          <t>Galaxy C9 Pro</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="C151" t="inlineStr">
         <is>
-          <t>Galaxy J2</t>
+          <t>Galaxy Core 2</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="C152" t="inlineStr">
         <is>
-          <t>Galaxy J2 Core</t>
+          <t>Galaxy Core Prime</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="C153" t="inlineStr">
         <is>
-          <t>Galaxy J2 Prime</t>
+          <t>Galaxy E5</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="C154" t="inlineStr">
         <is>
-          <t>Galaxy J2 Pro 2018</t>
+          <t>Galaxy E7</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="C155" t="inlineStr">
         <is>
-          <t>Galaxy J3 (2016)</t>
+          <t>Galaxy Grand 2</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="C156" t="inlineStr">
         <is>
-          <t>Galaxy J3 Pro</t>
+          <t>Galaxy Grand Duos</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="C157" t="inlineStr">
         <is>
-          <t>Galaxy J3 Pro 2016</t>
+          <t>Galaxy Grand Max</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="C158" t="inlineStr">
         <is>
-          <t>Galaxy J4</t>
+          <t>Galaxy Grand Neo</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="C159" t="inlineStr">
         <is>
-          <t>Galaxy J4+ Plus</t>
+          <t>Galaxy Grand Prime</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="C160" t="inlineStr">
         <is>
-          <t>Galaxy J4 Core</t>
+          <t>Galaxy Grand Prime Plus</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="C161" t="inlineStr">
         <is>
-          <t>Galaxy J5</t>
+          <t>Galaxy Grand Prime Pro</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="C162" t="inlineStr">
         <is>
-          <t>Galaxy J5 2016</t>
+          <t>Galaxy İ9060</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="C163" t="inlineStr">
         <is>
-          <t>Galaxy J5 Prime</t>
+          <t>Galaxy J1</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="C164" t="inlineStr">
         <is>
-          <t>Galaxy J5 Pro</t>
+          <t>Galaxy J1 2016</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="C165" t="inlineStr">
         <is>
-          <t>Galaxy J6</t>
+          <t>Galaxy J1 Ace</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="C166" t="inlineStr">
         <is>
-          <t>Galaxy J6+ Plus</t>
+          <t>Galaxy J1 Mini</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="C167" t="inlineStr">
         <is>
-          <t>Galaxy J6 Prime</t>
+          <t>Galaxy J1 Mini Prime</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="C168" t="inlineStr">
         <is>
-          <t>Galaxy J7</t>
+          <t>Galaxy J2</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="C169" t="inlineStr">
         <is>
-          <t>Galaxy J7 2015</t>
+          <t>Galaxy J2 Core</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="C170" t="inlineStr">
         <is>
-          <t>Galaxy J7 2016</t>
+          <t>Galaxy J2 Prime</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="C171" t="inlineStr">
         <is>
-          <t>Galaxy J7 Core</t>
+          <t>Galaxy J2 Pro 2018</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="C172" t="inlineStr">
         <is>
-          <t>Galaxy J7 Duo</t>
+          <t>Galaxy J3 (2016)</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="C173" t="inlineStr">
         <is>
-          <t>Galaxy J7 Max</t>
+          <t>Galaxy J3 Pro</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="C174" t="inlineStr">
         <is>
-          <t>Galaxy J7 Prime</t>
+          <t>Galaxy J3 Pro 2016</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="C175" t="inlineStr">
         <is>
-          <t>Galaxy J7 Prime 2</t>
+          <t>Galaxy J4</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="C176" t="inlineStr">
         <is>
-          <t>Galaxy J7 Pro</t>
+          <t>Galaxy J4+ Plus</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="C177" t="inlineStr">
         <is>
-          <t>Galaxy J8</t>
+          <t>Galaxy J4 Core</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="C178" t="inlineStr">
         <is>
-          <t>Galaxy M10</t>
+          <t>Galaxy J5</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="C179" t="inlineStr">
         <is>
-          <t>Galaxy M10S</t>
+          <t>Galaxy J5 2016</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="C180" t="inlineStr">
         <is>
-          <t>Galaxy M11</t>
+          <t>Galaxy J5 Prime</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="C181" t="inlineStr">
         <is>
-          <t>Galaxy M12</t>
+          <t>Galaxy J5 Pro</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="C182" t="inlineStr">
         <is>
-          <t>Galaxy M20</t>
+          <t>Galaxy J6</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="C183" t="inlineStr">
         <is>
-          <t>Galaxy M21</t>
+          <t>Galaxy J6+ Plus</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="C184" t="inlineStr">
         <is>
-          <t>Galaxy M30</t>
+          <t>Galaxy J6 Prime</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="C185" t="inlineStr">
         <is>
-          <t>Galaxy M30S</t>
+          <t>Galaxy J7</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="C186" t="inlineStr">
         <is>
-          <t>Galaxy M31</t>
+          <t>Galaxy J7 2015</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="C187" t="inlineStr">
         <is>
-          <t>Galaxy M31s</t>
+          <t>Galaxy J7 2016</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="C188" t="inlineStr">
         <is>
-          <t>Galaxy M40</t>
+          <t>Galaxy J7 Core</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="C189" t="inlineStr">
         <is>
-          <t>Galaxy M51</t>
+          <t>Galaxy J7 Duo</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="C190" t="inlineStr">
         <is>
-          <t>Galaxy Note 10</t>
+          <t>Galaxy J7 Max</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="C191" t="inlineStr">
         <is>
-          <t>Galaxy Note 10 Lite</t>
+          <t>Galaxy J7 Prime</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="C192" t="inlineStr">
         <is>
-          <t>Galaxy Note 10 Plus</t>
+          <t>Galaxy J7 Prime 2</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="C193" t="inlineStr">
         <is>
-          <t>Galaxy Note 2</t>
+          <t>Galaxy J7 Pro</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="C194" t="inlineStr">
         <is>
-          <t>Galaxy Note 20</t>
+          <t>Galaxy J8</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="C195" t="inlineStr">
         <is>
-          <t>Galaxy Note 20 Ultra</t>
+          <t>Galaxy M10</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="C196" t="inlineStr">
         <is>
-          <t>Galaxy Note 3</t>
+          <t>Galaxy M10S</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="C197" t="inlineStr">
         <is>
-          <t>Galaxy Note 4</t>
+          <t>Galaxy M11</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="C198" t="inlineStr">
         <is>
-          <t>Galaxy Note 5</t>
+          <t>Galaxy M12</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="C199" t="inlineStr">
         <is>
-          <t>Galaxy Note 8</t>
+          <t>Galaxy M13</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="C200" t="inlineStr">
         <is>
-          <t>Galaxy Note 9</t>
+          <t>Galaxy M14</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="C201" t="inlineStr">
         <is>
-          <t>Galaxy Note FE</t>
+          <t>Galaxy M20</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="C202" t="inlineStr">
         <is>
-          <t>Galaxy ON5</t>
+          <t>Galaxy M21</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="C203" t="inlineStr">
         <is>
-          <t>Galaxy ON7</t>
+          <t>Galaxy M30</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="C204" t="inlineStr">
         <is>
-          <t>Galaxy S10</t>
+          <t>Galaxy M30S</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="C205" t="inlineStr">
         <is>
-          <t>Galaxy S10e</t>
+          <t>Galaxy M31</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="C206" t="inlineStr">
         <is>
-          <t>Galaxy S10 Lite</t>
+          <t>Galaxy M31s</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="C207" t="inlineStr">
         <is>
-          <t>Galaxy S10 Plus</t>
+          <t>Galaxy M34 5G</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="C208" t="inlineStr">
         <is>
-          <t>Galaxy S20</t>
+          <t>Galaxy M40</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="C209" t="inlineStr">
         <is>
-          <t>Galaxy S20 FE</t>
+          <t>Galaxy M51</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="C210" t="inlineStr">
         <is>
-          <t>Galaxy S20 Plus</t>
+          <t>Galaxy Note 10</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="C211" t="inlineStr">
         <is>
-          <t>Galaxy S20 Ultra</t>
+          <t>Galaxy Note 10 Lite</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="C212" t="inlineStr">
         <is>
-          <t>Galaxy S21</t>
+          <t>Galaxy Note 10 Plus</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="C213" t="inlineStr">
         <is>
-          <t>Galaxy S21 FE</t>
+          <t>Galaxy Note 2</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="C214" t="inlineStr">
         <is>
-          <t>Galaxy S21 Plus</t>
+          <t>Galaxy Note 20</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="C215" t="inlineStr">
         <is>
-          <t>Galaxy S21 Ultra</t>
+          <t>Galaxy Note 20 Ultra</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="C216" t="inlineStr">
         <is>
-          <t>Galaxy S22</t>
+          <t>Galaxy Note 3</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="C217" t="inlineStr">
         <is>
-          <t>Galaxy S22 Plus</t>
+          <t>Galaxy Note 4</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="C218" t="inlineStr">
         <is>
-          <t>Galaxy S22 Ultra</t>
+          <t>Galaxy Note 5</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="C219" t="inlineStr">
         <is>
-          <t>Galaxy S23</t>
+          <t>Galaxy Note 8</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="C220" t="inlineStr">
         <is>
-          <t>Galaxy S23 Plus</t>
+          <t>Galaxy Note 9</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="C221" t="inlineStr">
         <is>
-          <t>Galaxy S23 Ultra</t>
+          <t>Galaxy Note FE</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="C222" t="inlineStr">
         <is>
-          <t>Galaxy S3</t>
+          <t>Galaxy ON5</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="C223" t="inlineStr">
         <is>
-          <t>Galaxy S3 Mini</t>
+          <t>Galaxy ON7</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="C224" t="inlineStr">
         <is>
-          <t>Galaxy S4</t>
+          <t>Galaxy S10</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="C225" t="inlineStr">
         <is>
-          <t>Galaxy S4 Mini</t>
+          <t>Galaxy S10e</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="C226" t="inlineStr">
         <is>
-          <t>Galaxy S5</t>
+          <t>Galaxy S10 Lite</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="C227" t="inlineStr">
         <is>
-          <t>Galaxy S5 Mini</t>
+          <t>Galaxy S10 Plus</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="C228" t="inlineStr">
         <is>
-          <t>Galaxy S6</t>
+          <t>Galaxy S20</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="C229" t="inlineStr">
         <is>
-          <t>Galaxy S6 Edge</t>
+          <t>Galaxy S20 FE</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="C230" t="inlineStr">
         <is>
-          <t>Galaxy S6 Edge Plus</t>
+          <t>Galaxy S20 Plus</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="C231" t="inlineStr">
         <is>
-          <t>Galaxy S7</t>
+          <t>Galaxy S20 Ultra</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="C232" t="inlineStr">
         <is>
-          <t>Galaxy S7 Edge</t>
+          <t>Galaxy S21</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="C233" t="inlineStr">
         <is>
-          <t>Galaxy S8</t>
+          <t>Galaxy S21 FE</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="C234" t="inlineStr">
         <is>
-          <t>Galaxy S8 Plus</t>
+          <t>Galaxy S21 Plus</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="C235" t="inlineStr">
         <is>
-          <t>Galaxy S9</t>
+          <t>Galaxy S21 Ultra</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="C236" t="inlineStr">
         <is>
-          <t>Galaxy S9 Plus</t>
+          <t>Galaxy S22</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="C237" t="inlineStr">
         <is>
-          <t>General Mobile Android One</t>
+          <t>Galaxy S22 Plus</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="C238" t="inlineStr">
         <is>
-          <t>General Mobile Discovery</t>
+          <t>Galaxy S22 Ultra</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="C239" t="inlineStr">
         <is>
-          <t>General Mobile Discovery 2</t>
+          <t>Galaxy S23</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="C240" t="inlineStr">
         <is>
-          <t>General Mobile Discovery 2 Mini</t>
+          <t>Galaxy S23 Fe</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="C241" t="inlineStr">
         <is>
-          <t>General Mobile Discovery Air</t>
+          <t>Galaxy S23 Plus</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="C242" t="inlineStr">
         <is>
-          <t>General Mobile Discovery Elite</t>
+          <t>Galaxy S23 Ultra</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="C243" t="inlineStr">
         <is>
-          <t>General Mobile Discovery Elite Plus</t>
+          <t>Galaxy S24</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="C244" t="inlineStr">
         <is>
-          <t>General Mobile GM 20</t>
+          <t>Galaxy S24 Plus</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="C245" t="inlineStr">
         <is>
-          <t>General Mobile GM 20 Pro</t>
+          <t>Galaxy S24 Ultra</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="C246" t="inlineStr">
         <is>
-          <t>General Mobile GM 21</t>
+          <t>Galaxy S3</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="C247" t="inlineStr">
         <is>
-          <t>General Mobile GM 21 Plus</t>
+          <t>Galaxy S3 Mini</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="C248" t="inlineStr">
         <is>
-          <t>General Mobile GM 21 Pro</t>
+          <t>Galaxy S4</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="C249" t="inlineStr">
         <is>
-          <t>General Mobile GM22</t>
+          <t>Galaxy S4 Mini</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="C250" t="inlineStr">
         <is>
-          <t>General Mobile GM22 Plus</t>
+          <t>Galaxy S5</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="C251" t="inlineStr">
         <is>
-          <t>General Mobile GM22 Pro</t>
+          <t>Galaxy S5 Mini</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="C252" t="inlineStr">
         <is>
-          <t>General Mobile GM5</t>
+          <t>Galaxy S6</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="C253" t="inlineStr">
         <is>
-          <t>General Mobile GM5 Plus</t>
+          <t>Galaxy S6 Edge</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="C254" t="inlineStr">
         <is>
-          <t>General Mobile GM6</t>
+          <t>Galaxy S6 Edge Plus</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="C255" t="inlineStr">
         <is>
-          <t>General Mobile GM8</t>
+          <t>Galaxy S7</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="C256" t="inlineStr">
         <is>
-          <t>General Mobile GM8 GO</t>
+          <t>Galaxy S7 Edge</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="C257" t="inlineStr">
         <is>
-          <t>General Mobile GM9 Pro</t>
+          <t>Galaxy S8</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="C258" t="inlineStr">
         <is>
-          <t>GM 10</t>
+          <t>Galaxy S8 Plus</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="C259" t="inlineStr">
         <is>
-          <t>GM20</t>
+          <t>Galaxy S9</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="C260" t="inlineStr">
         <is>
-          <t>GM20 Pro</t>
+          <t>Galaxy S9 Plus</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="C261" t="inlineStr">
         <is>
-          <t>Honor 10</t>
+          <t>Galaxy Z Flip</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="C262" t="inlineStr">
         <is>
-          <t>Honor 10 Lite</t>
+          <t>Galaxy Z Flip 4</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="C263" t="inlineStr">
         <is>
-          <t>Honor 20</t>
+          <t>Galaxy Z Flip 5</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="C264" t="inlineStr">
         <is>
-          <t>Honor 20 Lite</t>
+          <t>Galaxy Z Fold 2</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="C265" t="inlineStr">
         <is>
-          <t>Honor 7</t>
+          <t>Galaxy Z Fold 3</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="C266" t="inlineStr">
         <is>
-          <t>Honor 7C</t>
+          <t>Galaxy Z Fold 4</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="C267" t="inlineStr">
         <is>
-          <t>Honor 7S</t>
+          <t>Galaxy Z Fold 5</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="C268" t="inlineStr">
         <is>
-          <t>Honor 7X</t>
+          <t>General Mobile 23</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="C269" t="inlineStr">
         <is>
-          <t>Honor 8</t>
+          <t>General Mobile 23SE</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="C270" t="inlineStr">
         <is>
-          <t>Honor 8A</t>
+          <t>General Mobile 24 Pro</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="C271" t="inlineStr">
         <is>
-          <t>Honor 8C</t>
+          <t>General Mobile 4G</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="C272" t="inlineStr">
         <is>
-          <t>Honor 8S</t>
+          <t>General Mobile Android One</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="C273" t="inlineStr">
         <is>
-          <t>Honor 8X</t>
+          <t>General Mobile Discovery</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="C274" t="inlineStr">
         <is>
-          <t>Honor 9</t>
+          <t>General Mobile Discovery 2</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="C275" t="inlineStr">
         <is>
-          <t>Honor 9 Lite</t>
+          <t>General Mobile Discovery 2 Mini</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="C276" t="inlineStr">
         <is>
-          <t>Honor 9X</t>
+          <t>General Mobile Discovery Air</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="C277" t="inlineStr">
         <is>
-          <t>Honor Play</t>
+          <t>General Mobile Discovery Elite</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="C278" t="inlineStr">
         <is>
-          <t>Honor View 20</t>
+          <t>General Mobile Discovery Elite Plus</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="C279" t="inlineStr">
         <is>
-          <t>Htc 10</t>
+          <t>General Mobile GM 20</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="C280" t="inlineStr">
         <is>
-          <t>Htc Desire 12</t>
+          <t>General Mobile GM 20 Pro</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="C281" t="inlineStr">
         <is>
-          <t>Htc Desire 530</t>
+          <t>General Mobile GM 21</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="C282" t="inlineStr">
         <is>
-          <t>Htc Desire 620</t>
+          <t>General Mobile GM 21 Plus</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="C283" t="inlineStr">
         <is>
-          <t>Htc Desire 626</t>
+          <t>General Mobile GM 21 Pro</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="C284" t="inlineStr">
         <is>
-          <t>Htc Desire 728</t>
+          <t>General Mobile GM22</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="C285" t="inlineStr">
         <is>
-          <t>Htc Desire 816</t>
+          <t>General Mobile GM22 Plus</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="C286" t="inlineStr">
         <is>
-          <t>Htc Desire 820</t>
+          <t>General Mobile GM22 Pro</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="C287" t="inlineStr">
         <is>
-          <t>Htc Desire 825</t>
+          <t>General Mobile GM5</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="C288" t="inlineStr">
         <is>
-          <t>Htc Desire 826</t>
+          <t>General Mobile GM5 Plus</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="C289" t="inlineStr">
         <is>
-          <t>Htc Desire 828</t>
+          <t>General Mobile GM6</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="C290" t="inlineStr">
         <is>
-          <t>Htc Desire 830</t>
+          <t>General Mobile GM8</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="C291" t="inlineStr">
         <is>
-          <t>Htc Desire Eye</t>
+          <t>General Mobile GM8 GO</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="C292" t="inlineStr">
         <is>
-          <t>Htc One A9</t>
+          <t>General Mobile GM9 Pro</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="C293" t="inlineStr">
         <is>
-          <t>Htc One M7</t>
+          <t>GM 10</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="C294" t="inlineStr">
         <is>
-          <t>Htc One M8</t>
+          <t>GM20</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="C295" t="inlineStr">
         <is>
-          <t>Htc One M9</t>
+          <t>GM20 Pro</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="C296" t="inlineStr">
         <is>
-          <t>Htc One M9 Plus</t>
+          <t>Honor 10</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="C297" t="inlineStr">
         <is>
-          <t>Htc U11</t>
+          <t>Honor 10 Lite</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="C298" t="inlineStr">
         <is>
-          <t>Htc U11 Life</t>
+          <t>Honor 20</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="C299" t="inlineStr">
         <is>
-          <t>Huawei Ascend P7</t>
+          <t>Honor 20 Lite</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="C300" t="inlineStr">
         <is>
-          <t>Huawei G7</t>
+          <t>Honor 50</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="C301" t="inlineStr">
         <is>
-          <t>Huawei G8</t>
+          <t>Honor 7</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="C302" t="inlineStr">
         <is>
-          <t>Huawei GR3</t>
+          <t>Honor 70</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="C303" t="inlineStr">
         <is>
-          <t>Huawei GR5</t>
+          <t>Honor 7C</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="C304" t="inlineStr">
         <is>
-          <t>Huawei GR5 2017</t>
+          <t>Honor 7S</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="C305" t="inlineStr">
         <is>
-          <t>Huawei Mate 10</t>
+          <t>Honor 7X</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="C306" t="inlineStr">
         <is>
-          <t>Huawei Mate 10 Lite</t>
+          <t>Honor 8</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="C307" t="inlineStr">
         <is>
-          <t>Huawei Mate 10 Pro</t>
+          <t>Honor 8A</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="C308" t="inlineStr">
         <is>
-          <t>Huawei Mate 20</t>
+          <t>Honor 8C</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="C309" t="inlineStr">
         <is>
-          <t>Huawei Mate 20 Lite</t>
+          <t>Honor 8S</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="C310" t="inlineStr">
         <is>
-          <t>Huawei Mate 20 Pro</t>
+          <t>Honor 8X</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="C311" t="inlineStr">
         <is>
-          <t>Huawei Mate 30</t>
+          <t>Honor 9</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="C312" t="inlineStr">
         <is>
-          <t>Huawei Mate 30 Pro</t>
+          <t>Honor 90</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="C313" t="inlineStr">
         <is>
-          <t>Huawei Mate 40 Pro</t>
+          <t>Honor 9 Lite</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="C314" t="inlineStr">
         <is>
-          <t>Huawei Mate 7</t>
+          <t>Honor 9X</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="C315" t="inlineStr">
         <is>
-          <t>Huawei Mate 8</t>
+          <t>Honor Play</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="C316" t="inlineStr">
         <is>
-          <t>Huawei Mate 9</t>
+          <t>Honor View 20</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="C317" t="inlineStr">
         <is>
-          <t>Huawei Mate S</t>
+          <t>Honor X9a</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="C318" t="inlineStr">
         <is>
-          <t>Huawei Nova</t>
+          <t>Htc 10</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="C319" t="inlineStr">
         <is>
-          <t>Huawei Nova 5T</t>
+          <t>Htc Desire 12</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="C320" t="inlineStr">
         <is>
-          <t>Huawei Nova 9</t>
+          <t>HTC Desire 12 Plus</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="C321" t="inlineStr">
         <is>
-          <t>Huawei Nova 9 Se</t>
+          <t>Htc Desire 530</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="C322" t="inlineStr">
         <is>
-          <t>Huawei Nova Y70</t>
+          <t>Htc Desire 620</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="C323" t="inlineStr">
         <is>
-          <t>Huawei Nova Y90</t>
+          <t>Htc Desire 626</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="C324" t="inlineStr">
         <is>
-          <t>Huawei P10</t>
+          <t>Htc Desire 728</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="C325" t="inlineStr">
         <is>
-          <t>Huawei P10 Lite</t>
+          <t>Htc Desire 816</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="C326" t="inlineStr">
         <is>
-          <t>Huawei P10 Plus</t>
+          <t>Htc Desire 820</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="C327" t="inlineStr">
         <is>
-          <t>Huawei P20</t>
+          <t>Htc Desire 825</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="C328" t="inlineStr">
         <is>
-          <t>Huawei P20 Lite</t>
+          <t>Htc Desire 826</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="C329" t="inlineStr">
         <is>
-          <t>Huawei P20 Pro</t>
+          <t>Htc Desire 828</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="C330" t="inlineStr">
         <is>
-          <t>Huawei P30</t>
+          <t>Htc Desire 830</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="C331" t="inlineStr">
         <is>
-          <t>Huawei P30 Lite</t>
+          <t>Htc Desire Eye</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="C332" t="inlineStr">
         <is>
-          <t>Huawei P30 Pro</t>
+          <t>Htc One A9</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="C333" t="inlineStr">
         <is>
-          <t>Huawei P40</t>
+          <t>Htc One M7</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="C334" t="inlineStr">
         <is>
-          <t>Huawei P40 Lite</t>
+          <t>Htc One M8</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="C335" t="inlineStr">
         <is>
-          <t>Huawei P40 Lite E</t>
+          <t>Htc One M9</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="C336" t="inlineStr">
         <is>
-          <t>Huawei P40 Pro</t>
+          <t>Htc One M9 Plus</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="C337" t="inlineStr">
         <is>
-          <t>Huawei P8</t>
+          <t>Htc U11</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="C338" t="inlineStr">
         <is>
-          <t>Huawei P8 Lite</t>
+          <t>Htc U11 Life</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="C339" t="inlineStr">
         <is>
-          <t>Huawei P9</t>
+          <t>Huawei Ascend P7</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="C340" t="inlineStr">
         <is>
-          <t>Huawei P9 Lite</t>
+          <t>Huawei G7</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="C341" t="inlineStr">
         <is>
-          <t>Huawei P 9 Lite 2017</t>
+          <t>Huawei G8</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="C342" t="inlineStr">
         <is>
-          <t>Huawei P9 Lite Mini</t>
+          <t>Huawei GR3</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="C343" t="inlineStr">
         <is>
-          <t>Huawei P Smart</t>
+          <t>Huawei GR5</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="C344" t="inlineStr">
         <is>
-          <t>Huawei P Smart 2018</t>
+          <t>Huawei GR5 2017</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="C345" t="inlineStr">
         <is>
-          <t>Huawei P Smart 2019</t>
+          <t>Huawei Mate 10</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="C346" t="inlineStr">
         <is>
-          <t>Huawei P Smart 2020</t>
+          <t>Huawei Mate 10 Lite</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="C347" t="inlineStr">
         <is>
-          <t>Huawei P Smart 2021</t>
+          <t>Huawei Mate 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="C348" t="inlineStr">
         <is>
-          <t>Huawei P Smart Pro</t>
+          <t>Huawei Mate 20</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="C349" t="inlineStr">
         <is>
-          <t>Huawei P Smart S</t>
+          <t>Huawei Mate 20 Lite</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="C350" t="inlineStr">
         <is>
-          <t>Huawei P Smart Z</t>
+          <t>Huawei Mate 20 Pro</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="C351" t="inlineStr">
         <is>
-          <t>Huawei Y5 2018</t>
+          <t>Huawei Mate 30</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="C352" t="inlineStr">
         <is>
-          <t>Huawei Y5 2019</t>
+          <t>Huawei Mate 30 Pro</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="C353" t="inlineStr">
         <is>
-          <t>Huawei Y5 Prime 2018</t>
+          <t>Huawei Mate 40 Pro</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="C354" t="inlineStr">
         <is>
-          <t>Huawei Y6</t>
+          <t>Huawei Mate 7</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="C355" t="inlineStr">
         <is>
-          <t>Huawei Y6 2</t>
+          <t>Huawei Mate 8</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="C356" t="inlineStr">
         <is>
-          <t>Huawei Y6 2018</t>
+          <t>Huawei Mate 9</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="C357" t="inlineStr">
         <is>
-          <t>Huawei Y6 2019</t>
+          <t>Huawei Mate S</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="C358" t="inlineStr">
         <is>
-          <t>Huawei Y6P</t>
+          <t>Huawei Nova</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="C359" t="inlineStr">
         <is>
-          <t>Huawei Y6P 2020</t>
+          <t>Huawei Nova 5T</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="C360" t="inlineStr">
         <is>
-          <t>Huawei Y6 Prime 2018</t>
+          <t>Huawei Nova 9</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="C361" t="inlineStr">
         <is>
-          <t>Huawei Y6S</t>
+          <t>Huawei Nova 9 Se</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="C362" t="inlineStr">
         <is>
-          <t>Huawei Y6S 2019</t>
+          <t>Huawei Nova Y70</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="C363" t="inlineStr">
         <is>
-          <t>Huawei Y7</t>
+          <t>Huawei Nova Y90</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="C364" t="inlineStr">
         <is>
-          <t>Huawei Y7 2018</t>
+          <t>Huawei P10</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="C365" t="inlineStr">
         <is>
-          <t>Huawei Y7 2019</t>
+          <t>Huawei P10 Lite</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="C366" t="inlineStr">
         <is>
-          <t>Huawei Y7 Prime 2019</t>
+          <t>Huawei P10 Plus</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="C367" t="inlineStr">
         <is>
-          <t>Huawei Y8P</t>
+          <t>Huawei P20</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="C368" t="inlineStr">
         <is>
-          <t>Huawei Y9 2018</t>
+          <t>Huawei P20 Lite</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="C369" t="inlineStr">
         <is>
-          <t>Huawei Y9 2019</t>
+          <t>Huawei P20 Pro</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="C370" t="inlineStr">
         <is>
-          <t>Huawei Y9 Prime 2019</t>
+          <t>Huawei P30</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="C371" t="inlineStr">
         <is>
-          <t>Infinix Note 7</t>
+          <t>Huawei P30 Lite</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="C372" t="inlineStr">
         <is>
-          <t>Infinix Zero 8</t>
+          <t>Huawei P30 Pro</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="C373" t="inlineStr">
         <is>
-          <t>Iphone 5</t>
+          <t>Huawei P40</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="C374" t="inlineStr">
         <is>
-          <t>Iphone Se Plus</t>
+          <t>Huawei P40 Lite</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="C375" t="inlineStr">
         <is>
-          <t>iPhone 11</t>
+          <t>Huawei P40 Lite E</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="C376" t="inlineStr">
         <is>
-          <t>iPhone 11 Pro</t>
+          <t>Huawei P40 Pro</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="C377" t="inlineStr">
         <is>
-          <t>iPhone 11 Pro Max</t>
+          <t>Huawei P8</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="C378" t="inlineStr">
         <is>
-          <t>iPhone 12</t>
+          <t>Huawei P8 Lite</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="C379" t="inlineStr">
         <is>
-          <t>iPhone 12 Mini</t>
+          <t>Huawei P9</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="C380" t="inlineStr">
         <is>
-          <t>iPhone 12 Pro</t>
+          <t>Huawei P9 Lite</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="C381" t="inlineStr">
         <is>
-          <t>iPhone 12 Pro Max</t>
+          <t>Huawei P 9 Lite 2017</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="C382" t="inlineStr">
         <is>
-          <t>iPhone 13</t>
+          <t>Huawei P9 Lite Mini</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="C383" t="inlineStr">
         <is>
-          <t>iPhone 13 Mini</t>
+          <t>Huawei P Smart</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="C384" t="inlineStr">
         <is>
-          <t>iPhone 13 Pro</t>
+          <t>Huawei P Smart 2018</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="C385" t="inlineStr">
         <is>
-          <t>iPhone 13 Pro Max</t>
+          <t>Huawei P Smart 2019</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="C386" t="inlineStr">
         <is>
-          <t>iPhone 14</t>
+          <t>Huawei P Smart 2020</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="C387" t="inlineStr">
         <is>
-          <t>iPhone 14 Plus</t>
+          <t>Huawei P Smart 2021</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="C388" t="inlineStr">
         <is>
-          <t>iPhone 14 Pro</t>
+          <t>Huawei P Smart Pro</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="C389" t="inlineStr">
         <is>
-          <t>iPhone 14 Pro Max</t>
+          <t>Huawei P Smart S</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="C390" t="inlineStr">
         <is>
-          <t>iPhone 4/4S</t>
+          <t>Huawei P Smart Z</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="C391" t="inlineStr">
         <is>
-          <t>iPhone 5S</t>
+          <t>Huawei Y5 2018</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="C392" t="inlineStr">
         <is>
-          <t>iPhone 6</t>
+          <t>Huawei Y5 2019</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="C393" t="inlineStr">
         <is>
-          <t>iPhone 6 Plus</t>
+          <t>Huawei Y5P</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="C394" t="inlineStr">
         <is>
-          <t>iPhone 6S</t>
+          <t>Huawei Y5 Prime 2018</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="C395" t="inlineStr">
         <is>
-          <t>iPhone 6S Plus</t>
+          <t>Huawei Y6</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="C396" t="inlineStr">
         <is>
-          <t>iPhone 7</t>
+          <t>Huawei Y6 2</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="C397" t="inlineStr">
         <is>
-          <t>iPhone 7 Plus</t>
+          <t>Huawei Y6 2018</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="C398" t="inlineStr">
         <is>
-          <t>iPhone 8</t>
+          <t>Huawei Y6 2019</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="C399" t="inlineStr">
         <is>
-          <t>iPhone 8 Plus</t>
+          <t>Huawei Y6P</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="C400" t="inlineStr">
         <is>
-          <t>iPhone SE</t>
+          <t>Huawei Y6P 2020</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="C401" t="inlineStr">
         <is>
-          <t>iPhone SE 2020</t>
+          <t>Huawei Y6 Prime 2018</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="C402" t="inlineStr">
         <is>
-          <t>iPhone X</t>
+          <t>Huawei Y6S</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="C403" t="inlineStr">
         <is>
-          <t>iPhone XR</t>
+          <t>Huawei Y6S 2019</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="C404" t="inlineStr">
         <is>
-          <t>iPhone XS</t>
+          <t>Huawei Y7</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="C405" t="inlineStr">
         <is>
-          <t>iPhone XS Max</t>
+          <t>Huawei Y7 2018</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="C406" t="inlineStr">
         <is>
-          <t>Lenovo A1000</t>
+          <t>Huawei Y7 2019</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="C407" t="inlineStr">
         <is>
-          <t>Lenovo A2010</t>
+          <t>Huawei Y7 Prime 2019</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="C408" t="inlineStr">
         <is>
-          <t>Lenovo A5000</t>
+          <t>Huawei Y8P</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="C409" t="inlineStr">
         <is>
-          <t>Lenovo A6000</t>
+          <t>Huawei Y9 2018</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="C410" t="inlineStr">
         <is>
-          <t>Lenovo A7000</t>
+          <t>Huawei Y9 2019</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="C411" t="inlineStr">
         <is>
-          <t>Lenovo A7010</t>
+          <t>Huawei Y9 Prime 2019</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="C412" t="inlineStr">
         <is>
-          <t>Lenovo K5</t>
+          <t>Infinix Hot 40</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="C413" t="inlineStr">
         <is>
-          <t>Lenovo K5 Note</t>
+          <t>Infinix Note 7</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="C414" t="inlineStr">
         <is>
-          <t>Lenovo K6</t>
+          <t>Infinix Zero 8</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="C415" t="inlineStr">
         <is>
-          <t>Lenovo K6 Note</t>
+          <t>Iphone 5</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="C416" t="inlineStr">
         <is>
-          <t>Lenovo Moto E4</t>
+          <t>Iphone Se Plus</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="C417" t="inlineStr">
         <is>
-          <t>Lenovo Moto E4 Plus</t>
+          <t>İnfinix Hot 10</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="C418" t="inlineStr">
         <is>
-          <t>Lenovo Moto G4</t>
+          <t>İnfinix Hot 10 Play</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="C419" t="inlineStr">
         <is>
-          <t>Lenovo Moto G5</t>
+          <t>İnfinix Hot 10T</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="C420" t="inlineStr">
         <is>
-          <t>Lenovo Moto G5S</t>
+          <t>İnfinix Hot 11 Play</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="C421" t="inlineStr">
         <is>
-          <t>Lenovo Moto G5S Plus</t>
+          <t>İnfinix Hot 12</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="C422" t="inlineStr">
         <is>
-          <t>Lenovo Moto Z</t>
+          <t>İnfinix Hot 20</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="C423" t="inlineStr">
         <is>
-          <t>Lenovo Moto Z2 Play</t>
+          <t>İnfinix Hot 20i</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="C424" t="inlineStr">
         <is>
-          <t>Lenovo Moto Z Play</t>
+          <t>İnfinix Hot 30i</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="C425" t="inlineStr">
         <is>
-          <t>Lenovo One Vision</t>
+          <t>İnfinix Hot 8</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="C426" t="inlineStr">
         <is>
-          <t>Lenovo P2</t>
+          <t>İnfinix Hot 9</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="C427" t="inlineStr">
         <is>
-          <t>Lenovo P70</t>
+          <t>İnfinix Note 10</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="C428" t="inlineStr">
         <is>
-          <t>Lenovo S60</t>
+          <t>İnfinix Note 11 Pro</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="C429" t="inlineStr">
         <is>
-          <t>Lenovo S90</t>
+          <t>İnfinix Note 12</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="C430" t="inlineStr">
         <is>
-          <t>Lenovo Vibe C</t>
+          <t>İnfinix Note 30</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="C431" t="inlineStr">
         <is>
-          <t>Lenovo Vibe P1</t>
+          <t>İnfinix Note 8</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="C432" t="inlineStr">
         <is>
-          <t>Lenovo Vibe P1m</t>
+          <t>infinix Smart 5</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="C433" t="inlineStr">
         <is>
-          <t>Lenovo Vibe P1 Pro</t>
+          <t>iPhone 11</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="C434" t="inlineStr">
         <is>
-          <t>Lenovo Vibe X2</t>
+          <t>iPhone 11 Pro</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="C435" t="inlineStr">
         <is>
-          <t>Lg G2</t>
+          <t>iPhone 11 Pro Max</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="C436" t="inlineStr">
         <is>
-          <t>Lg G3</t>
+          <t>iPhone 12</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="C437" t="inlineStr">
         <is>
-          <t>Lg G3 Beat</t>
+          <t>iPhone 12 Mini</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="C438" t="inlineStr">
         <is>
-          <t>Lg G3 Stylus</t>
+          <t>iPhone 12 Pro</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="C439" t="inlineStr">
         <is>
-          <t>Lg G4</t>
+          <t>iPhone 12 Pro Max</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="C440" t="inlineStr">
         <is>
-          <t>Lg G4 Beat</t>
+          <t>iPhone 13</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="C441" t="inlineStr">
         <is>
-          <t>Lg G4c</t>
+          <t>iPhone 13 Mini</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="C442" t="inlineStr">
         <is>
-          <t>Lg G4 Stylus</t>
+          <t>iPhone 13 Pro</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="C443" t="inlineStr">
         <is>
-          <t>Lg G5</t>
+          <t>iPhone 13 Pro Max</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="C444" t="inlineStr">
         <is>
-          <t>Lg G5 Se</t>
+          <t>iPhone 14</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="C445" t="inlineStr">
         <is>
-          <t>Lg G6</t>
+          <t>iPhone 14 Plus</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="C446" t="inlineStr">
         <is>
-          <t>Lg G7 ThinQ</t>
+          <t>iPhone 14 Pro</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="C447" t="inlineStr">
         <is>
-          <t>Lg K10</t>
+          <t>iPhone 14 Pro Max</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="C448" t="inlineStr">
         <is>
-          <t>Lg K10 (2017)</t>
+          <t>iPhone 15</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="C449" t="inlineStr">
         <is>
-          <t>Lg K11</t>
+          <t>iPhone 15 Plus</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="C450" t="inlineStr">
         <is>
-          <t>LG K20 (2019)</t>
+          <t>iPhone 15 Pro</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="C451" t="inlineStr">
         <is>
-          <t>Lg K4</t>
+          <t>iPhone 15 Pro Max</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="C452" t="inlineStr">
         <is>
-          <t>LG K40</t>
+          <t>iPhone 4/4S</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="C453" t="inlineStr">
         <is>
-          <t>LG K41S</t>
+          <t>iPhone 5S</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="C454" t="inlineStr">
         <is>
-          <t>LG K50S</t>
+          <t>iPhone 6</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="C455" t="inlineStr">
         <is>
-          <t>LG K61</t>
+          <t>iPhone 6 Plus</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="C456" t="inlineStr">
         <is>
-          <t>Lg K7</t>
+          <t>iPhone 6S</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="C457" t="inlineStr">
         <is>
-          <t>Lg K8</t>
+          <t>iPhone 6S Plus</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="C458" t="inlineStr">
         <is>
-          <t>Lg K8 (2017)</t>
+          <t>iPhone 7</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="C459" t="inlineStr">
         <is>
-          <t>Lg K9</t>
+          <t>iPhone 7 Plus</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="C460" t="inlineStr">
         <is>
-          <t>Lg L Bello</t>
+          <t>iPhone 8</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="C461" t="inlineStr">
         <is>
-          <t>Lg L Leon</t>
+          <t>iPhone 8 Plus</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="C462" t="inlineStr">
         <is>
-          <t>Lg Q6</t>
+          <t>iPhone SE</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="C463" t="inlineStr">
         <is>
-          <t>Lg Q7</t>
+          <t>iPhone SE 2020</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="C464" t="inlineStr">
         <is>
-          <t>Lg Stylus</t>
+          <t>iPhone SE 2022</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="C465" t="inlineStr">
         <is>
-          <t>Lg Stylus 2</t>
+          <t>iPhone X</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="C466" t="inlineStr">
         <is>
-          <t>Lg Stylus 3</t>
+          <t>iPhone XR</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="C467" t="inlineStr">
         <is>
-          <t>Lg V10</t>
+          <t>iPhone XS</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="C468" t="inlineStr">
         <is>
-          <t>Lg V20</t>
+          <t>iPhone XS Max</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="C469" t="inlineStr">
         <is>
-          <t>Lg V30</t>
+          <t>Lenovo A1000</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="C470" t="inlineStr">
         <is>
-          <t>Lg V30 Plus</t>
+          <t>Lenovo A2010</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="C471" t="inlineStr">
         <is>
-          <t>Lg X</t>
+          <t>Lenovo A5000</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="C472" t="inlineStr">
         <is>
-          <t>Lg X Power</t>
+          <t>Lenovo A6000</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="C473" t="inlineStr">
         <is>
-          <t>Lg X Screen</t>
+          <t>Lenovo A7000</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="C474" t="inlineStr">
         <is>
-          <t>Mate 30 Lite</t>
+          <t>Lenovo A7010</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="C475" t="inlineStr">
         <is>
-          <t>Meizu 16TH</t>
+          <t>Lenovo K5</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="C476" t="inlineStr">
         <is>
-          <t>Meizu M10</t>
+          <t>Lenovo K5 Note</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="C477" t="inlineStr">
         <is>
-          <t>Meizu M3 Note</t>
+          <t>Lenovo K5 Plus</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="C478" t="inlineStr">
         <is>
-          <t>Meizu M5S</t>
+          <t>Lenovo K6</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="C479" t="inlineStr">
         <is>
-          <t>Meizu M6</t>
+          <t>Lenovo K6 Note</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="C480" t="inlineStr">
         <is>
-          <t>Meizu M6S</t>
+          <t>Lenovo K6 Power</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="C481" t="inlineStr">
         <is>
-          <t>Meizu M6T</t>
+          <t>Lenovo Moto E4</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="C482" t="inlineStr">
         <is>
-          <t>Meizu MX4</t>
+          <t>Lenovo Moto E4 Plus</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="C483" t="inlineStr">
         <is>
-          <t>Meizu MX4 Pro</t>
+          <t>Lenovo Moto G4</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="C484" t="inlineStr">
         <is>
-          <t>Meizu MX5</t>
+          <t>Lenovo Moto G5</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="C485" t="inlineStr">
         <is>
-          <t>Meizu Note 8</t>
+          <t>Lenovo Moto G5S</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="C486" t="inlineStr">
         <is>
-          <t>Meizu Note 9</t>
+          <t>Lenovo Moto G5S Plus</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="C487" t="inlineStr">
         <is>
-          <t>Meizu Pro 6</t>
+          <t>Lenovo Moto Z</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="C488" t="inlineStr">
         <is>
-          <t>Meizu X8</t>
+          <t>Lenovo Moto Z2 Play</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="C489" t="inlineStr">
         <is>
-          <t>Mi 10</t>
+          <t>Lenovo Moto Z Play</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="C490" t="inlineStr">
         <is>
-          <t>Mi 10 Lite</t>
+          <t>Lenovo One Vision</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="C491" t="inlineStr">
         <is>
-          <t>Mi 10 Pro</t>
+          <t>Lenovo P2</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="C492" t="inlineStr">
         <is>
-          <t>Mi 10 T</t>
+          <t>Lenovo P70</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="C493" t="inlineStr">
         <is>
-          <t>Mi 10T Lite</t>
+          <t>Lenovo S60</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="C494" t="inlineStr">
         <is>
-          <t>Mi 10 T Pro</t>
+          <t>Lenovo S90</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="C495" t="inlineStr">
         <is>
-          <t>Mi 11T</t>
+          <t>Lenovo Vibe C</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="C496" t="inlineStr">
         <is>
-          <t>Mi 11T Pro</t>
+          <t>Lenovo Vibe P1</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="C497" t="inlineStr">
         <is>
-          <t>Mi 12 Lite</t>
+          <t>Lenovo Vibe P1m</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="C498" t="inlineStr">
         <is>
-          <t>Mi 13 Lite</t>
+          <t>Lenovo Vibe P1 Pro</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="C499" t="inlineStr">
         <is>
-          <t>Mi 8 Pro</t>
+          <t>Lenovo Vibe X2</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="C500" t="inlineStr">
         <is>
-          <t>Mi 9T Pro</t>
+          <t>Lg G2</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="C501" t="inlineStr">
         <is>
-          <t>Mi Note 10 Lite</t>
+          <t>Lg G3</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="C502" t="inlineStr">
         <is>
-          <t>Nokia 2</t>
+          <t>Lg G3 Beat</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="C503" t="inlineStr">
         <is>
-          <t>Nokia 3</t>
+          <t>Lg G3 Stylus</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="C504" t="inlineStr">
         <is>
-          <t>Nokia 5</t>
+          <t>Lg G4</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="C505" t="inlineStr">
         <is>
-          <t>Nokia 5.1 Plus</t>
+          <t>Lg G4 Beat</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="C506" t="inlineStr">
         <is>
-          <t>Nokia 6</t>
+          <t>Lg G4c</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="C507" t="inlineStr">
         <is>
-          <t>Nokia 6.1</t>
+          <t>Lg G4 Stylus</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="C508" t="inlineStr">
         <is>
-          <t>Nokia 7.1</t>
+          <t>Lg G5</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="C509" t="inlineStr">
         <is>
-          <t>Nokia 8</t>
+          <t>Lg G5 Se</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="C510" t="inlineStr">
         <is>
-          <t>Nokia Lumia 535</t>
+          <t>Lg G6</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="C511" t="inlineStr">
         <is>
-          <t>Nokia Lumia 540</t>
+          <t>Lg G7 ThinQ</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="C512" t="inlineStr">
         <is>
-          <t>Nokia Lumia 550</t>
+          <t>Lg K10</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="C513" t="inlineStr">
         <is>
-          <t>Nokia Lumia 650</t>
+          <t>Lg K10 (2017)</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="C514" t="inlineStr">
         <is>
-          <t>Nokia Lumia 950</t>
+          <t>Lg K11</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="C515" t="inlineStr">
         <is>
-          <t>Nokia Lumia 950 XL</t>
+          <t>LG K20 (2019)</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="C516" t="inlineStr">
         <is>
-          <t>Note 10 Pro</t>
+          <t>Lg K4</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="C517" t="inlineStr">
         <is>
-          <t>OnePlus 5</t>
+          <t>LG K40</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="C518" t="inlineStr">
         <is>
-          <t>One Plus 9</t>
+          <t>LG K41S</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="C519" t="inlineStr">
         <is>
-          <t>One Plus 9 Pro</t>
+          <t>LG K50S</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="C520" t="inlineStr">
         <is>
-          <t>Oppo A12</t>
+          <t>LG K51S</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="C521" t="inlineStr">
         <is>
-          <t>Oppo A15</t>
+          <t>LG K61</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="C522" t="inlineStr">
         <is>
-          <t>Oppo A15S</t>
+          <t>Lg K7</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="C523" t="inlineStr">
         <is>
-          <t>Oppo A16</t>
+          <t>Lg K8</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="C524" t="inlineStr">
         <is>
-          <t>Oppo A31</t>
+          <t>Lg K8 (2017)</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="C525" t="inlineStr">
         <is>
-          <t>Oppo A52</t>
+          <t>Lg K9</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="C526" t="inlineStr">
         <is>
-          <t>Oppo A5 2020</t>
+          <t>Lg L Bello</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="C527" t="inlineStr">
         <is>
-          <t>Oppo A54 4G</t>
+          <t>Lg L Leon</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="C528" t="inlineStr">
         <is>
-          <t>Oppo A5S</t>
+          <t>Lg Q6</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="C529" t="inlineStr">
         <is>
-          <t>Oppo A7</t>
+          <t>LG Q60</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="C530" t="inlineStr">
         <is>
-          <t>Oppo A72</t>
+          <t>Lg Q7</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="C531" t="inlineStr">
         <is>
-          <t>Oppo A73</t>
+          <t>Lg Stylus</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="C532" t="inlineStr">
         <is>
-          <t>Oppo A74 4G</t>
+          <t>Lg Stylus 2</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="C533" t="inlineStr">
         <is>
-          <t>Oppo A91</t>
+          <t>Lg Stylus 3</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="C534" t="inlineStr">
         <is>
-          <t>Oppo A92</t>
+          <t>Lg V10</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="C535" t="inlineStr">
         <is>
-          <t>Oppo A9 2020</t>
+          <t>Lg V20</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="C536" t="inlineStr">
         <is>
-          <t>Oppo AX7</t>
+          <t>Lg V30</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="C537" t="inlineStr">
         <is>
-          <t>Oppo Realme 5 Pro</t>
+          <t>Lg V30 Plus</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="C538" t="inlineStr">
         <is>
-          <t>Oppo Realme 6</t>
+          <t>Lg X</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="C539" t="inlineStr">
         <is>
-          <t>Oppo Realme 6 Pro</t>
+          <t>Lg X Power</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="C540" t="inlineStr">
         <is>
-          <t>Oppo Realme C15</t>
+          <t>Lg X Screen</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="C541" t="inlineStr">
         <is>
-          <t>Oppo Reno</t>
+          <t>LG X Style</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="C542" t="inlineStr">
         <is>
-          <t>Oppo Reno 2</t>
+          <t>LG Zero</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="C543" t="inlineStr">
         <is>
-          <t>Oppo Reno 2Z</t>
+          <t>Mate 30 Lite</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="C544" t="inlineStr">
         <is>
-          <t>Oppo Reno 3</t>
+          <t>Meizu 16</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="C545" t="inlineStr">
         <is>
-          <t>Oppo Reno 4</t>
+          <t>Meizu 16TH</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="C546" t="inlineStr">
         <is>
-          <t>Oppo Reno 4 Lite</t>
+          <t>Meizu 16XS</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="C547" t="inlineStr">
         <is>
-          <t>Oppo Reno 4 Pro</t>
+          <t>Meizu M10</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="C548" t="inlineStr">
         <is>
-          <t>Oppo Reno 5</t>
+          <t>Meizu M3 Note</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="C549" t="inlineStr">
         <is>
-          <t>Oppo Reno 5 Lite</t>
+          <t>Meizu M5S</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="C550" t="inlineStr">
         <is>
-          <t>Oppo Reno 5 Pro</t>
+          <t>Meizu M6</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="C551" t="inlineStr">
         <is>
-          <t>Oppo Reno 6</t>
+          <t>Meizu M6S</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="C552" t="inlineStr">
         <is>
-          <t>Oppo Reno Z</t>
+          <t>Meizu M6T</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="C553" t="inlineStr">
         <is>
-          <t>Oppo RX17 Neo</t>
+          <t>Meizu MX4</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="C554" t="inlineStr">
         <is>
-          <t>Oppo RX 17 Pro</t>
+          <t>Meizu MX4 Pro</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="C555" t="inlineStr">
         <is>
-          <t>Oppo RX 7 Neo</t>
+          <t>Meizu MX5</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="C556" t="inlineStr">
         <is>
-          <t>P40 Pro</t>
+          <t>Meizu Note 8</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="C557" t="inlineStr">
         <is>
-          <t>POCO C40</t>
+          <t>Meizu Note 9</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="C558" t="inlineStr">
         <is>
-          <t>Poco F2</t>
+          <t>Meizu Pro 6</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="C559" t="inlineStr">
         <is>
-          <t>Poco F2 Pro</t>
+          <t>Meizu X8</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="C560" t="inlineStr">
         <is>
-          <t>Poco F3</t>
+          <t>Mi 10</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="C561" t="inlineStr">
         <is>
-          <t>Poco M5</t>
+          <t>Mi 10 Lite</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="C562" t="inlineStr">
         <is>
-          <t>Poco X3 NFC</t>
+          <t>Mi 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="C563" t="inlineStr">
         <is>
-          <t>Poco X3 Pro</t>
+          <t>Mi 10 T</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="C564" t="inlineStr">
         <is>
-          <t>Poco X4 Pro 5G</t>
+          <t>Mi 10T Lite</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="C565" t="inlineStr">
         <is>
-          <t>P Smart 2018</t>
+          <t>Mi 10 T Pro</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="C566" t="inlineStr">
         <is>
-          <t>P Smart Pro 2019</t>
+          <t>Mi 11i</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="C567" t="inlineStr">
         <is>
-          <t>Realme 5</t>
+          <t>Mi 11T</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="C568" t="inlineStr">
         <is>
-          <t>Realme 5i</t>
+          <t>Mi 11T Pro</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="C569" t="inlineStr">
         <is>
-          <t>Realme 5 Pro</t>
+          <t>Mi 12</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="C570" t="inlineStr">
         <is>
-          <t>Realme 6</t>
+          <t>Mi 12 Lite</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="C571" t="inlineStr">
         <is>
-          <t>Realme 6i</t>
+          <t>Mi 12 Pro</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="C572" t="inlineStr">
         <is>
-          <t>Realme 6 Pro</t>
+          <t>Mi 12T</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="C573" t="inlineStr">
         <is>
-          <t>Realme 7</t>
+          <t>Mi 12T Pro</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="C574" t="inlineStr">
         <is>
-          <t>Realme 7 Pro</t>
+          <t>Mi 13</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="C575" t="inlineStr">
         <is>
-          <t>Realme 8</t>
+          <t>Mi 13 Lite</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="C576" t="inlineStr">
         <is>
-          <t>Realme 8 Pro</t>
+          <t>Mi 13 Pro</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="C577" t="inlineStr">
         <is>
-          <t>Realme C11</t>
+          <t>Mi 13 Ultra</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="C578" t="inlineStr">
         <is>
-          <t>Realme C11 2021</t>
+          <t>Mi 4S</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="C579" t="inlineStr">
         <is>
-          <t>Realme C2</t>
+          <t>Mi 8 Pro</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="C580" t="inlineStr">
         <is>
-          <t>Realme C20</t>
+          <t>Mi 9T Pro</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="C581" t="inlineStr">
         <is>
-          <t>Realme C21</t>
+          <t>Mi Mix 4</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="C582" t="inlineStr">
         <is>
-          <t>Realme C25</t>
+          <t>Mi Note 10 Lite</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="C583" t="inlineStr">
         <is>
-          <t>Realme C25S</t>
+          <t>Mi Note 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="C584" t="inlineStr">
         <is>
-          <t>Realme C3</t>
+          <t>Nokia 2</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="C585" t="inlineStr">
         <is>
-          <t>Realme XT</t>
+          <t>Nokia 3</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="C586" t="inlineStr">
         <is>
-          <t>Redmi 10A</t>
+          <t>Nokia 5</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="C587" t="inlineStr">
         <is>
-          <t>Redmi 10C</t>
+          <t>Nokia 5.1</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="C588" t="inlineStr">
         <is>
-          <t>Redmi 12C</t>
+          <t>Nokia 5.1 Plus</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="C589" t="inlineStr">
         <is>
-          <t>Redmi 12T</t>
+          <t>Nokia 6</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="C590" t="inlineStr">
         <is>
-          <t>Redmi 12T Pro</t>
+          <t>Nokia 6.1</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="C591" t="inlineStr">
         <is>
-          <t>Redmi 6A</t>
+          <t>Nokia 7.1</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="C592" t="inlineStr">
         <is>
-          <t>Redmi 8</t>
+          <t>Nokia 8</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="C593" t="inlineStr">
         <is>
-          <t>Redmi Note 10</t>
+          <t>Nokia Lumia 535</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="C594" t="inlineStr">
         <is>
-          <t>Redmi Note 10 5G</t>
+          <t>Nokia Lumia 540</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="C595" t="inlineStr">
         <is>
-          <t>Redmi Note 10 Pro</t>
+          <t>Nokia Lumia 550</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="C596" t="inlineStr">
         <is>
-          <t>Redmi Note 10 Pro 5G</t>
+          <t>Nokia Lumia 650</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="C597" t="inlineStr">
         <is>
-          <t>Redmi Note 11</t>
+          <t>Nokia Lumia 950</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="C598" t="inlineStr">
         <is>
-          <t>Redmi Note 11E</t>
+          <t>Nokia Lumia 950 XL</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="C599" t="inlineStr">
         <is>
-          <t>Redmi Note 12 Pro</t>
+          <t>Note 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="C600" t="inlineStr">
         <is>
-          <t>Redmi Note 12 Pro 5G</t>
+          <t>Nova 10</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="C601" t="inlineStr">
         <is>
-          <t>Redmi Note 7 Pro</t>
+          <t>Nova 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="C602" t="inlineStr">
         <is>
-          <t>Redmi Note 8</t>
+          <t>Nova 10 SE</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="C603" t="inlineStr">
         <is>
-          <t>Redmi Note 8 Pro</t>
+          <t>Nova 8İ</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="C604" t="inlineStr">
         <is>
-          <t>Redmi Note 8S</t>
+          <t>Omix X3</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="C605" t="inlineStr">
         <is>
-          <t>Redmi Note 8T</t>
+          <t>Omix X300</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="C606" t="inlineStr">
         <is>
-          <t>Redmi Note 9</t>
+          <t>Omix X400</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="C607" t="inlineStr">
         <is>
-          <t>Redmi Note 9 Pro</t>
+          <t>OmixX5</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="C608" t="inlineStr">
         <is>
-          <t>Redmi Note 9S</t>
+          <t>Omix X500</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="C609" t="inlineStr">
         <is>
-          <t>Reeder P13 Blue 2021</t>
+          <t>Omix X600</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="C610" t="inlineStr">
         <is>
-          <t>Reeder P13 Blue 2022</t>
+          <t>Omix X700</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="C611" t="inlineStr">
         <is>
-          <t>Reeder P13 Blue Max 2022</t>
+          <t>One Plus 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="C612" t="inlineStr">
         <is>
-          <t>Reeder P13 Blue Max L 2022</t>
+          <t>OnePlus 5</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="C613" t="inlineStr">
         <is>
-          <t>Reeder P13 Blue Max Pro</t>
+          <t>One Plus 8 Pro</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="C614" t="inlineStr">
         <is>
-          <t>Reeder P13 Blue Max Pro Lite 2022</t>
+          <t>One Plus 9</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="C615" t="inlineStr">
         <is>
-          <t>Reeder s19 Max 19</t>
+          <t>One Plus 9 Pro</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="C616" t="inlineStr">
         <is>
-          <t>Reno 10X Zoom</t>
+          <t>One Plus Nord N10</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="C617" t="inlineStr">
         <is>
-          <t>Reno 3 Pro</t>
+          <t>One Plus Nord N100</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="C618" t="inlineStr">
         <is>
-          <t>Samsung A52S 5G</t>
+          <t>Oppo A12</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="C619" t="inlineStr">
         <is>
-          <t>Samsung Galax M13</t>
+          <t>Oppo A15</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="C620" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A01 Core</t>
+          <t>Oppo A15S</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="C621" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A03 S</t>
+          <t>Oppo A16</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="C622" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A10</t>
+          <t>Oppo A31</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="C623" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A10s</t>
+          <t>Oppo A36</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="C624" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A12</t>
+          <t>Oppo A52</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="C625" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A13 4G</t>
+          <t>Oppo A5 2020</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="C626" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A20</t>
+          <t>Oppo A54 4G</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="C627" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A22</t>
+          <t>Oppo A55 4G</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="C628" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A23</t>
+          <t>Oppo A55 5G</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="C629" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A30</t>
+          <t>Oppo A5S</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="C630" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A32</t>
+          <t>Oppo A7</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="C631" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A52</t>
+          <t>Oppo A72</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="C632" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A70</t>
+          <t>Oppo A73</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="C633" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A72</t>
+          <t>Oppo A74 4G</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="C634" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A73</t>
+          <t>Oppo A76</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="C635" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M22</t>
+          <t>Oppo A91</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="C636" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M23</t>
+          <t>Oppo A92</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="C637" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M32</t>
+          <t>Oppo A9 2020</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="C638" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M33</t>
+          <t>Oppo A96 4G</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="C639" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M52</t>
+          <t>Oppo AX7</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="C640" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M52 5G</t>
+          <t>Oppo F9</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="C641" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M53</t>
+          <t>Oppo Find X2</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="C642" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 3 5G</t>
+          <t>Oppo Realme 5 Pro</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="C643" t="inlineStr">
         <is>
-          <t>Sony Xperia C3</t>
+          <t>Oppo Realme 6</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="C644" t="inlineStr">
         <is>
-          <t>Sony Xperia C4</t>
+          <t>Oppo Realme 6 Pro</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="C645" t="inlineStr">
         <is>
-          <t>Sony Xperia C5 Ultra</t>
+          <t>Oppo Realme C15</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="C646" t="inlineStr">
         <is>
-          <t>Sony Xperia E4</t>
+          <t>Oppo Reno</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="C647" t="inlineStr">
         <is>
-          <t>Sony Xperia E4g</t>
+          <t>Oppo Reno 10x Zoom</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="C648" t="inlineStr">
         <is>
-          <t>Sony Xperia E5</t>
+          <t>Oppo Reno 2</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="C649" t="inlineStr">
         <is>
-          <t>Sony Xperia L1</t>
+          <t>Oppo Reno 2Z</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="C650" t="inlineStr">
         <is>
-          <t>Sony Xperia L2</t>
+          <t>Oppo Reno 3</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="C651" t="inlineStr">
         <is>
-          <t>Sony Xperia M2</t>
+          <t>Oppo Reno 3 Pro</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="C652" t="inlineStr">
         <is>
-          <t>Sony Xperia M4 Aqua</t>
+          <t>Oppo Reno 3 Pro 5G</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="C653" t="inlineStr">
         <is>
-          <t>Sony Xperia M5</t>
+          <t>Oppo Reno 4</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="C654" t="inlineStr">
         <is>
-          <t>Sony Xperia T2 Ultra</t>
+          <t>Oppo Reno 4 Lite</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="C655" t="inlineStr">
         <is>
-          <t>Sony Xperia T3</t>
+          <t>Oppo Reno 4 Pro</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="C656" t="inlineStr">
         <is>
-          <t>Sony Xperia X</t>
+          <t>Oppo Reno 5</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="C657" t="inlineStr">
         <is>
-          <t>Sony Xperia XA</t>
+          <t>Oppo Reno 5 Lite</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="C658" t="inlineStr">
         <is>
-          <t>Sony Xperia Xa1</t>
+          <t>Oppo Reno 5 Pro</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="C659" t="inlineStr">
         <is>
-          <t>Sony Xperia XA1 Plus</t>
+          <t>Oppo Reno 6</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="C660" t="inlineStr">
         <is>
-          <t>Sony Xperia XA1 Ultra</t>
+          <t>Oppo Reno 7 4G</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="C661" t="inlineStr">
         <is>
-          <t>Sony Xperia XA2</t>
+          <t>Oppo Reno Z</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="C662" t="inlineStr">
         <is>
-          <t>Sony Xperia XA2 Ultra</t>
+          <t>Oppo RX17 Neo</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="C663" t="inlineStr">
         <is>
-          <t>Sony Xperia XA Ultra</t>
+          <t>Oppo RX 17 Pro</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="C664" t="inlineStr">
         <is>
-          <t>Sony Xperia X Compact</t>
+          <t>Oppo RX 7 Neo</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="C665" t="inlineStr">
         <is>
-          <t>Sony Xperia Xz</t>
+          <t>Oukitel C21 Pro</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="C666" t="inlineStr">
         <is>
-          <t>Sony Xperia Xz1</t>
+          <t>P40 Lite 5G</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="C667" t="inlineStr">
         <is>
-          <t>Sony Xperia Xz Premium</t>
+          <t>P40 Pro</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="C668" t="inlineStr">
         <is>
-          <t>Sony Xperia Z</t>
+          <t>P50 Pocket</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="C669" t="inlineStr">
         <is>
-          <t>Sony Xperia Z1</t>
+          <t>P50 Pro</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="C670" t="inlineStr">
         <is>
-          <t>Sony Xperia Z2</t>
+          <t>POCO C40</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="C671" t="inlineStr">
         <is>
-          <t>Sony Xperia Z3</t>
+          <t>Poco F2</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="C672" t="inlineStr">
         <is>
-          <t>Sony Xperia Z3 Compact</t>
+          <t>Poco F2 Pro</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="C673" t="inlineStr">
         <is>
-          <t>Sony Xperia Z3 Plus</t>
+          <t>Poco F3</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="C674" t="inlineStr">
         <is>
-          <t>Sony Xperia Z5</t>
+          <t>Poco F4</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="C675" t="inlineStr">
         <is>
-          <t>Sony Xperia Z5 Compact</t>
+          <t>POCO F5</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="C676" t="inlineStr">
         <is>
-          <t>Sony Xperia Z5 Premium</t>
+          <t>Poco F5 Pro</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="C677" t="inlineStr">
         <is>
-          <t>Tecno Spark 7 / 7T</t>
+          <t>Poco M4 Pro 4G</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="C678" t="inlineStr">
         <is>
-          <t>Turkcell T60</t>
+          <t>Poco M5</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="C679" t="inlineStr">
         <is>
-          <t>Turkcell T70</t>
+          <t>Poco X2</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="C680" t="inlineStr">
         <is>
-          <t>Turkcell T80</t>
+          <t>Poco X3 NFC</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="C681" t="inlineStr">
         <is>
-          <t>Türk Telekom TT175</t>
+          <t>Poco X3 Pro</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="C682" t="inlineStr">
         <is>
-          <t>Vestel Venüs 5000</t>
+          <t>Poco X4 GT</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="C683" t="inlineStr">
         <is>
-          <t>Vestel Venüs 5530</t>
+          <t>Poco X4 Pro 5G</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="C684" t="inlineStr">
         <is>
-          <t>Vestel Venüs E2 Plus</t>
+          <t>Poco X5 5G</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="C685" t="inlineStr">
         <is>
-          <t>Vestel Venüs E3</t>
+          <t>Poco X5 Pro 5G</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="C686" t="inlineStr">
         <is>
-          <t>Vestel Venüs E4</t>
+          <t>P Smart 2018</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="C687" t="inlineStr">
         <is>
-          <t>Vestel Venüs GO</t>
+          <t>P Smart Pro 2019</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="C688" t="inlineStr">
         <is>
-          <t>Vestel Venüs V3 5010</t>
+          <t>Realme 10 4G</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="C689" t="inlineStr">
         <is>
-          <t>Vestel Venüs V3 5020</t>
+          <t>Realme 11 Pro</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="C690" t="inlineStr">
         <is>
-          <t>Vestel Venüs V3 5040</t>
+          <t>Realme 5</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="C691" t="inlineStr">
         <is>
-          <t>Vestel Venüs V3 5070</t>
+          <t>Realme 5i</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="C692" t="inlineStr">
         <is>
-          <t>Vestel Venüs V3 5570</t>
+          <t>Realme 5 Pro</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="C693" t="inlineStr">
         <is>
-          <t>Vestel Venüs V3 5580</t>
+          <t>Realme 6</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="C694" t="inlineStr">
         <is>
-          <t>Vestel Venüs V4</t>
+          <t>Realme 6i</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="C695" t="inlineStr">
         <is>
-          <t>Vestel Venüs V5</t>
+          <t>Realme 6 Pro</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="C696" t="inlineStr">
         <is>
-          <t>Vestel Venüs V6</t>
+          <t>Realme 7</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="C697" t="inlineStr">
         <is>
-          <t>Vestel Venüs V7</t>
+          <t>Realme 7 Pro</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="C698" t="inlineStr">
         <is>
-          <t>Vestel Venüs Z10</t>
+          <t>Realme 8</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="C699" t="inlineStr">
         <is>
-          <t>Vestel Venüs Z20</t>
+          <t>Realme 8 Pro</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="C700" t="inlineStr">
         <is>
-          <t>Vestel Venüs Z30</t>
+          <t>Realme C11</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="C701" t="inlineStr">
         <is>
-          <t>Vivo Y11S</t>
+          <t>Realme C11 2021</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="C702" t="inlineStr">
         <is>
-          <t>Vivo Y20</t>
+          <t>Realme C15</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="C703" t="inlineStr">
         <is>
-          <t>Vivo Y20S</t>
+          <t>Realme C2</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="C704" t="inlineStr">
         <is>
-          <t>Vivo Y70</t>
+          <t>Realme C20</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="C705" t="inlineStr">
         <is>
-          <t>Vodafone Smart 6</t>
+          <t>Realme C21</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="C706" t="inlineStr">
         <is>
-          <t>Vodafone Smart Style 7</t>
+          <t>Realme C21Y</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="C707" t="inlineStr">
         <is>
-          <t>X700</t>
+          <t>Realme C25</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="C708" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 11</t>
+          <t>Realme C25S</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="C709" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 11 Lite</t>
+          <t>Realme C3</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="C710" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 11 Pro</t>
+          <t>Realme C31</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="C711" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 11 Ultra</t>
+          <t>Realme C35</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="C712" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 4</t>
+          <t>Realme C3i</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="C713" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 4C</t>
+          <t>Realme C53</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="C714" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 5</t>
+          <t>Realme C55</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="C715" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 5S</t>
+          <t>Realme XT</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="C716" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 5S Plus</t>
+          <t>Redmi 10A</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="C717" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 6</t>
+          <t>Redmi 10C</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="C718" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 6X</t>
+          <t>Redmi 12</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="C719" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 8</t>
+          <t>Redmi 12C</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="C720" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 8 Lite</t>
+          <t>Redmi 12T</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="C721" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 8 SE</t>
+          <t>Redmi 12T Pro</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="C722" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 9</t>
+          <t>Redmi 13C</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="C723" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 9 Lite</t>
+          <t>Redmi 4</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="C724" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 9 SE</t>
+          <t>Redmi 6A</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="C725" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 9T</t>
+          <t>Redmi 8</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="C726" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 9T Pro</t>
+          <t>Redmi A1</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="C727" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A1</t>
+          <t>Redmi K40 Pro</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="C728" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A2 (Mi 6X)</t>
+          <t>Redmi Note 10</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="C729" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A2 Lite</t>
+          <t>Redmi Note 10 5G</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="C730" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A3</t>
+          <t>Redmi Note 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="C731" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Max</t>
+          <t>Redmi Note 10 Pro 5G</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="C732" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Max 2</t>
+          <t>Redmi Note 11</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="C733" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Max 3</t>
+          <t>Redmi Note 11E</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="C734" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Mix</t>
+          <t>Redmi Note 11 Pro Plus 5G</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="C735" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Mix 2</t>
+          <t>Redmi Note 11SE</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="C736" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Mix 2S</t>
+          <t>Redmi Note 11T 5G</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="C737" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Mix 3</t>
+          <t>Redmi Note 12 4G</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="C738" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Note 10</t>
+          <t>Redmi Note 12 Pro</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="C739" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Note 10 Lite</t>
+          <t>Redmi Note 12 Pro 5G</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="C740" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Note 2</t>
+          <t>Redmi Note 12 Pro Plus</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="C741" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Note 3</t>
+          <t>Redmi Note 12S</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="C742" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Play</t>
+          <t>Redmi Note 13 Pro 4G</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="C743" t="inlineStr">
         <is>
-          <t>Xiaomi Note 8</t>
+          <t>Redmi Note 13 Pro 5G</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="C744" t="inlineStr">
         <is>
-          <t>Xiaomi Note 8 Pro</t>
+          <t>Redmi Note 6A</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="C745" t="inlineStr">
         <is>
-          <t>Xiaomi Note 8T</t>
+          <t>Redmi Note 7 Pro</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="C746" t="inlineStr">
         <is>
-          <t>Xiaomi Poco F2 Pro</t>
+          <t>Redmi Note 8</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="C747" t="inlineStr">
         <is>
-          <t>Xiaomi Poco F3</t>
+          <t>Redmi Note 8 Pro</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="C748" t="inlineStr">
         <is>
-          <t>Xiaomi Poco M3</t>
+          <t>Redmi Note 8S</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="C749" t="inlineStr">
         <is>
-          <t>Xiaomi Poco M3 Pro</t>
+          <t>Redmi Note 8T</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="C750" t="inlineStr">
         <is>
-          <t>Xiaomi Pocophone F1</t>
+          <t>Redmi Note 9</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="C751" t="inlineStr">
         <is>
-          <t>Xiaomi Poco X3</t>
+          <t>Redmi Note 9 Pro</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="C752" t="inlineStr">
         <is>
-          <t>Xiaomi Poco X3 GT</t>
+          <t>Redmi Note 9S</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="C753" t="inlineStr">
         <is>
-          <t>Xiaomi Poco X4 Pro</t>
+          <t>Reeder P13 Blue</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="C754" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 10 2022</t>
+          <t>Reeder P13 Blue 2021</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="C755" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 3 Pro</t>
+          <t>Reeder P13 Blue 2022</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="C756" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 3S</t>
+          <t>Reeder P13 Blue Max</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="C757" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 4A</t>
+          <t>Reeder P13 Blue Max 128GB</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="C758" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 4X</t>
+          <t>Reeder P13 Blue Max 2020</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="C759" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 5</t>
+          <t>Reeder P13 Blue Max 2022</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="C760" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 5+ Plus</t>
+          <t>Reeder P13 Blue Max L 2022</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="C761" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 5A</t>
+          <t>Reeder P13 Blue Max Lite</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="C762" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6</t>
+          <t>Reeder P13 Blue Max Pro</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="C763" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 Pro</t>
+          <t>Reeder P13 Blue Max Pro Lite</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="C764" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 7</t>
+          <t>Reeder P13 Blue Max Pro Lite 2022</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="C765" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 7A</t>
+          <t>Reeder P13 Blue Plus</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="C766" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 8A</t>
+          <t>Reeder P13 Blue Plus 2022</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="C767" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 9</t>
+          <t>Reeder s19 Max 19</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="C768" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 9A</t>
+          <t>Reeder S19 Max Pro</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="C769" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 9c</t>
+          <t>Reeder S19 Max Pro S</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="C770" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 9T</t>
+          <t>Reeder S23 Pro Max</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="C771" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Go</t>
+          <t>Reno 10X Zoom</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="C772" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi K20</t>
+          <t>Reno 3 Pro</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="C773" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi K30</t>
+          <t>Samsung A52S 5G</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="C774" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi K30 Pro</t>
+          <t>Samsung Galax M13</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="C775" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi K40</t>
+          <t>Samsung Galaxy A01 Core</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="C776" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 10 4G</t>
+          <t>Samsung Galaxy A03 S</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="C777" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 10 5G</t>
+          <t>Samsung Galaxy A10</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="C778" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 10 Lite</t>
+          <t>Samsung Galaxy A10s</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="C779" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 10 Pro Max</t>
+          <t>Samsung Galaxy A12</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="C780" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 10S</t>
+          <t>Samsung Galaxy A13 4G</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="C781" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 11 Pro</t>
+          <t>Samsung Galaxy A20</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="C782" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 11S</t>
+          <t>Samsung Galaxy A22</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="C783" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 3</t>
+          <t>Samsung Galaxy A23</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="C784" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 4</t>
+          <t>Samsung Galaxy A30</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="C785" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 4X</t>
+          <t>Samsung Galaxy A32</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="C786" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5</t>
+          <t>Samsung Galaxy A52</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="C787" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5A</t>
+          <t>Samsung Galaxy A70</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="C788" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5A Prime</t>
+          <t>Samsung Galaxy A72</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="C789" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5 Pro</t>
+          <t>Samsung Galaxy A73</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="C790" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 6 Pro</t>
+          <t>Samsung Galaxy M22</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="C791" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 7</t>
+          <t>Samsung Galaxy M23</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="C792" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 9 4G</t>
+          <t>Samsung Galaxy M32</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="C793" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 9 5G</t>
+          <t>Samsung Galaxy M33</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="C794" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 9s</t>
+          <t>Samsung Galaxy M52</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="C795" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi S2</t>
+          <t>Samsung Galaxy M52 5G</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="C796" t="inlineStr">
         <is>
-          <t>Y5p 2020</t>
+          <t>Samsung Galaxy M53</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="C797" t="inlineStr">
         <is>
-          <t>Y6 Prime 2019</t>
+          <t>Samsung Galaxy Z Flip 3 5G</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="C798" t="inlineStr">
         <is>
-          <t>Y7p 2020</t>
+          <t>Sony Xperia C3</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="C799" t="inlineStr">
         <is>
+          <t>Sony Xperia C4</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>Sony Xperia C5 Ultra</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>Sony Xperia E4</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>Sony Xperia E4g</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>Sony Xperia E5</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>Sony Xperia L1</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>Sony Xperia L2</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>Sony Xperia M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>Sony Xperia M4 Aqua</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>Sony Xperia M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>Sony Xperia T2 Ultra</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>Sony Xperia T3</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>Sony Xperia X</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>Sony Xperia XA</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>Sony Xperia Xa1</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>Sony Xperia XA1 Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>Sony Xperia XA1 Ultra</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>Sony Xperia XA2</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>Sony Xperia XA2 Ultra</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>Sony Xperia XA Ultra</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>Sony Xperia X Compact</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>Sony Xperia Xz</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>Sony Xperia Xz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>Sony Xperia Xz Premium</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>Sony Xperia Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>Sony Xperia Z1</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>Sony Xperia Z2</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>Sony Xperia Z3</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>Sony Xperia Z3 Compact</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>Sony Xperia Z3 Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>Sony Xperia Z4</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>Sony Xperia Z5</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>Sony Xperia Z5 Compact</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>Sony Xperia Z5 Premium</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>TCL 10L</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>TCL 10 Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>TCL 20E</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>TCL 20 SE</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>TCL 303</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>TCL 30 Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>TCL 30 SE</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>TCL L30</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>TCL L7</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>Tecno Camon 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>Tecno Camon 18P</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>Tecno Camon 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>Tecno Camon 19 Neo</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>Tecno Camon 19 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>Tecno Camon 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>Tecno Camon 20 Premier 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>Tecno Camon 20 Pro 4G</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>Tecno Camon 20 Pro 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>Tecno Pova</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>Tecno Pova 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>Tecno Pova 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>Tecno Pova 4 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>Tecno Pova 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>Tecno Pova Neo</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>Tecno Pova Neo 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>Tecno Spark 10 4G</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>Tecno Spark 10C</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>Tecno Spark 10 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>Tecno Spark 18 Premier</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>Tecno Spark 6 Go</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>Tecno Spark 7 / 7T</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>Tecno Spark 7 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>Tecno Spark 7T</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>Tecno Spark 8C</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>Tecno Spark 8 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>Tecno Spark 8T</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>Tecno Spark 9 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>Tecno Spark 9T</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>Tecno Spark Go 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>Turkcell T60</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>Turkcell T70</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>Turkcell T80</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>Türk Telekom TT175</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>Vestel Venüs 5000</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>Vestel Venüs 5530</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>Vestel Venüs E2 Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>Vestel Venüs E3</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>Vestel Venüs E4</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>Vestel Venüs GO</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>Vestel Venüs V3 5010</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>Vestel Venüs V3 5020</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>Vestel Venüs V3 5040</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>Vestel Venüs V3 5070</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>Vestel Venüs V3 5570</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>Vestel Venüs V3 5580</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>Vestel Venüs V4</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>Vestel Venüs V5</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>Vestel Venüs V6</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>Vestel Venüs V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>Vestel Venüs Z10</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>Vestel Venüs Z20</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>Vestel Venüs Z30</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>Vivo V25</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>Vivo V29 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>Vivo V29 Lite 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>Vivo Y11S</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>Vivo Y15S</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>Vivo Y16</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>Vivo Y17S</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>Vivo Y20</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>Vivo Y20S</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>Vivo Y21S</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>Vivo Y22</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>Vivo Y22s</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>Vivo Y27</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>Vivo Y32</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>Vivo Y33S</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>Vivo Y35</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>Vivo Y36 4G</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>Vivo Y51</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>Vivo Y53S</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>Vivo Y70</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>Voadfone Smart 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>Vodafone Smart 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>Vodafone Smart Style 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>X700</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>Xiaomi 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 11 Lite</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 11 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 11 Ultra</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 13T</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 13T Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 4C</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 5S</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 5S Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 6X</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 8 Lite</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 8 SE</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 9 Lite</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 9 SE</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 9T</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 9T Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi A2 (Mi 6X)</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi A2 Lite</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi Max 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi Max 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi Mix</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi Mix 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi Mix 2S</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi Mix 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi Note 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi Note 10 Lite</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi Note 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi Note 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi Play</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>Xiaomi Note 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>Xiaomi Note 8 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>Xiaomi Note 8T</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>Xiaomi Poco F2 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>Xiaomi Poco F3</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>Xiaomi Poco M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>Xiaomi Poco M3 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>Xiaomi Pocophone F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>Xiaomi Poco X3</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>Xiaomi Poco X3 GT</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>Xiaomi Poco X4 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 10 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 3 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 3S</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 4A</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 4X</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 5+ Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 5A</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 6 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 7A</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 8A</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 9A</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 9c</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 9T</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Go</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi K20</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi K30</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi K30 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi K40</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 10 4G</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 10 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 10 Lite</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 10 Pro Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 10S</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 11 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 11S</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 4X</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 5A</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 5A Prime</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 5 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 6 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 9 4G</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 9 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 9s</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi S2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>Y5p 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>Y6 Prime 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>Y7p 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="C1013" t="inlineStr">
+        <is>
           <t>Y9 Prime 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>Zenfone 6</t>
         </is>
       </c>
     </row>

--- a/companies/trendyol/phoneCase/phoneCase.xlsx
+++ b/companies/trendyol/phoneCase/phoneCase.xlsx
@@ -408,12 +408,14 @@
     <font>
       <name val="Calibri"/>
       <sz val="14.0"/>
-      <color indexed="8"/>
+      <b val="true"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="14.0"/>
-      <color indexed="8"/>
+      <b val="true"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1279,10 +1281,10 @@
       <formula1>Urun_Ozellik_Bilgileri!$B$2:$B$4</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AA2:AA1048576" allowBlank="true" errorStyle="stop" errorTitle="DEĞER SEÇİMİ HATASI" error="Sadece izin verilen değerleri girebilirsiniz. Lütfen kontrol ediniz." showErrorMessage="true">
-      <formula1>Urun_Ozellik_Bilgileri!$C$2:$C$1014</formula1>
+      <formula1>Urun_Ozellik_Bilgileri!$C$2:$C$995</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AB2:AB1048576" allowBlank="true" errorStyle="stop" errorTitle="DEĞER SEÇİMİ HATASI" error="Sadece izin verilen değerleri girebilirsiniz. Lütfen kontrol ediniz." showErrorMessage="true">
-      <formula1>Urun_Ozellik_Bilgileri!$D$2:$D$17</formula1>
+      <formula1>Urun_Ozellik_Bilgileri!$D$2:$D$32</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1048576" allowBlank="true" errorStyle="stop" promptTitle="PARA BİRİMİ GİRİN" prompt="Ürün fiyatının para birimi değerini girin." showInputMessage="true" errorTitle="DEĞER SEÇİMİ HATASI" error="Sadece izin verilen değerleri girebilirsiniz. Lütfen kontrol ediniz." showErrorMessage="true">
       <formula1>Urun_Ozellik_Bilgileri!$E$2:$E$2</formula1>
@@ -1424,7 +1426,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A5s</t>
+          <t>Alcatel 1 2022</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1461,7 +1463,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A7x</t>
+          <t>Alcatel 1S 2019</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1493,7 +1495,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Alcatel 1 2022</t>
+          <t>Alcatel 1S 2020</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1515,12 +1517,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Alcatel 1S 2019</t>
+          <t>Alcatel 1S 2021</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Belirtilmemiş</t>
+          <t>Avea Uyumlu</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1537,12 +1539,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Alcatel 1S 2020</t>
+          <t>Alcatel 3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Casper Uyumlu</t>
+          <t>Belirtilmemiş</t>
         </is>
       </c>
     </row>
@@ -1554,7109 +1556,7051 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Alcatel 1S 2021</t>
+          <t>Alcatel 3V</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>General Mobile Uyumlu</t>
+          <t>Casper Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>Alcatel 3</t>
+          <t>Alcatel 3X 2019</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Honor Uyumlu</t>
+          <t>General Mobile Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>Alcatel 3V</t>
+          <t>Alcatel 3X 2020</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Huawei Uyumlu</t>
+          <t>Honor Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
-          <t>Alcatel 3X 2019</t>
+          <t>Alcatel 5</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Infinix Uyumlu</t>
+          <t>HTC Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>Alcatel 3X 2020</t>
+          <t>Alcatel A3 XL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Lenovo Uyumlu</t>
+          <t>Huawei Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>Alcatel 5</t>
+          <t>Alcatel A7</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Oppo Uyumlu</t>
+          <t>Infinix Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="inlineStr">
         <is>
-          <t>Alcatel A3 XL</t>
+          <t>Alcatel U5</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>POCO Uyumlu</t>
+          <t>Lenovo Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="C14" t="inlineStr">
         <is>
-          <t>Alcatel A7</t>
+          <t>Asus Zenfone 2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Reeder Uyumlu</t>
+          <t>LG Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="C15" t="inlineStr">
         <is>
-          <t>Alcatel U5</t>
+          <t>Asus Zenfone 2 Laser 5.0 inç</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Samsung Uyumlu</t>
+          <t>Meizu Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="inlineStr">
         <is>
-          <t>Android One 4G</t>
+          <t>Asus Zenfone 2 Laser 5.5 inç</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TCL Uyumlu</t>
+          <t>Nokia Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="inlineStr">
         <is>
-          <t>Asus Zenfone 2</t>
+          <t>Asus Zenfone 3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Xiaomi Uyumlu</t>
+          <t>Omix Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="C18" t="inlineStr">
         <is>
-          <t>Asus Zenfone 2 Laser 5.0 inç</t>
+          <t>Asus Zenfone 3 Delux 5.5 inç</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>One Plus Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="C19" t="inlineStr">
         <is>
-          <t>Asus Zenfone 2 Laser 5.5 inç</t>
+          <t>Asus Zenfone 3 Delux 5.7 inç</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Oppo Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="C20" t="inlineStr">
         <is>
-          <t>Asus Zenfone 3</t>
+          <t>Asus Zenfone 3 Laser</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Oukitel Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="C21" t="inlineStr">
         <is>
-          <t>Asus Zenfone 3 Delux 5.5 inç</t>
+          <t>Asus Zenfone 3 Max 5.2 inç</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>POCO Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="C22" t="inlineStr">
         <is>
-          <t>Asus Zenfone 3 Delux 5.7 inç</t>
+          <t>Asus Zenfone 3 Max 5.5 inç</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Realme Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="C23" t="inlineStr">
         <is>
-          <t>Asus Zenfone 3 Laser</t>
+          <t>Asus Zenfone 4</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Reeder Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="C24" t="inlineStr">
         <is>
-          <t>Asus Zenfone 3 Max 5.2 inç</t>
+          <t>Asus Zenfone 4 Max 5.2 inç</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Samsung Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="inlineStr">
         <is>
-          <t>Asus Zenfone 3 Max 5.5 inç</t>
+          <t>Asus Zenfone 4 Max 5.5 inç</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Sony Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="inlineStr">
         <is>
-          <t>Asus Zenfone 4</t>
+          <t>Asus Zenfone 4 Selfie</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TCL Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="inlineStr">
         <is>
-          <t>Asus Zenfone 4 Max 5.2 inç</t>
+          <t>Asus Zenfone 5</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Tecno Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="inlineStr">
         <is>
-          <t>Asus Zenfone 4 Max 5.5 inç</t>
+          <t>Asus Zenfone GO 5.0 inç</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Turkcell Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="C29" t="inlineStr">
         <is>
-          <t>Asus Zenfone 4 Selfie</t>
+          <t>Asus Zenfone GO 5.2 inç</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Vestel Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="inlineStr">
         <is>
-          <t>Asus Zenfone 5</t>
+          <t>Asus ZenFone Live 5.0 inç</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Vivo Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="inlineStr">
         <is>
-          <t>Asus Zenfone GO 5.0 inç</t>
+          <t>Asus ZenFone Live 5.5 inç</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Vodafone Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="C32" t="inlineStr">
         <is>
-          <t>Asus Zenfone GO 5.2 inç</t>
+          <t>Asus Zenfone Max</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Xiaomi Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="C33" t="inlineStr">
         <is>
-          <t>Asus ZenFone Live 5.0 inç</t>
+          <t>Asus ZenFone Max Plus</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="C34" t="inlineStr">
         <is>
-          <t>Asus ZenFone Live 5.5 inç</t>
+          <t>Asus ZenFone Max Pro M1</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="C35" t="inlineStr">
         <is>
-          <t>Asus Zenfone Max</t>
+          <t>Asus Zenfone Selfie</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="C36" t="inlineStr">
         <is>
-          <t>Asus ZenFone Max Plus</t>
+          <t>Avea inTouch 4</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="C37" t="inlineStr">
         <is>
-          <t>Asus ZenFone Max Pro M1</t>
+          <t>Casper Via A1</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="C38" t="inlineStr">
         <is>
-          <t>Asus Zenfone Selfie</t>
+          <t>Casper Via A1 Plus</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="C39" t="inlineStr">
         <is>
-          <t>Avea inTouch 4</t>
+          <t>Casper Via A2</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="C40" t="inlineStr">
         <is>
-          <t>Casper Via A1</t>
+          <t>Casper Via A3</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="C41" t="inlineStr">
         <is>
-          <t>Casper Via A1 Plus</t>
+          <t>Casper Via A3 Plus</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="C42" t="inlineStr">
         <is>
-          <t>Casper Via A2</t>
+          <t>Casper Via A4</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="C43" t="inlineStr">
         <is>
-          <t>Casper Via A3</t>
+          <t>Casper Via E1</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="C44" t="inlineStr">
         <is>
-          <t>Casper Via A3 Plus</t>
+          <t>Casper Via E1c</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="C45" t="inlineStr">
         <is>
-          <t>Casper Via A4</t>
+          <t>Casper Via E2</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="C46" t="inlineStr">
         <is>
-          <t>Casper Via E1</t>
+          <t>Casper Via E3</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="C47" t="inlineStr">
         <is>
-          <t>Casper Via E1c</t>
+          <t>Casper Via F1</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="C48" t="inlineStr">
         <is>
-          <t>Casper Via E2</t>
+          <t>Casper Via F2</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="C49" t="inlineStr">
         <is>
-          <t>Casper Via E3</t>
+          <t>Casper Via F3</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="C50" t="inlineStr">
         <is>
-          <t>Casper Via F1</t>
+          <t>Casper Via F30</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="C51" t="inlineStr">
         <is>
-          <t>Casper Via F2</t>
+          <t>Casper Via G1</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="C52" t="inlineStr">
         <is>
-          <t>Casper Via F3</t>
+          <t>Casper Via G1 Plus</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="C53" t="inlineStr">
         <is>
-          <t>Casper Via F30</t>
+          <t>Casper Via G3</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="C54" t="inlineStr">
         <is>
-          <t>Casper Via G1</t>
+          <t>Casper Via G4</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="C55" t="inlineStr">
         <is>
-          <t>Casper Via G1 Plus</t>
+          <t>Casper Via M1</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="C56" t="inlineStr">
         <is>
-          <t>Casper Via G3</t>
+          <t>Casper Via M2</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="C57" t="inlineStr">
         <is>
-          <t>Casper Via G4</t>
+          <t>Casper Via M3</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="C58" t="inlineStr">
         <is>
-          <t>Casper Via M1</t>
+          <t>Casper Via M4</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="C59" t="inlineStr">
         <is>
-          <t>Casper Via M2</t>
+          <t>Casper Via P1</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="C60" t="inlineStr">
         <is>
-          <t>Casper Via M3</t>
+          <t>Casper Via P2</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="C61" t="inlineStr">
         <is>
-          <t>Casper Via M4</t>
+          <t>Casper Via P3</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="C62" t="inlineStr">
         <is>
-          <t>Casper Via P1</t>
+          <t>Casper Via S</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="C63" t="inlineStr">
         <is>
-          <t>Casper Via P2</t>
+          <t>Casper Via V10</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="C64" t="inlineStr">
         <is>
-          <t>Casper Via P3</t>
+          <t>Casper Via V6</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="C65" t="inlineStr">
         <is>
-          <t>Casper Via S</t>
+          <t>Casper Via V6X</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="C66" t="inlineStr">
         <is>
-          <t>Casper Via V10</t>
+          <t>Casper Via V8</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="C67" t="inlineStr">
         <is>
-          <t>Casper Via V6</t>
+          <t>Casper Via V8c</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="C68" t="inlineStr">
         <is>
-          <t>Casper Via V6X</t>
+          <t>Galaxy İ9060</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="C69" t="inlineStr">
         <is>
-          <t>Casper Via V8</t>
+          <t>General Mobile 23</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="C70" t="inlineStr">
         <is>
-          <t>Casper Via V8c</t>
+          <t>General Mobile 23SE</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="C71" t="inlineStr">
         <is>
-          <t>Galaxy A01</t>
+          <t>General Mobile 24 Pro</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="C72" t="inlineStr">
         <is>
-          <t>Galaxy A02</t>
+          <t>General Mobile 4G</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="C73" t="inlineStr">
         <is>
-          <t>Galaxy A02s</t>
+          <t>General Mobile Android One</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="C74" t="inlineStr">
         <is>
-          <t>Galaxy A03</t>
+          <t>General Mobile Discovery</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="C75" t="inlineStr">
         <is>
-          <t>Galaxy A03 Core</t>
+          <t>General Mobile Discovery 2</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="C76" t="inlineStr">
         <is>
-          <t>Galaxy A04</t>
+          <t>General Mobile Discovery 2 Mini</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="C77" t="inlineStr">
         <is>
-          <t>Galaxy A04e</t>
+          <t>General Mobile Discovery Air</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="C78" t="inlineStr">
         <is>
-          <t>Galaxy A04s</t>
+          <t>General Mobile Discovery Elite</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="C79" t="inlineStr">
         <is>
-          <t>Galaxy A05</t>
+          <t>General Mobile Discovery Elite Plus</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="C80" t="inlineStr">
         <is>
-          <t>Galaxy A05S</t>
+          <t>General Mobile GM 10</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="C81" t="inlineStr">
         <is>
-          <t>Galaxy A10</t>
+          <t>General Mobile GM 20</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="C82" t="inlineStr">
         <is>
-          <t>Galaxy A10s</t>
+          <t>General Mobile GM 20 Pro</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="C83" t="inlineStr">
         <is>
-          <t>Galaxy A11</t>
+          <t>General Mobile GM 21</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="C84" t="inlineStr">
         <is>
-          <t>Galaxy A12</t>
+          <t>General Mobile GM 21 Plus</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="C85" t="inlineStr">
         <is>
-          <t>Galaxy A13</t>
+          <t>General Mobile GM 21 Pro</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="C86" t="inlineStr">
         <is>
-          <t>Galaxy A14</t>
+          <t>General Mobile GM22</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="C87" t="inlineStr">
         <is>
-          <t>Galaxy A14 5G</t>
+          <t>General Mobile GM22 Plus</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="C88" t="inlineStr">
         <is>
-          <t>Galaxy A15</t>
+          <t>General Mobile GM22 Pro</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="C89" t="inlineStr">
         <is>
-          <t>Galaxy A20</t>
+          <t>General Mobile GM5</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="C90" t="inlineStr">
         <is>
-          <t>Galaxy A20e</t>
+          <t>General Mobile GM5 Plus</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="C91" t="inlineStr">
         <is>
-          <t>Galaxy A20S</t>
+          <t>General Mobile GM6</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="C92" t="inlineStr">
         <is>
-          <t>Galaxy A21</t>
+          <t>General Mobile GM8</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="C93" t="inlineStr">
         <is>
-          <t>Galaxy A21S</t>
+          <t>General Mobile GM8 GO</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="C94" t="inlineStr">
         <is>
-          <t>Galaxy A22 4G</t>
+          <t>General Mobile GM9 Pro</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="C95" t="inlineStr">
         <is>
-          <t>Galaxy A23</t>
+          <t>Honor 10</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="C96" t="inlineStr">
         <is>
-          <t>Galaxy A24</t>
+          <t>Honor 10 Lite</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="C97" t="inlineStr">
         <is>
-          <t>Galaxy A25</t>
+          <t>Honor 20</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="C98" t="inlineStr">
         <is>
-          <t>Galaxy A2 Core</t>
+          <t>Honor 20 Lite</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="C99" t="inlineStr">
         <is>
-          <t>Galaxy A3</t>
+          <t>Honor 50</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="C100" t="inlineStr">
         <is>
-          <t>Galaxy A3 (2016)</t>
+          <t>Honor 7</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="C101" t="inlineStr">
         <is>
-          <t>Galaxy A3 (2017)</t>
+          <t>Honor 70</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="C102" t="inlineStr">
         <is>
-          <t>Galaxy A30</t>
+          <t>Honor 7C</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="C103" t="inlineStr">
         <is>
-          <t>Galaxy A30S</t>
+          <t>Honor 7S</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="C104" t="inlineStr">
         <is>
-          <t>Galaxy A31</t>
+          <t>Honor 7X</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="C105" t="inlineStr">
         <is>
-          <t>Galaxy A32 4G</t>
+          <t>Honor 8</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="C106" t="inlineStr">
         <is>
-          <t>Galaxy A33</t>
+          <t>Honor 8A</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="C107" t="inlineStr">
         <is>
-          <t>Galaxy A34</t>
+          <t>Honor 8C</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="C108" t="inlineStr">
         <is>
-          <t>Galaxy A34 5G</t>
+          <t>Honor 8S</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="C109" t="inlineStr">
         <is>
-          <t>Galaxy A35</t>
+          <t>Honor 8X</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="C110" t="inlineStr">
         <is>
-          <t>Galaxy A40</t>
+          <t>Honor 9</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="C111" t="inlineStr">
         <is>
-          <t>Galaxy A41</t>
+          <t>Honor 90</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="C112" t="inlineStr">
         <is>
-          <t>Galaxy A5</t>
+          <t>Honor 9 Lite</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="C113" t="inlineStr">
         <is>
-          <t>Galaxy A5 (2016)</t>
+          <t>Honor 9X</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="C114" t="inlineStr">
         <is>
-          <t>Galaxy A5 (2017)</t>
+          <t>Honor Play</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="C115" t="inlineStr">
         <is>
-          <t>Galaxy A5 (2018)</t>
+          <t>Honor View 20</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="C116" t="inlineStr">
         <is>
-          <t>Galaxy A50</t>
+          <t>Honor X9a</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="C117" t="inlineStr">
         <is>
-          <t>Galaxy A50s</t>
+          <t>Htc 10</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="C118" t="inlineStr">
         <is>
-          <t>Galaxy A51</t>
+          <t>Htc Desire 12</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="C119" t="inlineStr">
         <is>
-          <t>Galaxy A53</t>
+          <t>HTC Desire 12 Plus</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="C120" t="inlineStr">
         <is>
-          <t>Galaxy A54</t>
+          <t>Htc Desire 530</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="C121" t="inlineStr">
         <is>
-          <t>Galaxy A6</t>
+          <t>Htc Desire 620</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="C122" t="inlineStr">
         <is>
-          <t>Galaxy A6 (2018)</t>
+          <t>Htc Desire 626</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="C123" t="inlineStr">
         <is>
-          <t>Galaxy A6+ Plus</t>
+          <t>Htc Desire 728</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="C124" t="inlineStr">
         <is>
-          <t>Galaxy A60</t>
+          <t>Htc Desire 816</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="C125" t="inlineStr">
         <is>
-          <t>Galaxy A6 Plus (2018)</t>
+          <t>Htc Desire 820</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="C126" t="inlineStr">
         <is>
-          <t>Galaxy A7</t>
+          <t>Htc Desire 825</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="C127" t="inlineStr">
         <is>
-          <t>Galaxy A7 (2016)</t>
+          <t>Htc Desire 826</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="C128" t="inlineStr">
         <is>
-          <t>Galaxy A7 (2017)</t>
+          <t>Htc Desire 828</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="C129" t="inlineStr">
         <is>
-          <t>Galaxy A70</t>
+          <t>Htc Desire 830</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="C130" t="inlineStr">
         <is>
-          <t>Galaxy A70S</t>
+          <t>Htc Desire Eye</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="C131" t="inlineStr">
         <is>
-          <t>Galaxy A71</t>
+          <t>Htc One A9</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="C132" t="inlineStr">
         <is>
-          <t>Galaxy A7 2018</t>
+          <t>Htc One M7</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="C133" t="inlineStr">
         <is>
-          <t>Galaxy A73</t>
+          <t>Htc One M8</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="C134" t="inlineStr">
         <is>
-          <t>Galaxy A8</t>
+          <t>Htc One M9</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="C135" t="inlineStr">
         <is>
-          <t>Galaxy A80</t>
+          <t>Htc One M9 Plus</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="C136" t="inlineStr">
         <is>
-          <t>Galaxy A81</t>
+          <t>Htc U11</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="C137" t="inlineStr">
         <is>
-          <t>Galaxy A8 2016</t>
+          <t>Htc U11 Life</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="C138" t="inlineStr">
         <is>
-          <t>Galaxy A8 2018</t>
+          <t>Huawei Ascend P7</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="C139" t="inlineStr">
         <is>
-          <t>Galaxy A8 Plus 2018</t>
+          <t>Huawei G7</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="C140" t="inlineStr">
         <is>
-          <t>Galaxy A8s</t>
+          <t>Huawei G8</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="C141" t="inlineStr">
         <is>
-          <t>Galaxy A91</t>
+          <t>Huawei GR3</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="C142" t="inlineStr">
         <is>
-          <t>Galaxy A9 2016</t>
+          <t>Huawei GR5</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="C143" t="inlineStr">
         <is>
-          <t>Galaxy A9 2018</t>
+          <t>Huawei GR5 2017</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="C144" t="inlineStr">
         <is>
-          <t>Galaxy Alpha</t>
+          <t>Huawei Mate 10</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="C145" t="inlineStr">
         <is>
-          <t>Galaxy C5</t>
+          <t>Huawei Mate 10 Lite</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="C146" t="inlineStr">
         <is>
-          <t>Galaxy C5 Pro</t>
+          <t>Huawei Mate 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="C147" t="inlineStr">
         <is>
-          <t>Galaxy C7</t>
+          <t>Huawei Mate 20</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="C148" t="inlineStr">
         <is>
-          <t>Galaxy C7 Pro</t>
+          <t>Huawei Mate 20 Lite</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="C149" t="inlineStr">
         <is>
-          <t>Galaxy C8</t>
+          <t>Huawei Mate 20 Pro</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="C150" t="inlineStr">
         <is>
-          <t>Galaxy C9 Pro</t>
+          <t>Huawei Mate 30</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="C151" t="inlineStr">
         <is>
-          <t>Galaxy Core 2</t>
+          <t>Huawei Mate 30 Lite</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="C152" t="inlineStr">
         <is>
-          <t>Galaxy Core Prime</t>
+          <t>Huawei Mate 30 Pro</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="C153" t="inlineStr">
         <is>
-          <t>Galaxy E5</t>
+          <t>Huawei Mate 40 Pro</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="C154" t="inlineStr">
         <is>
-          <t>Galaxy E7</t>
+          <t>Huawei Mate 7</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="C155" t="inlineStr">
         <is>
-          <t>Galaxy Grand 2</t>
+          <t>Huawei Mate 8</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="C156" t="inlineStr">
         <is>
-          <t>Galaxy Grand Duos</t>
+          <t>Huawei Mate 9</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="C157" t="inlineStr">
         <is>
-          <t>Galaxy Grand Max</t>
+          <t>Huawei Mate S</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="C158" t="inlineStr">
         <is>
-          <t>Galaxy Grand Neo</t>
+          <t>Huawei Nova</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="C159" t="inlineStr">
         <is>
-          <t>Galaxy Grand Prime</t>
+          <t>Huawei Nova 10</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="C160" t="inlineStr">
         <is>
-          <t>Galaxy Grand Prime Plus</t>
+          <t>Huawei Nova 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="C161" t="inlineStr">
         <is>
-          <t>Galaxy Grand Prime Pro</t>
+          <t>Huawei Nova 10 SE</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="C162" t="inlineStr">
         <is>
-          <t>Galaxy İ9060</t>
+          <t>Huawei Nova 5T</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="C163" t="inlineStr">
         <is>
-          <t>Galaxy J1</t>
+          <t>Huawei Nova 8İ</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="C164" t="inlineStr">
         <is>
-          <t>Galaxy J1 2016</t>
+          <t>Huawei Nova 9</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="C165" t="inlineStr">
         <is>
-          <t>Galaxy J1 Ace</t>
+          <t>Huawei Nova 9 Se</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="C166" t="inlineStr">
         <is>
-          <t>Galaxy J1 Mini</t>
+          <t>Huawei Nova Y70</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="C167" t="inlineStr">
         <is>
-          <t>Galaxy J1 Mini Prime</t>
+          <t>Huawei Nova Y90</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="C168" t="inlineStr">
         <is>
-          <t>Galaxy J2</t>
+          <t>Huawei P10</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="C169" t="inlineStr">
         <is>
-          <t>Galaxy J2 Core</t>
+          <t>Huawei P10 Lite</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="C170" t="inlineStr">
         <is>
-          <t>Galaxy J2 Prime</t>
+          <t>Huawei P10 Plus</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="C171" t="inlineStr">
         <is>
-          <t>Galaxy J2 Pro 2018</t>
+          <t>Huawei P20</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="C172" t="inlineStr">
         <is>
-          <t>Galaxy J3 (2016)</t>
+          <t>Huawei P20 Lite</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="C173" t="inlineStr">
         <is>
-          <t>Galaxy J3 Pro</t>
+          <t>Huawei P20 Pro</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="C174" t="inlineStr">
         <is>
-          <t>Galaxy J3 Pro 2016</t>
+          <t>Huawei P30</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="C175" t="inlineStr">
         <is>
-          <t>Galaxy J4</t>
+          <t>Huawei P30 Lite</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="C176" t="inlineStr">
         <is>
-          <t>Galaxy J4+ Plus</t>
+          <t>Huawei P30 Pro</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="C177" t="inlineStr">
         <is>
-          <t>Galaxy J4 Core</t>
+          <t>Huawei P40</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="C178" t="inlineStr">
         <is>
-          <t>Galaxy J5</t>
+          <t>Huawei P40 Lite</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="C179" t="inlineStr">
         <is>
-          <t>Galaxy J5 2016</t>
+          <t>Huawei P40 Lite E</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="C180" t="inlineStr">
         <is>
-          <t>Galaxy J5 Prime</t>
+          <t>Huawei P40 Pro</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="C181" t="inlineStr">
         <is>
-          <t>Galaxy J5 Pro</t>
+          <t>Huawei P50 Pocket</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="C182" t="inlineStr">
         <is>
-          <t>Galaxy J6</t>
+          <t>Huawei P50 Pro</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="C183" t="inlineStr">
         <is>
-          <t>Galaxy J6+ Plus</t>
+          <t>Huawei P8</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="C184" t="inlineStr">
         <is>
-          <t>Galaxy J6 Prime</t>
+          <t>Huawei P8 Lite</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="C185" t="inlineStr">
         <is>
-          <t>Galaxy J7</t>
+          <t>Huawei P9</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="C186" t="inlineStr">
         <is>
-          <t>Galaxy J7 2015</t>
+          <t>Huawei P9 Lite</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="C187" t="inlineStr">
         <is>
-          <t>Galaxy J7 2016</t>
+          <t>Huawei P 9 Lite 2017</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="C188" t="inlineStr">
         <is>
-          <t>Galaxy J7 Core</t>
+          <t>Huawei P9 Lite Mini</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="C189" t="inlineStr">
         <is>
-          <t>Galaxy J7 Duo</t>
+          <t>Huawei P Smart</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="C190" t="inlineStr">
         <is>
-          <t>Galaxy J7 Max</t>
+          <t>Huawei P Smart 2018</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="C191" t="inlineStr">
         <is>
-          <t>Galaxy J7 Prime</t>
+          <t>Huawei P Smart 2019</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="C192" t="inlineStr">
         <is>
-          <t>Galaxy J7 Prime 2</t>
+          <t>Huawei P Smart 2020</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="C193" t="inlineStr">
         <is>
-          <t>Galaxy J7 Pro</t>
+          <t>Huawei P Smart 2021</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="C194" t="inlineStr">
         <is>
-          <t>Galaxy J8</t>
+          <t>Huawei P Smart Pro</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="C195" t="inlineStr">
         <is>
-          <t>Galaxy M10</t>
+          <t>Huawei P Smart S</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="C196" t="inlineStr">
         <is>
-          <t>Galaxy M10S</t>
+          <t>Huawei P Smart Z</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="C197" t="inlineStr">
         <is>
-          <t>Galaxy M11</t>
+          <t>Huawei Y5 2018</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="C198" t="inlineStr">
         <is>
-          <t>Galaxy M12</t>
+          <t>Huawei Y5 2019</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="C199" t="inlineStr">
         <is>
-          <t>Galaxy M13</t>
+          <t>Huawei Y5P</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="C200" t="inlineStr">
         <is>
-          <t>Galaxy M14</t>
+          <t>Huawei Y5 Prime 2018</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="C201" t="inlineStr">
         <is>
-          <t>Galaxy M20</t>
+          <t>Huawei Y5 Prime 2020</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="C202" t="inlineStr">
         <is>
-          <t>Galaxy M21</t>
+          <t>Huawei Y6</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="C203" t="inlineStr">
         <is>
-          <t>Galaxy M30</t>
+          <t>Huawei Y6 2</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="C204" t="inlineStr">
         <is>
-          <t>Galaxy M30S</t>
+          <t>Huawei Y6 2018</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="C205" t="inlineStr">
         <is>
-          <t>Galaxy M31</t>
+          <t>Huawei Y6 2019</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="C206" t="inlineStr">
         <is>
-          <t>Galaxy M31s</t>
+          <t>Huawei Y6P</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="C207" t="inlineStr">
         <is>
-          <t>Galaxy M34 5G</t>
+          <t>Huawei Y6P 2020</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="C208" t="inlineStr">
         <is>
-          <t>Galaxy M40</t>
+          <t>Huawei Y6 Prime 2018</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="C209" t="inlineStr">
         <is>
-          <t>Galaxy M51</t>
+          <t>Huawei Y6S</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="C210" t="inlineStr">
         <is>
-          <t>Galaxy Note 10</t>
+          <t>Huawei Y6S 2019</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="C211" t="inlineStr">
         <is>
-          <t>Galaxy Note 10 Lite</t>
+          <t>Huawei Y7</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="C212" t="inlineStr">
         <is>
-          <t>Galaxy Note 10 Plus</t>
+          <t>Huawei Y7 2018</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="C213" t="inlineStr">
         <is>
-          <t>Galaxy Note 2</t>
+          <t>Huawei Y7 2019</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="C214" t="inlineStr">
         <is>
-          <t>Galaxy Note 20</t>
+          <t>Huawei Y7p 2020</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="C215" t="inlineStr">
         <is>
-          <t>Galaxy Note 20 Ultra</t>
+          <t>Huawei Y7 Prime 2019</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="C216" t="inlineStr">
         <is>
-          <t>Galaxy Note 3</t>
+          <t>Huawei Y8P</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="C217" t="inlineStr">
         <is>
-          <t>Galaxy Note 4</t>
+          <t>Huawei Y9 2018</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="C218" t="inlineStr">
         <is>
-          <t>Galaxy Note 5</t>
+          <t>Huawei Y9 2019</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="C219" t="inlineStr">
         <is>
-          <t>Galaxy Note 8</t>
+          <t>Huawei Y9 Prime 2019</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="C220" t="inlineStr">
         <is>
-          <t>Galaxy Note 9</t>
+          <t>Infinix Hot 40</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="C221" t="inlineStr">
         <is>
-          <t>Galaxy Note FE</t>
+          <t>Infinix Hot 8</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="C222" t="inlineStr">
         <is>
-          <t>Galaxy ON5</t>
+          <t>Infinix Hot 9</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="C223" t="inlineStr">
         <is>
-          <t>Galaxy ON7</t>
+          <t>Infinix Note 10</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="C224" t="inlineStr">
         <is>
-          <t>Galaxy S10</t>
+          <t>Infinix Note 12</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="C225" t="inlineStr">
         <is>
-          <t>Galaxy S10e</t>
+          <t>Infinix Note 7</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="C226" t="inlineStr">
         <is>
-          <t>Galaxy S10 Lite</t>
+          <t>Infinix Note 8</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="C227" t="inlineStr">
         <is>
-          <t>Galaxy S10 Plus</t>
+          <t>Infinix Zero 8</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="C228" t="inlineStr">
         <is>
-          <t>Galaxy S20</t>
+          <t>Iphone 5</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="C229" t="inlineStr">
         <is>
-          <t>Galaxy S20 FE</t>
+          <t>Iphone Se Plus</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="C230" t="inlineStr">
         <is>
-          <t>Galaxy S20 Plus</t>
+          <t>İnfinix Hot 10</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="C231" t="inlineStr">
         <is>
-          <t>Galaxy S20 Ultra</t>
+          <t>İnfinix Hot 10 Play</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="C232" t="inlineStr">
         <is>
-          <t>Galaxy S21</t>
+          <t>İnfinix Hot 10T</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="C233" t="inlineStr">
         <is>
-          <t>Galaxy S21 FE</t>
+          <t>İnfinix Hot 11 Play</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="C234" t="inlineStr">
         <is>
-          <t>Galaxy S21 Plus</t>
+          <t>İnfinix Hot 12</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="C235" t="inlineStr">
         <is>
-          <t>Galaxy S21 Ultra</t>
+          <t>İnfinix Hot 20</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="C236" t="inlineStr">
         <is>
-          <t>Galaxy S22</t>
+          <t>İnfinix Hot 20i</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="C237" t="inlineStr">
         <is>
-          <t>Galaxy S22 Plus</t>
+          <t>İnfinix Hot 30i</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="C238" t="inlineStr">
         <is>
-          <t>Galaxy S22 Ultra</t>
+          <t>İnfinix Note 11 Pro</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="C239" t="inlineStr">
         <is>
-          <t>Galaxy S23</t>
+          <t>İnfinix Note 30</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="C240" t="inlineStr">
         <is>
-          <t>Galaxy S23 Fe</t>
+          <t>infinix Smart 5</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="C241" t="inlineStr">
         <is>
-          <t>Galaxy S23 Plus</t>
+          <t>iPhone 11</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="C242" t="inlineStr">
         <is>
-          <t>Galaxy S23 Ultra</t>
+          <t>iPhone 11 Pro</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="C243" t="inlineStr">
         <is>
-          <t>Galaxy S24</t>
+          <t>iPhone 11 Pro Max</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="C244" t="inlineStr">
         <is>
-          <t>Galaxy S24 Plus</t>
+          <t>iPhone 12</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="C245" t="inlineStr">
         <is>
-          <t>Galaxy S24 Ultra</t>
+          <t>iPhone 12 Mini</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="C246" t="inlineStr">
         <is>
-          <t>Galaxy S3</t>
+          <t>iPhone 12 Pro</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="C247" t="inlineStr">
         <is>
-          <t>Galaxy S3 Mini</t>
+          <t>iPhone 12 Pro Max</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="C248" t="inlineStr">
         <is>
-          <t>Galaxy S4</t>
+          <t>iPhone 13</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="C249" t="inlineStr">
         <is>
-          <t>Galaxy S4 Mini</t>
+          <t>iPhone 13 Mini</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="C250" t="inlineStr">
         <is>
-          <t>Galaxy S5</t>
+          <t>iPhone 13 Pro</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="C251" t="inlineStr">
         <is>
-          <t>Galaxy S5 Mini</t>
+          <t>iPhone 13 Pro Max</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="C252" t="inlineStr">
         <is>
-          <t>Galaxy S6</t>
+          <t>iPhone 14</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="C253" t="inlineStr">
         <is>
-          <t>Galaxy S6 Edge</t>
+          <t>iPhone 14 Plus</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="C254" t="inlineStr">
         <is>
-          <t>Galaxy S6 Edge Plus</t>
+          <t>iPhone 14 Pro</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="C255" t="inlineStr">
         <is>
-          <t>Galaxy S7</t>
+          <t>iPhone 14 Pro Max</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="C256" t="inlineStr">
         <is>
-          <t>Galaxy S7 Edge</t>
+          <t>iPhone 15</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="C257" t="inlineStr">
         <is>
-          <t>Galaxy S8</t>
+          <t>iPhone 15 Plus</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="C258" t="inlineStr">
         <is>
-          <t>Galaxy S8 Plus</t>
+          <t>iPhone 15 Pro</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="C259" t="inlineStr">
         <is>
-          <t>Galaxy S9</t>
+          <t>iPhone 15 Pro Max</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="C260" t="inlineStr">
         <is>
-          <t>Galaxy S9 Plus</t>
+          <t>iPhone 4/4S</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="C261" t="inlineStr">
         <is>
-          <t>Galaxy Z Flip</t>
+          <t>iPhone 5S</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="C262" t="inlineStr">
         <is>
-          <t>Galaxy Z Flip 4</t>
+          <t>iPhone 6</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="C263" t="inlineStr">
         <is>
-          <t>Galaxy Z Flip 5</t>
+          <t>iPhone 6 Plus</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="C264" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold 2</t>
+          <t>iPhone 6S</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="C265" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold 3</t>
+          <t>iPhone 6S Plus</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="C266" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold 4</t>
+          <t>iPhone 7</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="C267" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold 5</t>
+          <t>iPhone 7 Plus</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="C268" t="inlineStr">
         <is>
-          <t>General Mobile 23</t>
+          <t>iPhone 8</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="C269" t="inlineStr">
         <is>
-          <t>General Mobile 23SE</t>
+          <t>iPhone 8 Plus</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="C270" t="inlineStr">
         <is>
-          <t>General Mobile 24 Pro</t>
+          <t>iPhone SE</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="C271" t="inlineStr">
         <is>
-          <t>General Mobile 4G</t>
+          <t>iPhone SE 2020</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="C272" t="inlineStr">
         <is>
-          <t>General Mobile Android One</t>
+          <t>iPhone SE 2022</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="C273" t="inlineStr">
         <is>
-          <t>General Mobile Discovery</t>
+          <t>iPhone X</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="C274" t="inlineStr">
         <is>
-          <t>General Mobile Discovery 2</t>
+          <t>iPhone XR</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="C275" t="inlineStr">
         <is>
-          <t>General Mobile Discovery 2 Mini</t>
+          <t>iPhone XS</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="C276" t="inlineStr">
         <is>
-          <t>General Mobile Discovery Air</t>
+          <t>iPhone XS Max</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="C277" t="inlineStr">
         <is>
-          <t>General Mobile Discovery Elite</t>
+          <t>Lenovo A1000</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="C278" t="inlineStr">
         <is>
-          <t>General Mobile Discovery Elite Plus</t>
+          <t>Lenovo A2010</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="C279" t="inlineStr">
         <is>
-          <t>General Mobile GM 20</t>
+          <t>Lenovo A5000</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="C280" t="inlineStr">
         <is>
-          <t>General Mobile GM 20 Pro</t>
+          <t>Lenovo A6000</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="C281" t="inlineStr">
         <is>
-          <t>General Mobile GM 21</t>
+          <t>Lenovo A7000</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="C282" t="inlineStr">
         <is>
-          <t>General Mobile GM 21 Plus</t>
+          <t>Lenovo A7010</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="C283" t="inlineStr">
         <is>
-          <t>General Mobile GM 21 Pro</t>
+          <t>Lenovo K5</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="C284" t="inlineStr">
         <is>
-          <t>General Mobile GM22</t>
+          <t>Lenovo K5 Note</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="C285" t="inlineStr">
         <is>
-          <t>General Mobile GM22 Plus</t>
+          <t>Lenovo K5 Plus</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="C286" t="inlineStr">
         <is>
-          <t>General Mobile GM22 Pro</t>
+          <t>Lenovo K6</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="C287" t="inlineStr">
         <is>
-          <t>General Mobile GM5</t>
+          <t>Lenovo K6 Note</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="C288" t="inlineStr">
         <is>
-          <t>General Mobile GM5 Plus</t>
+          <t>Lenovo K6 Power</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="C289" t="inlineStr">
         <is>
-          <t>General Mobile GM6</t>
+          <t>Lenovo Moto E4</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="C290" t="inlineStr">
         <is>
-          <t>General Mobile GM8</t>
+          <t>Lenovo Moto E4 Plus</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="C291" t="inlineStr">
         <is>
-          <t>General Mobile GM8 GO</t>
+          <t>Lenovo Moto G4</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="C292" t="inlineStr">
         <is>
-          <t>General Mobile GM9 Pro</t>
+          <t>Lenovo Moto G5</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="C293" t="inlineStr">
         <is>
-          <t>GM 10</t>
+          <t>Lenovo Moto G5S</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="C294" t="inlineStr">
         <is>
-          <t>GM20</t>
+          <t>Lenovo Moto G5S Plus</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="C295" t="inlineStr">
         <is>
-          <t>GM20 Pro</t>
+          <t>Lenovo Moto Z</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="C296" t="inlineStr">
         <is>
-          <t>Honor 10</t>
+          <t>Lenovo Moto Z2 Play</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="C297" t="inlineStr">
         <is>
-          <t>Honor 10 Lite</t>
+          <t>Lenovo Moto Z Play</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="C298" t="inlineStr">
         <is>
-          <t>Honor 20</t>
+          <t>Lenovo One Vision</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="C299" t="inlineStr">
         <is>
-          <t>Honor 20 Lite</t>
+          <t>Lenovo P2</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="C300" t="inlineStr">
         <is>
-          <t>Honor 50</t>
+          <t>Lenovo P70</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="C301" t="inlineStr">
         <is>
-          <t>Honor 7</t>
+          <t>Lenovo S60</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="C302" t="inlineStr">
         <is>
-          <t>Honor 70</t>
+          <t>Lenovo S90</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="C303" t="inlineStr">
         <is>
-          <t>Honor 7C</t>
+          <t>Lenovo Vibe C</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="C304" t="inlineStr">
         <is>
-          <t>Honor 7S</t>
+          <t>Lenovo Vibe P1</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="C305" t="inlineStr">
         <is>
-          <t>Honor 7X</t>
+          <t>Lenovo Vibe P1m</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="C306" t="inlineStr">
         <is>
-          <t>Honor 8</t>
+          <t>Lenovo Vibe P1 Pro</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="C307" t="inlineStr">
         <is>
-          <t>Honor 8A</t>
+          <t>Lenovo Vibe X2</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="C308" t="inlineStr">
         <is>
-          <t>Honor 8C</t>
+          <t>Lg G2</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="C309" t="inlineStr">
         <is>
-          <t>Honor 8S</t>
+          <t>Lg G3</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="C310" t="inlineStr">
         <is>
-          <t>Honor 8X</t>
+          <t>Lg G3 Beat</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="C311" t="inlineStr">
         <is>
-          <t>Honor 9</t>
+          <t>Lg G3 Stylus</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="C312" t="inlineStr">
         <is>
-          <t>Honor 90</t>
+          <t>Lg G4</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="C313" t="inlineStr">
         <is>
-          <t>Honor 9 Lite</t>
+          <t>Lg G4 Beat</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="C314" t="inlineStr">
         <is>
-          <t>Honor 9X</t>
+          <t>Lg G4c</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="C315" t="inlineStr">
         <is>
-          <t>Honor Play</t>
+          <t>Lg G4 Stylus</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="C316" t="inlineStr">
         <is>
-          <t>Honor View 20</t>
+          <t>Lg G5</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="C317" t="inlineStr">
         <is>
-          <t>Honor X9a</t>
+          <t>Lg G5 Se</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="C318" t="inlineStr">
         <is>
-          <t>Htc 10</t>
+          <t>Lg G6</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="C319" t="inlineStr">
         <is>
-          <t>Htc Desire 12</t>
+          <t>Lg G7 ThinQ</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="C320" t="inlineStr">
         <is>
-          <t>HTC Desire 12 Plus</t>
+          <t>Lg K10</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="C321" t="inlineStr">
         <is>
-          <t>Htc Desire 530</t>
+          <t>Lg K10 (2017)</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="C322" t="inlineStr">
         <is>
-          <t>Htc Desire 620</t>
+          <t>Lg K11</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="C323" t="inlineStr">
         <is>
-          <t>Htc Desire 626</t>
+          <t>LG K20 (2019)</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="C324" t="inlineStr">
         <is>
-          <t>Htc Desire 728</t>
+          <t>Lg K4</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="C325" t="inlineStr">
         <is>
-          <t>Htc Desire 816</t>
+          <t>LG K40</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="C326" t="inlineStr">
         <is>
-          <t>Htc Desire 820</t>
+          <t>LG K41S</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="C327" t="inlineStr">
         <is>
-          <t>Htc Desire 825</t>
+          <t>LG K50S</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="C328" t="inlineStr">
         <is>
-          <t>Htc Desire 826</t>
+          <t>LG K51S</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="C329" t="inlineStr">
         <is>
-          <t>Htc Desire 828</t>
+          <t>LG K61</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="C330" t="inlineStr">
         <is>
-          <t>Htc Desire 830</t>
+          <t>Lg K7</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="C331" t="inlineStr">
         <is>
-          <t>Htc Desire Eye</t>
+          <t>Lg K8</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="C332" t="inlineStr">
         <is>
-          <t>Htc One A9</t>
+          <t>Lg K8 (2017)</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="C333" t="inlineStr">
         <is>
-          <t>Htc One M7</t>
+          <t>Lg K9</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="C334" t="inlineStr">
         <is>
-          <t>Htc One M8</t>
+          <t>Lg L Bello</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="C335" t="inlineStr">
         <is>
-          <t>Htc One M9</t>
+          <t>Lg L Leon</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="C336" t="inlineStr">
         <is>
-          <t>Htc One M9 Plus</t>
+          <t>Lg Q6</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="C337" t="inlineStr">
         <is>
-          <t>Htc U11</t>
+          <t>LG Q60</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="C338" t="inlineStr">
         <is>
-          <t>Htc U11 Life</t>
+          <t>Lg Q7</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="C339" t="inlineStr">
         <is>
-          <t>Huawei Ascend P7</t>
+          <t>Lg Stylus</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="C340" t="inlineStr">
         <is>
-          <t>Huawei G7</t>
+          <t>Lg Stylus 2</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="C341" t="inlineStr">
         <is>
-          <t>Huawei G8</t>
+          <t>Lg Stylus 3</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="C342" t="inlineStr">
         <is>
-          <t>Huawei GR3</t>
+          <t>Lg V10</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="C343" t="inlineStr">
         <is>
-          <t>Huawei GR5</t>
+          <t>Lg V20</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="C344" t="inlineStr">
         <is>
-          <t>Huawei GR5 2017</t>
+          <t>Lg V30</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="C345" t="inlineStr">
         <is>
-          <t>Huawei Mate 10</t>
+          <t>Lg V30 Plus</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="C346" t="inlineStr">
         <is>
-          <t>Huawei Mate 10 Lite</t>
+          <t>Lg X</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="C347" t="inlineStr">
         <is>
-          <t>Huawei Mate 10 Pro</t>
+          <t>Lg X Power</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="C348" t="inlineStr">
         <is>
-          <t>Huawei Mate 20</t>
+          <t>Lg X Screen</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="C349" t="inlineStr">
         <is>
-          <t>Huawei Mate 20 Lite</t>
+          <t>LG X Style</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="C350" t="inlineStr">
         <is>
-          <t>Huawei Mate 20 Pro</t>
+          <t>LG Zero</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="C351" t="inlineStr">
         <is>
-          <t>Huawei Mate 30</t>
+          <t>Meizu 16</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="C352" t="inlineStr">
         <is>
-          <t>Huawei Mate 30 Pro</t>
+          <t>Meizu 16TH</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="C353" t="inlineStr">
         <is>
-          <t>Huawei Mate 40 Pro</t>
+          <t>Meizu 16XS</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="C354" t="inlineStr">
         <is>
-          <t>Huawei Mate 7</t>
+          <t>Meizu M10</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="C355" t="inlineStr">
         <is>
-          <t>Huawei Mate 8</t>
+          <t>Meizu M3 Note</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="C356" t="inlineStr">
         <is>
-          <t>Huawei Mate 9</t>
+          <t>Meizu M5S</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="C357" t="inlineStr">
         <is>
-          <t>Huawei Mate S</t>
+          <t>Meizu M6</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="C358" t="inlineStr">
         <is>
-          <t>Huawei Nova</t>
+          <t>Meizu M6S</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="C359" t="inlineStr">
         <is>
-          <t>Huawei Nova 5T</t>
+          <t>Meizu M6T</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="C360" t="inlineStr">
         <is>
-          <t>Huawei Nova 9</t>
+          <t>Meizu MX4</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="C361" t="inlineStr">
         <is>
-          <t>Huawei Nova 9 Se</t>
+          <t>Meizu MX4 Pro</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="C362" t="inlineStr">
         <is>
-          <t>Huawei Nova Y70</t>
+          <t>Meizu MX5</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="C363" t="inlineStr">
         <is>
-          <t>Huawei Nova Y90</t>
+          <t>Meizu Note 8</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="C364" t="inlineStr">
         <is>
-          <t>Huawei P10</t>
+          <t>Meizu Note 9</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="C365" t="inlineStr">
         <is>
-          <t>Huawei P10 Lite</t>
+          <t>Meizu Pro 6</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="C366" t="inlineStr">
         <is>
-          <t>Huawei P10 Plus</t>
+          <t>Meizu X8</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="C367" t="inlineStr">
         <is>
-          <t>Huawei P20</t>
+          <t>Mi 12 Lite</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="C368" t="inlineStr">
         <is>
-          <t>Huawei P20 Lite</t>
+          <t>Nokia 2</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="C369" t="inlineStr">
         <is>
-          <t>Huawei P20 Pro</t>
+          <t>Nokia 3</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="C370" t="inlineStr">
         <is>
-          <t>Huawei P30</t>
+          <t>Nokia 5</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="C371" t="inlineStr">
         <is>
-          <t>Huawei P30 Lite</t>
+          <t>Nokia 5.1</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="C372" t="inlineStr">
         <is>
-          <t>Huawei P30 Pro</t>
+          <t>Nokia 5.1 Plus</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="C373" t="inlineStr">
         <is>
-          <t>Huawei P40</t>
+          <t>Nokia 6</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="C374" t="inlineStr">
         <is>
-          <t>Huawei P40 Lite</t>
+          <t>Nokia 6.1</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="C375" t="inlineStr">
         <is>
-          <t>Huawei P40 Lite E</t>
+          <t>Nokia 7.1</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="C376" t="inlineStr">
         <is>
-          <t>Huawei P40 Pro</t>
+          <t>Nokia 8</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="C377" t="inlineStr">
         <is>
-          <t>Huawei P8</t>
+          <t>Nokia Lumia 535</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="C378" t="inlineStr">
         <is>
-          <t>Huawei P8 Lite</t>
+          <t>Nokia Lumia 540</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="C379" t="inlineStr">
         <is>
-          <t>Huawei P9</t>
+          <t>Nokia Lumia 550</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="C380" t="inlineStr">
         <is>
-          <t>Huawei P9 Lite</t>
+          <t>Nokia Lumia 650</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="C381" t="inlineStr">
         <is>
-          <t>Huawei P 9 Lite 2017</t>
+          <t>Nokia Lumia 950</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="C382" t="inlineStr">
         <is>
-          <t>Huawei P9 Lite Mini</t>
+          <t>Nokia Lumia 950 XL</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="C383" t="inlineStr">
         <is>
-          <t>Huawei P Smart</t>
+          <t>Note 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="C384" t="inlineStr">
         <is>
-          <t>Huawei P Smart 2018</t>
+          <t>Omix X3</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="C385" t="inlineStr">
         <is>
-          <t>Huawei P Smart 2019</t>
+          <t>Omix X300</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="C386" t="inlineStr">
         <is>
-          <t>Huawei P Smart 2020</t>
+          <t>Omix X400</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="C387" t="inlineStr">
         <is>
-          <t>Huawei P Smart 2021</t>
+          <t>OmixX5</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="C388" t="inlineStr">
         <is>
-          <t>Huawei P Smart Pro</t>
+          <t>Omix X500</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="C389" t="inlineStr">
         <is>
-          <t>Huawei P Smart S</t>
+          <t>Omix X600</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="C390" t="inlineStr">
         <is>
-          <t>Huawei P Smart Z</t>
+          <t>Omix X700</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="C391" t="inlineStr">
         <is>
-          <t>Huawei Y5 2018</t>
+          <t>One Plus 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="C392" t="inlineStr">
         <is>
-          <t>Huawei Y5 2019</t>
+          <t>One Plus 5</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="C393" t="inlineStr">
         <is>
-          <t>Huawei Y5P</t>
+          <t>One Plus 8 Pro</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="C394" t="inlineStr">
         <is>
-          <t>Huawei Y5 Prime 2018</t>
+          <t>One Plus 9</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="C395" t="inlineStr">
         <is>
-          <t>Huawei Y6</t>
+          <t>One Plus 9 Pro</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="C396" t="inlineStr">
         <is>
-          <t>Huawei Y6 2</t>
+          <t>One Plus Nord N10</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="C397" t="inlineStr">
         <is>
-          <t>Huawei Y6 2018</t>
+          <t>One Plus Nord N100</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="C398" t="inlineStr">
         <is>
-          <t>Huawei Y6 2019</t>
+          <t>Oppo A12</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="C399" t="inlineStr">
         <is>
-          <t>Huawei Y6P</t>
+          <t>Oppo A15</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="C400" t="inlineStr">
         <is>
-          <t>Huawei Y6P 2020</t>
+          <t>Oppo A15S</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="C401" t="inlineStr">
         <is>
-          <t>Huawei Y6 Prime 2018</t>
+          <t>Oppo A16</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="C402" t="inlineStr">
         <is>
-          <t>Huawei Y6S</t>
+          <t>Oppo A31</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="C403" t="inlineStr">
         <is>
-          <t>Huawei Y6S 2019</t>
+          <t>Oppo A36</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="C404" t="inlineStr">
         <is>
-          <t>Huawei Y7</t>
+          <t>Oppo A52</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="C405" t="inlineStr">
         <is>
-          <t>Huawei Y7 2018</t>
+          <t>Oppo A5 2020</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="C406" t="inlineStr">
         <is>
-          <t>Huawei Y7 2019</t>
+          <t>Oppo A54 4G</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="C407" t="inlineStr">
         <is>
-          <t>Huawei Y7 Prime 2019</t>
+          <t>Oppo A55 4G</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="C408" t="inlineStr">
         <is>
-          <t>Huawei Y8P</t>
+          <t>Oppo A55 5G</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="C409" t="inlineStr">
         <is>
-          <t>Huawei Y9 2018</t>
+          <t>Oppo A5S</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="C410" t="inlineStr">
         <is>
-          <t>Huawei Y9 2019</t>
+          <t>Oppo A7</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="C411" t="inlineStr">
         <is>
-          <t>Huawei Y9 Prime 2019</t>
+          <t>Oppo A72</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="C412" t="inlineStr">
         <is>
-          <t>Infinix Hot 40</t>
+          <t>Oppo A73</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="C413" t="inlineStr">
         <is>
-          <t>Infinix Note 7</t>
+          <t>Oppo A74 4G</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="C414" t="inlineStr">
         <is>
-          <t>Infinix Zero 8</t>
+          <t>Oppo A76</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="C415" t="inlineStr">
         <is>
-          <t>Iphone 5</t>
+          <t>Oppo A7X</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="C416" t="inlineStr">
         <is>
-          <t>Iphone Se Plus</t>
+          <t>Oppo A91</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="C417" t="inlineStr">
         <is>
-          <t>İnfinix Hot 10</t>
+          <t>Oppo A92</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="C418" t="inlineStr">
         <is>
-          <t>İnfinix Hot 10 Play</t>
+          <t>Oppo A9 2020</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="C419" t="inlineStr">
         <is>
-          <t>İnfinix Hot 10T</t>
+          <t>Oppo A96 4G</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="C420" t="inlineStr">
         <is>
-          <t>İnfinix Hot 11 Play</t>
+          <t>Oppo AX7</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="C421" t="inlineStr">
         <is>
-          <t>İnfinix Hot 12</t>
+          <t>Oppo F9</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="C422" t="inlineStr">
         <is>
-          <t>İnfinix Hot 20</t>
+          <t>Oppo Find X2</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="C423" t="inlineStr">
         <is>
-          <t>İnfinix Hot 20i</t>
+          <t>Oppo Realme 5 Pro</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="C424" t="inlineStr">
         <is>
-          <t>İnfinix Hot 30i</t>
+          <t>Oppo Realme 6</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="C425" t="inlineStr">
         <is>
-          <t>İnfinix Hot 8</t>
+          <t>Oppo Realme 6 Pro</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="C426" t="inlineStr">
         <is>
-          <t>İnfinix Hot 9</t>
+          <t>Oppo Realme C15</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="C427" t="inlineStr">
         <is>
-          <t>İnfinix Note 10</t>
+          <t>Oppo Reno</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="C428" t="inlineStr">
         <is>
-          <t>İnfinix Note 11 Pro</t>
+          <t>Oppo Reno 10x Zoom</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="C429" t="inlineStr">
         <is>
-          <t>İnfinix Note 12</t>
+          <t>Oppo Reno 2</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="C430" t="inlineStr">
         <is>
-          <t>İnfinix Note 30</t>
+          <t>Oppo Reno 2Z</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="C431" t="inlineStr">
         <is>
-          <t>İnfinix Note 8</t>
+          <t>Oppo Reno 3</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="C432" t="inlineStr">
         <is>
-          <t>infinix Smart 5</t>
+          <t>Oppo Reno 3 Pro</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="C433" t="inlineStr">
         <is>
-          <t>iPhone 11</t>
+          <t>Oppo Reno 3 Pro 5G</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="C434" t="inlineStr">
         <is>
-          <t>iPhone 11 Pro</t>
+          <t>Oppo Reno 4</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="C435" t="inlineStr">
         <is>
-          <t>iPhone 11 Pro Max</t>
+          <t>Oppo Reno 4 Lite</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="C436" t="inlineStr">
         <is>
-          <t>iPhone 12</t>
+          <t>Oppo Reno 4 Pro</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="C437" t="inlineStr">
         <is>
-          <t>iPhone 12 Mini</t>
+          <t>Oppo Reno 5</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="C438" t="inlineStr">
         <is>
-          <t>iPhone 12 Pro</t>
+          <t>Oppo Reno 5 Lite</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="C439" t="inlineStr">
         <is>
-          <t>iPhone 12 Pro Max</t>
+          <t>Oppo Reno 5 Pro</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="C440" t="inlineStr">
         <is>
-          <t>iPhone 13</t>
+          <t>Oppo Reno 6</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="C441" t="inlineStr">
         <is>
-          <t>iPhone 13 Mini</t>
+          <t>Oppo Reno 7 4G</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="C442" t="inlineStr">
         <is>
-          <t>iPhone 13 Pro</t>
+          <t>Oppo Reno Z</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="C443" t="inlineStr">
         <is>
-          <t>iPhone 13 Pro Max</t>
+          <t>Oppo RX17 Neo</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="C444" t="inlineStr">
         <is>
-          <t>iPhone 14</t>
+          <t>Oppo RX 17 Pro</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="C445" t="inlineStr">
         <is>
-          <t>iPhone 14 Plus</t>
+          <t>Oppo RX 7 Neo</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="C446" t="inlineStr">
         <is>
-          <t>iPhone 14 Pro</t>
+          <t>Oukitel C21 Pro</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="C447" t="inlineStr">
         <is>
-          <t>iPhone 14 Pro Max</t>
+          <t>POCO C40</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="C448" t="inlineStr">
         <is>
-          <t>iPhone 15</t>
+          <t>Poco F2</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="C449" t="inlineStr">
         <is>
-          <t>iPhone 15 Plus</t>
+          <t>Poco F2 Pro</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="C450" t="inlineStr">
         <is>
-          <t>iPhone 15 Pro</t>
+          <t>Poco F3</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="C451" t="inlineStr">
         <is>
-          <t>iPhone 15 Pro Max</t>
+          <t>Poco F4</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="C452" t="inlineStr">
         <is>
-          <t>iPhone 4/4S</t>
+          <t>POCO F5</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="C453" t="inlineStr">
         <is>
-          <t>iPhone 5S</t>
+          <t>Poco F5 Pro</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="C454" t="inlineStr">
         <is>
-          <t>iPhone 6</t>
+          <t>Poco M3</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="C455" t="inlineStr">
         <is>
-          <t>iPhone 6 Plus</t>
+          <t>Poco M3 Pro</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="C456" t="inlineStr">
         <is>
-          <t>iPhone 6S</t>
+          <t>Poco M4 Pro 4G</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="C457" t="inlineStr">
         <is>
-          <t>iPhone 6S Plus</t>
+          <t>Poco M4 Pro 5G</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="C458" t="inlineStr">
         <is>
-          <t>iPhone 7</t>
+          <t>Poco M5</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="C459" t="inlineStr">
         <is>
-          <t>iPhone 7 Plus</t>
+          <t>Pocophone F1</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="C460" t="inlineStr">
         <is>
-          <t>iPhone 8</t>
+          <t>Poco X2</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="C461" t="inlineStr">
         <is>
-          <t>iPhone 8 Plus</t>
+          <t>Poco X3</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="C462" t="inlineStr">
         <is>
-          <t>iPhone SE</t>
+          <t>Poco X3 GT</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="C463" t="inlineStr">
         <is>
-          <t>iPhone SE 2020</t>
+          <t>Poco X3 NFC</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="C464" t="inlineStr">
         <is>
-          <t>iPhone SE 2022</t>
+          <t>Poco X3 Pro</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="C465" t="inlineStr">
         <is>
-          <t>iPhone X</t>
+          <t>Poco X4 GT</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="C466" t="inlineStr">
         <is>
-          <t>iPhone XR</t>
+          <t>Poco X4 Pro</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="C467" t="inlineStr">
         <is>
-          <t>iPhone XS</t>
+          <t>Poco X4 Pro 5G</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="C468" t="inlineStr">
         <is>
-          <t>iPhone XS Max</t>
+          <t>Poco X5 5G</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="C469" t="inlineStr">
         <is>
-          <t>Lenovo A1000</t>
+          <t>Poco X5 Pro 5G</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="C470" t="inlineStr">
         <is>
-          <t>Lenovo A2010</t>
+          <t>Realme 10 4G</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="C471" t="inlineStr">
         <is>
-          <t>Lenovo A5000</t>
+          <t>Realme 10 Pro Plus</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="C472" t="inlineStr">
         <is>
-          <t>Lenovo A6000</t>
+          <t>Realme 11 Pro</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="C473" t="inlineStr">
         <is>
-          <t>Lenovo A7000</t>
+          <t>Realme 11 Pro Plus</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="C474" t="inlineStr">
         <is>
-          <t>Lenovo A7010</t>
+          <t>Realme 12 Pro</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="C475" t="inlineStr">
         <is>
-          <t>Lenovo K5</t>
+          <t>Realme 12 Pro Plus</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="C476" t="inlineStr">
         <is>
-          <t>Lenovo K5 Note</t>
+          <t>Realme 5</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="C477" t="inlineStr">
         <is>
-          <t>Lenovo K5 Plus</t>
+          <t>Realme 5i</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="C478" t="inlineStr">
         <is>
-          <t>Lenovo K6</t>
+          <t>Realme 5 Pro</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="C479" t="inlineStr">
         <is>
-          <t>Lenovo K6 Note</t>
+          <t>Realme 6</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="C480" t="inlineStr">
         <is>
-          <t>Lenovo K6 Power</t>
+          <t>Realme 6i</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="C481" t="inlineStr">
         <is>
-          <t>Lenovo Moto E4</t>
+          <t>Realme 6 Pro</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="C482" t="inlineStr">
         <is>
-          <t>Lenovo Moto E4 Plus</t>
+          <t>Realme 7</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="C483" t="inlineStr">
         <is>
-          <t>Lenovo Moto G4</t>
+          <t>Realme 7 Pro</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="C484" t="inlineStr">
         <is>
-          <t>Lenovo Moto G5</t>
+          <t>Realme 8</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="C485" t="inlineStr">
         <is>
-          <t>Lenovo Moto G5S</t>
+          <t>Realme 8 Pro</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="C486" t="inlineStr">
         <is>
-          <t>Lenovo Moto G5S Plus</t>
+          <t>Realme 9 Pro</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="C487" t="inlineStr">
         <is>
-          <t>Lenovo Moto Z</t>
+          <t>Realme C11</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="C488" t="inlineStr">
         <is>
-          <t>Lenovo Moto Z2 Play</t>
+          <t>Realme C11 2021</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="C489" t="inlineStr">
         <is>
-          <t>Lenovo Moto Z Play</t>
+          <t>Realme C15</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="C490" t="inlineStr">
         <is>
-          <t>Lenovo One Vision</t>
+          <t>Realme C2</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="C491" t="inlineStr">
         <is>
-          <t>Lenovo P2</t>
+          <t>Realme C20</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="C492" t="inlineStr">
         <is>
-          <t>Lenovo P70</t>
+          <t>Realme C21</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="C493" t="inlineStr">
         <is>
-          <t>Lenovo S60</t>
+          <t>Realme C21Y</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="C494" t="inlineStr">
         <is>
-          <t>Lenovo S90</t>
+          <t>Realme C25</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="C495" t="inlineStr">
         <is>
-          <t>Lenovo Vibe C</t>
+          <t>Realme C25S</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="C496" t="inlineStr">
         <is>
-          <t>Lenovo Vibe P1</t>
+          <t>Realme C3</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="C497" t="inlineStr">
         <is>
-          <t>Lenovo Vibe P1m</t>
+          <t>Realme C31</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="C498" t="inlineStr">
         <is>
-          <t>Lenovo Vibe P1 Pro</t>
+          <t>Realme C35</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="C499" t="inlineStr">
         <is>
-          <t>Lenovo Vibe X2</t>
+          <t>Realme C3i</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="C500" t="inlineStr">
         <is>
-          <t>Lg G2</t>
+          <t>Realme C53</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="C501" t="inlineStr">
         <is>
-          <t>Lg G3</t>
+          <t>Realme C55</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="C502" t="inlineStr">
         <is>
-          <t>Lg G3 Beat</t>
+          <t>Realme GT2</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="C503" t="inlineStr">
         <is>
-          <t>Lg G3 Stylus</t>
+          <t>Realme GT2 Pro</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="C504" t="inlineStr">
         <is>
-          <t>Lg G4</t>
+          <t>Realme Note 50 4G</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="C505" t="inlineStr">
         <is>
-          <t>Lg G4 Beat</t>
+          <t>Realme XT</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="C506" t="inlineStr">
         <is>
-          <t>Lg G4c</t>
+          <t>Redmi Note 11</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="C507" t="inlineStr">
         <is>
-          <t>Lg G4 Stylus</t>
+          <t>Reeder P13 Blue</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="C508" t="inlineStr">
         <is>
-          <t>Lg G5</t>
+          <t>Reeder P13 Blue 2021</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="C509" t="inlineStr">
         <is>
-          <t>Lg G5 Se</t>
+          <t>Reeder P13 Blue 2022</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="C510" t="inlineStr">
         <is>
-          <t>Lg G6</t>
+          <t>Reeder P13 Blue Max</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="C511" t="inlineStr">
         <is>
-          <t>Lg G7 ThinQ</t>
+          <t>Reeder P13 Blue Max 128GB</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="C512" t="inlineStr">
         <is>
-          <t>Lg K10</t>
+          <t>Reeder P13 Blue Max 2020</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="C513" t="inlineStr">
         <is>
-          <t>Lg K10 (2017)</t>
+          <t>Reeder P13 Blue Max 2022</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="C514" t="inlineStr">
         <is>
-          <t>Lg K11</t>
+          <t>Reeder P13 Blue Max L 2022</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="C515" t="inlineStr">
         <is>
-          <t>LG K20 (2019)</t>
+          <t>Reeder P13 Blue Max Lite</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="C516" t="inlineStr">
         <is>
-          <t>Lg K4</t>
+          <t>Reeder P13 Blue Max Pro</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="C517" t="inlineStr">
         <is>
-          <t>LG K40</t>
+          <t>Reeder P13 Blue Max Pro Lite</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="C518" t="inlineStr">
         <is>
-          <t>LG K41S</t>
+          <t>Reeder P13 Blue Max Pro Lite 2022</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="C519" t="inlineStr">
         <is>
-          <t>LG K50S</t>
+          <t>Reeder P13 Blue Plus</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="C520" t="inlineStr">
         <is>
-          <t>LG K51S</t>
+          <t>Reeder P13 Blue Plus 2022</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="C521" t="inlineStr">
         <is>
-          <t>LG K61</t>
+          <t>Reeder s19 Max 19</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="C522" t="inlineStr">
         <is>
-          <t>Lg K7</t>
+          <t>Reeder S19 Max Pro</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="C523" t="inlineStr">
         <is>
-          <t>Lg K8</t>
+          <t>Reeder S19 Max Pro S</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="C524" t="inlineStr">
         <is>
-          <t>Lg K8 (2017)</t>
+          <t>Reeder S23 Pro Max</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="C525" t="inlineStr">
         <is>
-          <t>Lg K9</t>
+          <t>Samsung A52S 5G</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="C526" t="inlineStr">
         <is>
-          <t>Lg L Bello</t>
+          <t>Samsung Galaxy A01</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="C527" t="inlineStr">
         <is>
-          <t>Lg L Leon</t>
+          <t>Samsung Galaxy A01 Core</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="C528" t="inlineStr">
         <is>
-          <t>Lg Q6</t>
+          <t>Samsung Galaxy A02</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="C529" t="inlineStr">
         <is>
-          <t>LG Q60</t>
+          <t>Samsung Galaxy A02s</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="C530" t="inlineStr">
         <is>
-          <t>Lg Q7</t>
+          <t>Samsung Galaxy A03</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="C531" t="inlineStr">
         <is>
-          <t>Lg Stylus</t>
+          <t>Samsung Galaxy A03 Core</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="C532" t="inlineStr">
         <is>
-          <t>Lg Stylus 2</t>
+          <t>Samsung Galaxy A03 S</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="C533" t="inlineStr">
         <is>
-          <t>Lg Stylus 3</t>
+          <t>Samsung Galaxy A04</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="C534" t="inlineStr">
         <is>
-          <t>Lg V10</t>
+          <t>Samsung Galaxy A04e</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="C535" t="inlineStr">
         <is>
-          <t>Lg V20</t>
+          <t>Samsung Galaxy A04s</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="C536" t="inlineStr">
         <is>
-          <t>Lg V30</t>
+          <t>Samsung Galaxy A05</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="C537" t="inlineStr">
         <is>
-          <t>Lg V30 Plus</t>
+          <t>Samsung Galaxy A05S</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="C538" t="inlineStr">
         <is>
-          <t>Lg X</t>
+          <t>Samsung Galaxy A10</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="C539" t="inlineStr">
         <is>
-          <t>Lg X Power</t>
+          <t>Samsung Galaxy A10s</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="C540" t="inlineStr">
         <is>
-          <t>Lg X Screen</t>
+          <t>Samsung Galaxy A11</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="C541" t="inlineStr">
         <is>
-          <t>LG X Style</t>
+          <t>Samsung Galaxy A12</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="C542" t="inlineStr">
         <is>
-          <t>LG Zero</t>
+          <t>Samsung Galaxy A13</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="C543" t="inlineStr">
         <is>
-          <t>Mate 30 Lite</t>
+          <t>Samsung Galaxy A13 4G</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="C544" t="inlineStr">
         <is>
-          <t>Meizu 16</t>
+          <t>Samsung Galaxy A14</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="C545" t="inlineStr">
         <is>
-          <t>Meizu 16TH</t>
+          <t>Samsung Galaxy A14 5G</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="C546" t="inlineStr">
         <is>
-          <t>Meizu 16XS</t>
+          <t>Samsung Galaxy A15</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="C547" t="inlineStr">
         <is>
-          <t>Meizu M10</t>
+          <t>Samsung Galaxy A20</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="C548" t="inlineStr">
         <is>
-          <t>Meizu M3 Note</t>
+          <t>Samsung Galaxy A20e</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="C549" t="inlineStr">
         <is>
-          <t>Meizu M5S</t>
+          <t>Samsung Galaxy A20S</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="C550" t="inlineStr">
         <is>
-          <t>Meizu M6</t>
+          <t>Samsung Galaxy A21</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="C551" t="inlineStr">
         <is>
-          <t>Meizu M6S</t>
+          <t>Samsung Galaxy A21S</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="C552" t="inlineStr">
         <is>
-          <t>Meizu M6T</t>
+          <t>Samsung Galaxy A22</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="C553" t="inlineStr">
         <is>
-          <t>Meizu MX4</t>
+          <t>Samsung Galaxy A23</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="C554" t="inlineStr">
         <is>
-          <t>Meizu MX4 Pro</t>
+          <t>Samsung Galaxy A24</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="C555" t="inlineStr">
         <is>
-          <t>Meizu MX5</t>
+          <t>Samsung Galaxy A25</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="C556" t="inlineStr">
         <is>
-          <t>Meizu Note 8</t>
+          <t>Samsung Galaxy A2 Core</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="C557" t="inlineStr">
         <is>
-          <t>Meizu Note 9</t>
+          <t>Samsung Galaxy A3</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="C558" t="inlineStr">
         <is>
-          <t>Meizu Pro 6</t>
+          <t>Samsung Galaxy A3 (2016)</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="C559" t="inlineStr">
         <is>
-          <t>Meizu X8</t>
+          <t>Samsung Galaxy A3 (2017)</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="C560" t="inlineStr">
         <is>
-          <t>Mi 10</t>
+          <t>Samsung Galaxy A30</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="C561" t="inlineStr">
         <is>
-          <t>Mi 10 Lite</t>
+          <t>Samsung Galaxy A30S</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="C562" t="inlineStr">
         <is>
-          <t>Mi 10 Pro</t>
+          <t>Samsung Galaxy A31</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="C563" t="inlineStr">
         <is>
-          <t>Mi 10 T</t>
+          <t>Samsung Galaxy A32</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="C564" t="inlineStr">
         <is>
-          <t>Mi 10T Lite</t>
+          <t>Samsung Galaxy A33</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="C565" t="inlineStr">
         <is>
-          <t>Mi 10 T Pro</t>
+          <t>Samsung Galaxy A34</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="C566" t="inlineStr">
         <is>
-          <t>Mi 11i</t>
+          <t>Samsung Galaxy A34 5G</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="C567" t="inlineStr">
         <is>
-          <t>Mi 11T</t>
+          <t>Samsung Galaxy A35</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="C568" t="inlineStr">
         <is>
-          <t>Mi 11T Pro</t>
+          <t>Samsung Galaxy A40</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="C569" t="inlineStr">
         <is>
-          <t>Mi 12</t>
+          <t>Samsung Galaxy A41</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="C570" t="inlineStr">
         <is>
-          <t>Mi 12 Lite</t>
+          <t>Samsung Galaxy A5</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="C571" t="inlineStr">
         <is>
-          <t>Mi 12 Pro</t>
+          <t>Samsung Galaxy A5 (2016)</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="C572" t="inlineStr">
         <is>
-          <t>Mi 12T</t>
+          <t>Samsung Galaxy A5 (2017)</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="C573" t="inlineStr">
         <is>
-          <t>Mi 12T Pro</t>
+          <t>Samsung Galaxy A5 (2018)</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="C574" t="inlineStr">
         <is>
-          <t>Mi 13</t>
+          <t>Samsung Galaxy A50</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="C575" t="inlineStr">
         <is>
-          <t>Mi 13 Lite</t>
+          <t>Samsung Galaxy A50s</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="C576" t="inlineStr">
         <is>
-          <t>Mi 13 Pro</t>
+          <t>Samsung Galaxy A51</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="C577" t="inlineStr">
         <is>
-          <t>Mi 13 Ultra</t>
+          <t>Samsung Galaxy A52</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="C578" t="inlineStr">
         <is>
-          <t>Mi 4S</t>
+          <t>Samsung Galaxy A53</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="C579" t="inlineStr">
         <is>
-          <t>Mi 8 Pro</t>
+          <t>Samsung Galaxy A54</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="C580" t="inlineStr">
         <is>
-          <t>Mi 9T Pro</t>
+          <t>Samsung Galaxy A55</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="C581" t="inlineStr">
         <is>
-          <t>Mi Mix 4</t>
+          <t>Samsung Galaxy A6</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="C582" t="inlineStr">
         <is>
-          <t>Mi Note 10 Lite</t>
+          <t>Samsung Galaxy A6 (2018)</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="C583" t="inlineStr">
         <is>
-          <t>Mi Note 10 Pro</t>
+          <t>Samsung Galaxy A6+ Plus</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="C584" t="inlineStr">
         <is>
-          <t>Nokia 2</t>
+          <t>Samsung Galaxy A60</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="C585" t="inlineStr">
         <is>
-          <t>Nokia 3</t>
+          <t>Samsung Galaxy A6 Plus (2018)</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="C586" t="inlineStr">
         <is>
-          <t>Nokia 5</t>
+          <t>Samsung Galaxy A7</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="C587" t="inlineStr">
         <is>
-          <t>Nokia 5.1</t>
+          <t>Samsung Galaxy A7 (2016)</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="C588" t="inlineStr">
         <is>
-          <t>Nokia 5.1 Plus</t>
+          <t>Samsung Galaxy A7 (2017)</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="C589" t="inlineStr">
         <is>
-          <t>Nokia 6</t>
+          <t>Samsung Galaxy A70</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="C590" t="inlineStr">
         <is>
-          <t>Nokia 6.1</t>
+          <t>Samsung Galaxy A70S</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="C591" t="inlineStr">
         <is>
-          <t>Nokia 7.1</t>
+          <t>Samsung Galaxy A71</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="C592" t="inlineStr">
         <is>
-          <t>Nokia 8</t>
+          <t>Samsung Galaxy A72</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="C593" t="inlineStr">
         <is>
-          <t>Nokia Lumia 535</t>
+          <t>Samsung Galaxy A7 2018</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="C594" t="inlineStr">
         <is>
-          <t>Nokia Lumia 540</t>
+          <t>Samsung Galaxy A73</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="C595" t="inlineStr">
         <is>
-          <t>Nokia Lumia 550</t>
+          <t>Samsung Galaxy A8</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="C596" t="inlineStr">
         <is>
-          <t>Nokia Lumia 650</t>
+          <t>Samsung Galaxy A80</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="C597" t="inlineStr">
         <is>
-          <t>Nokia Lumia 950</t>
+          <t>Samsung Galaxy A81</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="C598" t="inlineStr">
         <is>
-          <t>Nokia Lumia 950 XL</t>
+          <t>Samsung Galaxy A8 2016</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="C599" t="inlineStr">
         <is>
-          <t>Note 10 Pro</t>
+          <t>Samsung Galaxy A8 2018</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="C600" t="inlineStr">
         <is>
-          <t>Nova 10</t>
+          <t>Samsung Galaxy A8 Plus 2018</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="C601" t="inlineStr">
         <is>
-          <t>Nova 10 Pro</t>
+          <t>Samsung Galaxy A8s</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="C602" t="inlineStr">
         <is>
-          <t>Nova 10 SE</t>
+          <t>Samsung Galaxy A91</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="C603" t="inlineStr">
         <is>
-          <t>Nova 8İ</t>
+          <t>Samsung Galaxy A9 2016</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="C604" t="inlineStr">
         <is>
-          <t>Omix X3</t>
+          <t>Samsung Galaxy A9 2018</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="C605" t="inlineStr">
         <is>
-          <t>Omix X300</t>
+          <t>Samsung Galaxy Alpha</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="C606" t="inlineStr">
         <is>
-          <t>Omix X400</t>
+          <t>Samsung Galaxy C5</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="C607" t="inlineStr">
         <is>
-          <t>OmixX5</t>
+          <t>Samsung Galaxy C5 Pro</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="C608" t="inlineStr">
         <is>
-          <t>Omix X500</t>
+          <t>Samsung Galaxy C7</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="C609" t="inlineStr">
         <is>
-          <t>Omix X600</t>
+          <t>Samsung Galaxy C7 Pro</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="C610" t="inlineStr">
         <is>
-          <t>Omix X700</t>
+          <t>Samsung Galaxy C8</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="C611" t="inlineStr">
         <is>
-          <t>One Plus 10 Pro</t>
+          <t>Samsung Galaxy C9 Pro</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="C612" t="inlineStr">
         <is>
-          <t>OnePlus 5</t>
+          <t>Samsung Galaxy Core 2</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="C613" t="inlineStr">
         <is>
-          <t>One Plus 8 Pro</t>
+          <t>Samsung Galaxy Core Prime</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="C614" t="inlineStr">
         <is>
-          <t>One Plus 9</t>
+          <t>Samsung Galaxy E5</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="C615" t="inlineStr">
         <is>
-          <t>One Plus 9 Pro</t>
+          <t>Samsung Galaxy E7</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="C616" t="inlineStr">
         <is>
-          <t>One Plus Nord N10</t>
+          <t>Samsung Galaxy Grand 2</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="C617" t="inlineStr">
         <is>
-          <t>One Plus Nord N100</t>
+          <t>Samsung Galaxy Grand Duos</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="C618" t="inlineStr">
         <is>
-          <t>Oppo A12</t>
+          <t>Samsung Galaxy Grand Max</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="C619" t="inlineStr">
         <is>
-          <t>Oppo A15</t>
+          <t>Samsung Galaxy Grand Neo</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="C620" t="inlineStr">
         <is>
-          <t>Oppo A15S</t>
+          <t>Samsung Galaxy Grand Prime</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="C621" t="inlineStr">
         <is>
-          <t>Oppo A16</t>
+          <t>Samsung Galaxy Grand Prime Plus</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="C622" t="inlineStr">
         <is>
-          <t>Oppo A31</t>
+          <t>Samsung Galaxy Grand Prime Pro</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="C623" t="inlineStr">
         <is>
-          <t>Oppo A36</t>
+          <t>Samsung Galaxy J1</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="C624" t="inlineStr">
         <is>
-          <t>Oppo A52</t>
+          <t>Samsung Galaxy J1 2016</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="C625" t="inlineStr">
         <is>
-          <t>Oppo A5 2020</t>
+          <t>Samsung Galaxy J1 Ace</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="C626" t="inlineStr">
         <is>
-          <t>Oppo A54 4G</t>
+          <t>Samsung Galaxy J1 Mini</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="C627" t="inlineStr">
         <is>
-          <t>Oppo A55 4G</t>
+          <t>Samsung Galaxy J1 Mini Prime</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="C628" t="inlineStr">
         <is>
-          <t>Oppo A55 5G</t>
+          <t>Samsung Galaxy J2</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="C629" t="inlineStr">
         <is>
-          <t>Oppo A5S</t>
+          <t>Samsung Galaxy J2 Core</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="C630" t="inlineStr">
         <is>
-          <t>Oppo A7</t>
+          <t>Samsung Galaxy J2 Prime</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="C631" t="inlineStr">
         <is>
-          <t>Oppo A72</t>
+          <t>Samsung Galaxy J2 Pro 2018</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="C632" t="inlineStr">
         <is>
-          <t>Oppo A73</t>
+          <t>Samsung Galaxy J3 (2016)</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="C633" t="inlineStr">
         <is>
-          <t>Oppo A74 4G</t>
+          <t>Samsung Galaxy J3 Pro</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="C634" t="inlineStr">
         <is>
-          <t>Oppo A76</t>
+          <t>Samsung Galaxy J3 Pro 2016</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="C635" t="inlineStr">
         <is>
-          <t>Oppo A91</t>
+          <t>Samsung Galaxy J4</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="C636" t="inlineStr">
         <is>
-          <t>Oppo A92</t>
+          <t>Samsung Galaxy J4+ Plus</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="C637" t="inlineStr">
         <is>
-          <t>Oppo A9 2020</t>
+          <t>Samsung Galaxy J4 Core</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="C638" t="inlineStr">
         <is>
-          <t>Oppo A96 4G</t>
+          <t>Samsung Galaxy J5</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="C639" t="inlineStr">
         <is>
-          <t>Oppo AX7</t>
+          <t>Samsung Galaxy J5 2016</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="C640" t="inlineStr">
         <is>
-          <t>Oppo F9</t>
+          <t>Samsung Galaxy J5 Primev</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="C641" t="inlineStr">
         <is>
-          <t>Oppo Find X2</t>
+          <t>Samsung Galaxy J5 Pro</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="C642" t="inlineStr">
         <is>
-          <t>Oppo Realme 5 Pro</t>
+          <t>Samsung Galaxy J6</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="C643" t="inlineStr">
         <is>
-          <t>Oppo Realme 6</t>
+          <t>Samsung Galaxy J6+ Plus</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="C644" t="inlineStr">
         <is>
-          <t>Oppo Realme 6 Pro</t>
+          <t>Samsung Galaxy J6 Prime</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="C645" t="inlineStr">
         <is>
-          <t>Oppo Realme C15</t>
+          <t>Samsung Galaxy J7</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="C646" t="inlineStr">
         <is>
-          <t>Oppo Reno</t>
+          <t>Samsung Galaxy J7 2015</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="C647" t="inlineStr">
         <is>
-          <t>Oppo Reno 10x Zoom</t>
+          <t>Samsung Galaxy J7 2016</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="C648" t="inlineStr">
         <is>
-          <t>Oppo Reno 2</t>
+          <t>Samsung Galaxy J7 Core</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="C649" t="inlineStr">
         <is>
-          <t>Oppo Reno 2Z</t>
+          <t>Samsung Galaxy J7 Duo</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="C650" t="inlineStr">
         <is>
-          <t>Oppo Reno 3</t>
+          <t>Samsung Galaxy J7 Max</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="C651" t="inlineStr">
         <is>
-          <t>Oppo Reno 3 Pro</t>
+          <t>Samsung Galaxy J7 Prime</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="C652" t="inlineStr">
         <is>
-          <t>Oppo Reno 3 Pro 5G</t>
+          <t>Samsung Galaxy J7 Prime 2</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="C653" t="inlineStr">
         <is>
-          <t>Oppo Reno 4</t>
+          <t>Samsung Galaxy J7 Pro</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="C654" t="inlineStr">
         <is>
-          <t>Oppo Reno 4 Lite</t>
+          <t>Samsung Galaxy J8</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="C655" t="inlineStr">
         <is>
-          <t>Oppo Reno 4 Pro</t>
+          <t>Samsung Galaxy M10</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="C656" t="inlineStr">
         <is>
-          <t>Oppo Reno 5</t>
+          <t>Samsung Galaxy M10S</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="C657" t="inlineStr">
         <is>
-          <t>Oppo Reno 5 Lite</t>
+          <t>Samsung Galaxy M11</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="C658" t="inlineStr">
         <is>
-          <t>Oppo Reno 5 Pro</t>
+          <t>Samsung Galaxy M12</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="C659" t="inlineStr">
         <is>
-          <t>Oppo Reno 6</t>
+          <t>Samsung Galaxy M13</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="C660" t="inlineStr">
         <is>
-          <t>Oppo Reno 7 4G</t>
+          <t>Samsung Galaxy M14</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="C661" t="inlineStr">
         <is>
-          <t>Oppo Reno Z</t>
+          <t>Samsung Galaxy M20</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="C662" t="inlineStr">
         <is>
-          <t>Oppo RX17 Neo</t>
+          <t>Samsung Galaxy M21</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="C663" t="inlineStr">
         <is>
-          <t>Oppo RX 17 Pro</t>
+          <t>Samsung Galaxy M22</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="C664" t="inlineStr">
         <is>
-          <t>Oppo RX 7 Neo</t>
+          <t>Samsung Galaxy M23</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="C665" t="inlineStr">
         <is>
-          <t>Oukitel C21 Pro</t>
+          <t>Samsung Galaxy M30</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="C666" t="inlineStr">
         <is>
-          <t>P40 Lite 5G</t>
+          <t>Samsung Galaxy M30S</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="C667" t="inlineStr">
         <is>
-          <t>P40 Pro</t>
+          <t>Samsung Galaxy M31</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="C668" t="inlineStr">
         <is>
-          <t>P50 Pocket</t>
+          <t>Samsung Galaxy M31s</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="C669" t="inlineStr">
         <is>
-          <t>P50 Pro</t>
+          <t>Samsung Galaxy M32</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="C670" t="inlineStr">
         <is>
-          <t>POCO C40</t>
+          <t>Samsung Galaxy M33</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="C671" t="inlineStr">
         <is>
-          <t>Poco F2</t>
+          <t>Samsung Galaxy M34 5G</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="C672" t="inlineStr">
         <is>
-          <t>Poco F2 Pro</t>
+          <t>Samsung Galaxy M40</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="C673" t="inlineStr">
         <is>
-          <t>Poco F3</t>
+          <t>Samsung Galaxy M51</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="C674" t="inlineStr">
         <is>
-          <t>Poco F4</t>
+          <t>Samsung Galaxy M52</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="C675" t="inlineStr">
         <is>
-          <t>POCO F5</t>
+          <t>Samsung Galaxy M52 5G</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="C676" t="inlineStr">
         <is>
-          <t>Poco F5 Pro</t>
+          <t>Samsung Galaxy M53</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="C677" t="inlineStr">
         <is>
-          <t>Poco M4 Pro 4G</t>
+          <t>Samsung Galaxy Note 10</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="C678" t="inlineStr">
         <is>
-          <t>Poco M5</t>
+          <t>Samsung Galaxy Note 10 Lite</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="C679" t="inlineStr">
         <is>
-          <t>Poco X2</t>
+          <t>Samsung Galaxy Note 10 Plus</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="C680" t="inlineStr">
         <is>
-          <t>Poco X3 NFC</t>
+          <t>Samsung Galaxy Note 2</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="C681" t="inlineStr">
         <is>
-          <t>Poco X3 Pro</t>
+          <t>Samsung Galaxy Note 20</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="C682" t="inlineStr">
         <is>
-          <t>Poco X4 GT</t>
+          <t>Samsung Galaxy Note 20 Ultra</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="C683" t="inlineStr">
         <is>
-          <t>Poco X4 Pro 5G</t>
+          <t>Samsung Galaxy Note 3</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="C684" t="inlineStr">
         <is>
-          <t>Poco X5 5G</t>
+          <t>Samsung Galaxy Note 4</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="C685" t="inlineStr">
         <is>
-          <t>Poco X5 Pro 5G</t>
+          <t>Samsung Galaxy Note 5</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="C686" t="inlineStr">
         <is>
-          <t>P Smart 2018</t>
+          <t>Samsung Galaxy Note 8</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="C687" t="inlineStr">
         <is>
-          <t>P Smart Pro 2019</t>
+          <t>Samsung Galaxy Note 9</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="C688" t="inlineStr">
         <is>
-          <t>Realme 10 4G</t>
+          <t>Samsung Galaxy Note FE</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="C689" t="inlineStr">
         <is>
-          <t>Realme 11 Pro</t>
+          <t>Samsung Galaxy ON5</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="C690" t="inlineStr">
         <is>
-          <t>Realme 5</t>
+          <t>Samsung Galaxy ON7</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="C691" t="inlineStr">
         <is>
-          <t>Realme 5i</t>
+          <t>Samsung Galaxy S10</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="C692" t="inlineStr">
         <is>
-          <t>Realme 5 Pro</t>
+          <t>Samsung Galaxy S10e</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="C693" t="inlineStr">
         <is>
-          <t>Realme 6</t>
+          <t>Samsung Galaxy S10 Lite</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="C694" t="inlineStr">
         <is>
-          <t>Realme 6i</t>
+          <t>Samsung Galaxy S10 Plus</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="C695" t="inlineStr">
         <is>
-          <t>Realme 6 Pro</t>
+          <t>Samsung Galaxy S20</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="C696" t="inlineStr">
         <is>
-          <t>Realme 7</t>
+          <t>Samsung Galaxy S20 FE</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="C697" t="inlineStr">
         <is>
-          <t>Realme 7 Pro</t>
+          <t>Samsung Galaxy S20 Plus</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="C698" t="inlineStr">
         <is>
-          <t>Realme 8</t>
+          <t>Samsung Galaxy S20 Ultra</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="C699" t="inlineStr">
         <is>
-          <t>Realme 8 Pro</t>
+          <t>Samsung Galaxy S21</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="C700" t="inlineStr">
         <is>
-          <t>Realme C11</t>
+          <t>Samsung Galaxy S21 FE</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="C701" t="inlineStr">
         <is>
-          <t>Realme C11 2021</t>
+          <t>Samsung Galaxy S21 Plus</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="C702" t="inlineStr">
         <is>
-          <t>Realme C15</t>
+          <t>Samsung Galaxy S21 Ultra</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="C703" t="inlineStr">
         <is>
-          <t>Realme C2</t>
+          <t>Samsung Galaxy S22</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="C704" t="inlineStr">
         <is>
-          <t>Realme C20</t>
+          <t>Samsung Galaxy S22 Plus</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="C705" t="inlineStr">
         <is>
-          <t>Realme C21</t>
+          <t>Samsung Galaxy S22 Ultra</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="C706" t="inlineStr">
         <is>
-          <t>Realme C21Y</t>
+          <t>Samsung Galaxy S23</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="C707" t="inlineStr">
         <is>
-          <t>Realme C25</t>
+          <t>Samsung Galaxy S23 Fe</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="C708" t="inlineStr">
         <is>
-          <t>Realme C25S</t>
+          <t>Samsung Galaxy S23 Plus</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="C709" t="inlineStr">
         <is>
-          <t>Realme C3</t>
+          <t>Samsung Galaxy S23 Ultra</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="C710" t="inlineStr">
         <is>
-          <t>Realme C31</t>
+          <t>Samsung Galaxy S24</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="C711" t="inlineStr">
         <is>
-          <t>Realme C35</t>
+          <t>Samsung Galaxy S24 Plus</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="C712" t="inlineStr">
         <is>
-          <t>Realme C3i</t>
+          <t>Samsung Galaxy S24 Ultra</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="C713" t="inlineStr">
         <is>
-          <t>Realme C53</t>
+          <t>Samsung Galaxy S3</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="C714" t="inlineStr">
         <is>
-          <t>Realme C55</t>
+          <t>Samsung Galaxy S3 Mini</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="C715" t="inlineStr">
         <is>
-          <t>Realme XT</t>
+          <t>Samsung Galaxy S4</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="C716" t="inlineStr">
         <is>
-          <t>Redmi 10A</t>
+          <t>Samsung Galaxy S4 Mini</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="C717" t="inlineStr">
         <is>
-          <t>Redmi 10C</t>
+          <t>Samsung Galaxy S5</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="C718" t="inlineStr">
         <is>
-          <t>Redmi 12</t>
+          <t>Samsung Galaxy S5 Mini</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="C719" t="inlineStr">
         <is>
-          <t>Redmi 12C</t>
+          <t>Samsung Galaxy S6</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="C720" t="inlineStr">
         <is>
-          <t>Redmi 12T</t>
+          <t>Samsung Galaxy S6 Edge</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="C721" t="inlineStr">
         <is>
-          <t>Redmi 12T Pro</t>
+          <t>Samsung Galaxy S6 Edge Plus</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="C722" t="inlineStr">
         <is>
-          <t>Redmi 13C</t>
+          <t>Samsung Galaxy S7</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="C723" t="inlineStr">
         <is>
-          <t>Redmi 4</t>
+          <t>Samsung Galaxy S7 Edge</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="C724" t="inlineStr">
         <is>
-          <t>Redmi 6A</t>
+          <t>Samsung Galaxy S8</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="C725" t="inlineStr">
         <is>
-          <t>Redmi 8</t>
+          <t>Samsung Galaxy S8 Plus</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="C726" t="inlineStr">
         <is>
-          <t>Redmi A1</t>
+          <t>Samsung Galaxy S9</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="C727" t="inlineStr">
         <is>
-          <t>Redmi K40 Pro</t>
+          <t>Samsung Galaxy S9 Plus</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="C728" t="inlineStr">
         <is>
-          <t>Redmi Note 10</t>
+          <t>Samsung Galaxy Z Flip</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="C729" t="inlineStr">
         <is>
-          <t>Redmi Note 10 5G</t>
+          <t>Samsung Galaxy Z Flip 3 5G</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="C730" t="inlineStr">
         <is>
-          <t>Redmi Note 10 Pro</t>
+          <t>Samsung Galaxy Z Flip 4</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="C731" t="inlineStr">
         <is>
-          <t>Redmi Note 10 Pro 5G</t>
+          <t>Samsung Galaxy Z Flip 5</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="C732" t="inlineStr">
         <is>
-          <t>Redmi Note 11</t>
+          <t>Samsung Galaxy Z Fold 2</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="C733" t="inlineStr">
         <is>
-          <t>Redmi Note 11E</t>
+          <t>Samsung Galaxy Z Fold 3</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="C734" t="inlineStr">
         <is>
-          <t>Redmi Note 11 Pro Plus 5G</t>
+          <t>Samsung Galaxy Z Fold 4</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="C735" t="inlineStr">
         <is>
-          <t>Redmi Note 11SE</t>
+          <t>Samsung Galaxy Z Fold 5</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="C736" t="inlineStr">
         <is>
-          <t>Redmi Note 11T 5G</t>
+          <t>Sony Xperia C3</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="C737" t="inlineStr">
         <is>
-          <t>Redmi Note 12 4G</t>
+          <t>Sony Xperia C4</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="C738" t="inlineStr">
         <is>
-          <t>Redmi Note 12 Pro</t>
+          <t>Sony Xperia C5 Ultra</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="C739" t="inlineStr">
         <is>
-          <t>Redmi Note 12 Pro 5G</t>
+          <t>Sony Xperia E4</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="C740" t="inlineStr">
         <is>
-          <t>Redmi Note 12 Pro Plus</t>
+          <t>Sony Xperia E4g</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="C741" t="inlineStr">
         <is>
-          <t>Redmi Note 12S</t>
+          <t>Sony Xperia E5</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="C742" t="inlineStr">
         <is>
-          <t>Redmi Note 13 Pro 4G</t>
+          <t>Sony Xperia L1</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="C743" t="inlineStr">
         <is>
-          <t>Redmi Note 13 Pro 5G</t>
+          <t>Sony Xperia L2</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="C744" t="inlineStr">
         <is>
-          <t>Redmi Note 6A</t>
+          <t>Sony Xperia M2</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="C745" t="inlineStr">
         <is>
-          <t>Redmi Note 7 Pro</t>
+          <t>Sony Xperia M4 Aqua</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="C746" t="inlineStr">
         <is>
-          <t>Redmi Note 8</t>
+          <t>Sony Xperia M5</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="C747" t="inlineStr">
         <is>
-          <t>Redmi Note 8 Pro</t>
+          <t>Sony Xperia T2 Ultra</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="C748" t="inlineStr">
         <is>
-          <t>Redmi Note 8S</t>
+          <t>Sony Xperia T3</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="C749" t="inlineStr">
         <is>
-          <t>Redmi Note 8T</t>
+          <t>Sony Xperia X</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="C750" t="inlineStr">
         <is>
-          <t>Redmi Note 9</t>
+          <t>Sony Xperia XA</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="C751" t="inlineStr">
         <is>
-          <t>Redmi Note 9 Pro</t>
+          <t>Sony Xperia Xa1</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="C752" t="inlineStr">
         <is>
-          <t>Redmi Note 9S</t>
+          <t>Sony Xperia XA1 Plus</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="C753" t="inlineStr">
         <is>
-          <t>Reeder P13 Blue</t>
+          <t>Sony Xperia XA1 Ultra</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="C754" t="inlineStr">
         <is>
-          <t>Reeder P13 Blue 2021</t>
+          <t>Sony Xperia XA2</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="C755" t="inlineStr">
         <is>
-          <t>Reeder P13 Blue 2022</t>
+          <t>Sony Xperia XA2 Ultra</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="C756" t="inlineStr">
         <is>
-          <t>Reeder P13 Blue Max</t>
+          <t>Sony Xperia XA Ultra</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="C757" t="inlineStr">
         <is>
-          <t>Reeder P13 Blue Max 128GB</t>
+          <t>Sony Xperia X Compact</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="C758" t="inlineStr">
         <is>
-          <t>Reeder P13 Blue Max 2020</t>
+          <t>Sony Xperia Xz</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="C759" t="inlineStr">
         <is>
-          <t>Reeder P13 Blue Max 2022</t>
+          <t>Sony Xperia Xz1</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="C760" t="inlineStr">
         <is>
-          <t>Reeder P13 Blue Max L 2022</t>
+          <t>Sony Xperia Xz Premium</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="C761" t="inlineStr">
         <is>
-          <t>Reeder P13 Blue Max Lite</t>
+          <t>Sony Xperia Z</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="C762" t="inlineStr">
         <is>
-          <t>Reeder P13 Blue Max Pro</t>
+          <t>Sony Xperia Z1</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="C763" t="inlineStr">
         <is>
-          <t>Reeder P13 Blue Max Pro Lite</t>
+          <t>Sony Xperia Z2</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="C764" t="inlineStr">
         <is>
-          <t>Reeder P13 Blue Max Pro Lite 2022</t>
+          <t>Sony Xperia Z3</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="C765" t="inlineStr">
         <is>
-          <t>Reeder P13 Blue Plus</t>
+          <t>Sony Xperia Z3 Compact</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="C766" t="inlineStr">
         <is>
-          <t>Reeder P13 Blue Plus 2022</t>
+          <t>Sony Xperia Z3 Plus</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="C767" t="inlineStr">
         <is>
-          <t>Reeder s19 Max 19</t>
+          <t>Sony Xperia Z4</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="C768" t="inlineStr">
         <is>
-          <t>Reeder S19 Max Pro</t>
+          <t>Sony Xperia Z5</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="C769" t="inlineStr">
         <is>
-          <t>Reeder S19 Max Pro S</t>
+          <t>Sony Xperia Z5 Compact</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="C770" t="inlineStr">
         <is>
-          <t>Reeder S23 Pro Max</t>
+          <t>Sony Xperia Z5 Premium</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="C771" t="inlineStr">
         <is>
-          <t>Reno 10X Zoom</t>
+          <t>TCL 10L</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="C772" t="inlineStr">
         <is>
-          <t>Reno 3 Pro</t>
+          <t>TCL 10 Plus</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="C773" t="inlineStr">
         <is>
-          <t>Samsung A52S 5G</t>
+          <t>TCL 20E</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="C774" t="inlineStr">
         <is>
-          <t>Samsung Galax M13</t>
+          <t>TCL 20 SE</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="C775" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A01 Core</t>
+          <t>TCL 303</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="C776" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A03 S</t>
+          <t>TCL 30 Plus</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="C777" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A10</t>
+          <t>TCL 30 SE</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="C778" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A10s</t>
+          <t>TCL L30</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="C779" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A12</t>
+          <t>TCL L7</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="C780" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A13 4G</t>
+          <t>Tecno Camon 18</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="C781" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A20</t>
+          <t>Tecno Camon 18P</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="C782" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A22</t>
+          <t>Tecno Camon 19</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="C783" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A23</t>
+          <t>Tecno Camon 19 Neo</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="C784" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A30</t>
+          <t>Tecno Camon 19 Pro</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="C785" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A32</t>
+          <t>Tecno Camon 20</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="C786" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A52</t>
+          <t>Tecno Camon 20 Premier 5G</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="C787" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A70</t>
+          <t>Tecno Camon 20 Pro 4G</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="C788" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A72</t>
+          <t>Tecno Camon 20 Pro 5G</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="C789" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A73</t>
+          <t>Tecno Pova</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="C790" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M22</t>
+          <t>Tecno Pova 3</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="C791" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M23</t>
+          <t>Tecno Pova 4</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="C792" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M32</t>
+          <t>Tecno Pova 4 Pro</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="C793" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M33</t>
+          <t>Tecno Pova 5</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="C794" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M52</t>
+          <t>Tecno Pova Neo</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="C795" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M52 5G</t>
+          <t>Tecno Pova Neo 2</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="C796" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M53</t>
+          <t>Tecno Spark 10 4G</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="C797" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 3 5G</t>
+          <t>Tecno Spark 10C</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="C798" t="inlineStr">
         <is>
-          <t>Sony Xperia C3</t>
+          <t>Tecno Spark 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="C799" t="inlineStr">
         <is>
-          <t>Sony Xperia C4</t>
+          <t>Tecno Spark 18 Premier</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="C800" t="inlineStr">
         <is>
-          <t>Sony Xperia C5 Ultra</t>
+          <t>Tecno Spark 6 Go</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="C801" t="inlineStr">
         <is>
-          <t>Sony Xperia E4</t>
+          <t>Tecno Spark 7 / 7T</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="C802" t="inlineStr">
         <is>
-          <t>Sony Xperia E4g</t>
+          <t>Tecno Spark 7 Pro</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="C803" t="inlineStr">
         <is>
-          <t>Sony Xperia E5</t>
+          <t>Tecno Spark 7T</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="C804" t="inlineStr">
         <is>
-          <t>Sony Xperia L1</t>
+          <t>Tecno Spark 8C</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="C805" t="inlineStr">
         <is>
-          <t>Sony Xperia L2</t>
+          <t>Tecno Spark 8 Pro</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="C806" t="inlineStr">
         <is>
-          <t>Sony Xperia M2</t>
+          <t>Tecno Spark 8T</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="C807" t="inlineStr">
         <is>
-          <t>Sony Xperia M4 Aqua</t>
+          <t>Tecno Spark 9 Pro</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="C808" t="inlineStr">
         <is>
-          <t>Sony Xperia M5</t>
+          <t>Tecno Spark 9T</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="C809" t="inlineStr">
         <is>
-          <t>Sony Xperia T2 Ultra</t>
+          <t>Tecno Spark Go 2023</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="C810" t="inlineStr">
         <is>
-          <t>Sony Xperia T3</t>
+          <t>Turkcell T60</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="C811" t="inlineStr">
         <is>
-          <t>Sony Xperia X</t>
+          <t>Turkcell T70</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="C812" t="inlineStr">
         <is>
-          <t>Sony Xperia XA</t>
+          <t>Turkcell T80</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="C813" t="inlineStr">
         <is>
-          <t>Sony Xperia Xa1</t>
+          <t>Türk Telekom TT175</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="C814" t="inlineStr">
         <is>
-          <t>Sony Xperia XA1 Plus</t>
+          <t>Vestel Venüs 5000</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="C815" t="inlineStr">
         <is>
-          <t>Sony Xperia XA1 Ultra</t>
+          <t>Vestel Venüs 5530</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="C816" t="inlineStr">
         <is>
-          <t>Sony Xperia XA2</t>
+          <t>Vestel Venüs E2 Plus</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="C817" t="inlineStr">
         <is>
-          <t>Sony Xperia XA2 Ultra</t>
+          <t>Vestel Venüs E3</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="C818" t="inlineStr">
         <is>
-          <t>Sony Xperia XA Ultra</t>
+          <t>Vestel Venüs E4</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="C819" t="inlineStr">
         <is>
-          <t>Sony Xperia X Compact</t>
+          <t>Vestel Venüs GO</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="C820" t="inlineStr">
         <is>
-          <t>Sony Xperia Xz</t>
+          <t>Vestel Venüs V3 5010</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="C821" t="inlineStr">
         <is>
-          <t>Sony Xperia Xz1</t>
+          <t>Vestel Venüs V3 5020</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="C822" t="inlineStr">
         <is>
-          <t>Sony Xperia Xz Premium</t>
+          <t>Vestel Venüs V3 5040</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="C823" t="inlineStr">
         <is>
-          <t>Sony Xperia Z</t>
+          <t>Vestel Venüs V3 5070</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="C824" t="inlineStr">
         <is>
-          <t>Sony Xperia Z1</t>
+          <t>Vestel Venüs V3 5570</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="C825" t="inlineStr">
         <is>
-          <t>Sony Xperia Z2</t>
+          <t>Vestel Venüs V3 5580</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="C826" t="inlineStr">
         <is>
-          <t>Sony Xperia Z3</t>
+          <t>Vestel Venüs V4</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="C827" t="inlineStr">
         <is>
-          <t>Sony Xperia Z3 Compact</t>
+          <t>Vestel Venüs V5</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="C828" t="inlineStr">
         <is>
-          <t>Sony Xperia Z3 Plus</t>
+          <t>Vestel Venüs V6</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="C829" t="inlineStr">
         <is>
-          <t>Sony Xperia Z4</t>
+          <t>Vestel Venüs V7</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="C830" t="inlineStr">
         <is>
-          <t>Sony Xperia Z5</t>
+          <t>Vestel Venüs Z10</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="C831" t="inlineStr">
         <is>
-          <t>Sony Xperia Z5 Compact</t>
+          <t>Vestel Venüs Z20</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="C832" t="inlineStr">
         <is>
-          <t>Sony Xperia Z5 Premium</t>
+          <t>Vestel Venüs Z30</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="C833" t="inlineStr">
         <is>
-          <t>TCL 10L</t>
+          <t>Vivo V23 5G</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="C834" t="inlineStr">
         <is>
-          <t>TCL 10 Plus</t>
+          <t>Vivo V25</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="C835" t="inlineStr">
         <is>
-          <t>TCL 20E</t>
+          <t>Vivo V29 5G</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="C836" t="inlineStr">
         <is>
-          <t>TCL 20 SE</t>
+          <t>Vivo V29 Lite 5G</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="C837" t="inlineStr">
         <is>
-          <t>TCL 303</t>
+          <t>Vivo Y11S</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="C838" t="inlineStr">
         <is>
-          <t>TCL 30 Plus</t>
+          <t>Vivo Y15S</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="C839" t="inlineStr">
         <is>
-          <t>TCL 30 SE</t>
+          <t>Vivo Y16</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="C840" t="inlineStr">
         <is>
-          <t>TCL L30</t>
+          <t>Vivo Y17S</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="C841" t="inlineStr">
         <is>
-          <t>TCL L7</t>
+          <t>Vivo Y20</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="C842" t="inlineStr">
         <is>
-          <t>Tecno Camon 18</t>
+          <t>Vivo Y20S</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="C843" t="inlineStr">
         <is>
-          <t>Tecno Camon 18P</t>
+          <t>Vivo Y21S</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="C844" t="inlineStr">
         <is>
-          <t>Tecno Camon 19</t>
+          <t>Vivo Y22</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="C845" t="inlineStr">
         <is>
-          <t>Tecno Camon 19 Neo</t>
+          <t>Vivo Y22s</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="C846" t="inlineStr">
         <is>
-          <t>Tecno Camon 19 Pro</t>
+          <t>Vivo Y27</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="C847" t="inlineStr">
         <is>
-          <t>Tecno Camon 20</t>
+          <t>Vivo Y32</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="C848" t="inlineStr">
         <is>
-          <t>Tecno Camon 20 Premier 5G</t>
+          <t>Vivo Y33S</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="C849" t="inlineStr">
         <is>
-          <t>Tecno Camon 20 Pro 4G</t>
+          <t>Vivo Y35</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="C850" t="inlineStr">
         <is>
-          <t>Tecno Camon 20 Pro 5G</t>
+          <t>Vivo Y36 4G</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="C851" t="inlineStr">
         <is>
-          <t>Tecno Pova</t>
+          <t>Vivo Y51</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="C852" t="inlineStr">
         <is>
-          <t>Tecno Pova 3</t>
+          <t>Vivo Y53S</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="C853" t="inlineStr">
         <is>
-          <t>Tecno Pova 4</t>
+          <t>Vivo Y70</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="C854" t="inlineStr">
         <is>
-          <t>Tecno Pova 4 Pro</t>
+          <t>Voadfone Smart 7</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="C855" t="inlineStr">
         <is>
-          <t>Tecno Pova 5</t>
+          <t>Vodafone Smart 6</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="C856" t="inlineStr">
         <is>
-          <t>Tecno Pova Neo</t>
+          <t>Vodafone Smart Style 7</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="C857" t="inlineStr">
         <is>
-          <t>Tecno Pova Neo 2</t>
+          <t>Xiaomi 13</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="C858" t="inlineStr">
         <is>
-          <t>Tecno Spark 10 4G</t>
+          <t>Xiaomi Mi 10</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="C859" t="inlineStr">
         <is>
-          <t>Tecno Spark 10C</t>
+          <t>Xiaomi Mi 10 Lite</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="C860" t="inlineStr">
         <is>
-          <t>Tecno Spark 10 Pro</t>
+          <t>Xiaomi Mi 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="C861" t="inlineStr">
         <is>
-          <t>Tecno Spark 18 Premier</t>
+          <t>Xiaomi Mi 10 T</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="C862" t="inlineStr">
         <is>
-          <t>Tecno Spark 6 Go</t>
+          <t>Xiaomi Mi 10T Lite</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="C863" t="inlineStr">
         <is>
-          <t>Tecno Spark 7 / 7T</t>
+          <t>Xiaomi Mi 10 T Pro</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="C864" t="inlineStr">
         <is>
-          <t>Tecno Spark 7 Pro</t>
+          <t>Xiaomi Mi 11</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="C865" t="inlineStr">
         <is>
-          <t>Tecno Spark 7T</t>
+          <t>Xiaomi Mi 11i</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="C866" t="inlineStr">
         <is>
-          <t>Tecno Spark 8C</t>
+          <t>Xiaomi Mi 11 Lite</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="C867" t="inlineStr">
         <is>
-          <t>Tecno Spark 8 Pro</t>
+          <t>Xiaomi Mi 11 Pro</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="C868" t="inlineStr">
         <is>
-          <t>Tecno Spark 8T</t>
+          <t>Xiaomi Mi 11T</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="C869" t="inlineStr">
         <is>
-          <t>Tecno Spark 9 Pro</t>
+          <t>Xiaomi Mi 11T Pro</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="C870" t="inlineStr">
         <is>
-          <t>Tecno Spark 9T</t>
+          <t>Xiaomi Mi 11 Ultra</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="C871" t="inlineStr">
         <is>
-          <t>Tecno Spark Go 2023</t>
+          <t>Xiaomi Mi 12</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="C872" t="inlineStr">
         <is>
-          <t>Turkcell T60</t>
+          <t>Xiaomi Mi 12 Pro</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="C873" t="inlineStr">
         <is>
-          <t>Turkcell T70</t>
+          <t>Xiaomi Mi 12T</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="C874" t="inlineStr">
         <is>
-          <t>Turkcell T80</t>
+          <t>Xiaomi Mi 12T Pro</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="C875" t="inlineStr">
         <is>
-          <t>Türk Telekom TT175</t>
+          <t>Xiaomi Mi 13</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="C876" t="inlineStr">
         <is>
-          <t>Vestel Venüs 5000</t>
+          <t>Xiaomi Mi 13 Lite</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="C877" t="inlineStr">
         <is>
-          <t>Vestel Venüs 5530</t>
+          <t>Xiaomi Mi 13 Pro</t>
         </is>
       </c>
     </row>
     <row r="878">
       <c r="C878" t="inlineStr">
         <is>
-          <t>Vestel Venüs E2 Plus</t>
+          <t>Xiaomi Mi 13T</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="C879" t="inlineStr">
         <is>
-          <t>Vestel Venüs E3</t>
+          <t>Xiaomi Mi 13T Pro</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="C880" t="inlineStr">
         <is>
-          <t>Vestel Venüs E4</t>
+          <t>Xiaomi Mi 13 Ultra</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="C881" t="inlineStr">
         <is>
-          <t>Vestel Venüs GO</t>
+          <t>Xiaomi Mi 4</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="C882" t="inlineStr">
         <is>
-          <t>Vestel Venüs V3 5010</t>
+          <t>Xiaomi Mi 4C</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="C883" t="inlineStr">
         <is>
-          <t>Vestel Venüs V3 5020</t>
+          <t>Xiaomi Mi 4S</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="C884" t="inlineStr">
         <is>
-          <t>Vestel Venüs V3 5040</t>
+          <t>Xiaomi Mi 5</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="C885" t="inlineStr">
         <is>
-          <t>Vestel Venüs V3 5070</t>
+          <t>Xiaomi Mi 5S</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="C886" t="inlineStr">
         <is>
-          <t>Vestel Venüs V3 5570</t>
+          <t>Xiaomi Mi 5S Plus</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="C887" t="inlineStr">
         <is>
-          <t>Vestel Venüs V3 5580</t>
+          <t>Xiaomi Mi 6</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="C888" t="inlineStr">
         <is>
-          <t>Vestel Venüs V4</t>
+          <t>Xiaomi Mi 6X</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="C889" t="inlineStr">
         <is>
-          <t>Vestel Venüs V5</t>
+          <t>Xiaomi Mi 8</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="C890" t="inlineStr">
         <is>
-          <t>Vestel Venüs V6</t>
+          <t>Xiaomi Mi 8 Lite</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="C891" t="inlineStr">
         <is>
-          <t>Vestel Venüs V7</t>
+          <t>Xiaomi Mi 8 Pro</t>
         </is>
       </c>
     </row>
     <row r="892">
       <c r="C892" t="inlineStr">
         <is>
-          <t>Vestel Venüs Z10</t>
+          <t>Xiaomi Mi 8 SE</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="C893" t="inlineStr">
         <is>
-          <t>Vestel Venüs Z20</t>
+          <t>Xiaomi Mi 9</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="C894" t="inlineStr">
         <is>
-          <t>Vestel Venüs Z30</t>
+          <t>Xiaomi Mi 9 Lite</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="C895" t="inlineStr">
         <is>
-          <t>Vivo V25</t>
+          <t>Xiaomi Mi 9 SE</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="C896" t="inlineStr">
         <is>
-          <t>Vivo V29 5G</t>
+          <t>Xiaomi Mi 9T</t>
         </is>
       </c>
     </row>
     <row r="897">
       <c r="C897" t="inlineStr">
         <is>
-          <t>Vivo V29 Lite 5G</t>
+          <t>Xiaomi Mi 9T Pro</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="C898" t="inlineStr">
         <is>
-          <t>Vivo Y11S</t>
+          <t>Xiaomi Mi A1</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="C899" t="inlineStr">
         <is>
-          <t>Vivo Y15S</t>
+          <t>Xiaomi Mi A2 (Mi 6X)</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="C900" t="inlineStr">
         <is>
-          <t>Vivo Y16</t>
+          <t>Xiaomi Mi A2 Lite</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="C901" t="inlineStr">
         <is>
-          <t>Vivo Y17S</t>
+          <t>Xiaomi Mi A3</t>
         </is>
       </c>
     </row>
     <row r="902">
       <c r="C902" t="inlineStr">
         <is>
-          <t>Vivo Y20</t>
+          <t>Xiaomi Mi Max</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="C903" t="inlineStr">
         <is>
-          <t>Vivo Y20S</t>
+          <t>Xiaomi Mi Max 2</t>
         </is>
       </c>
     </row>
     <row r="904">
       <c r="C904" t="inlineStr">
         <is>
-          <t>Vivo Y21S</t>
+          <t>Xiaomi Mi Max 3</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="C905" t="inlineStr">
         <is>
-          <t>Vivo Y22</t>
+          <t>Xiaomi Mi Mix</t>
         </is>
       </c>
     </row>
     <row r="906">
       <c r="C906" t="inlineStr">
         <is>
-          <t>Vivo Y22s</t>
+          <t>Xiaomi Mi Mix 2</t>
         </is>
       </c>
     </row>
     <row r="907">
       <c r="C907" t="inlineStr">
         <is>
-          <t>Vivo Y27</t>
+          <t>Xiaomi Mi Mix 2S</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="C908" t="inlineStr">
         <is>
-          <t>Vivo Y32</t>
+          <t>Xiaomi Mi Mix 3</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="C909" t="inlineStr">
         <is>
-          <t>Vivo Y33S</t>
+          <t>Xiaomi Mi Mix 4</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="C910" t="inlineStr">
         <is>
-          <t>Vivo Y35</t>
+          <t>Xiaomi Mi Note 10</t>
         </is>
       </c>
     </row>
     <row r="911">
       <c r="C911" t="inlineStr">
         <is>
-          <t>Vivo Y36 4G</t>
+          <t>Xiaomi Mi Note 10 Lite</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="C912" t="inlineStr">
         <is>
-          <t>Vivo Y51</t>
+          <t>Xiaomi Mi Note 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="913">
       <c r="C913" t="inlineStr">
         <is>
-          <t>Vivo Y53S</t>
+          <t>Xiaomi Mi Note 2</t>
         </is>
       </c>
     </row>
     <row r="914">
       <c r="C914" t="inlineStr">
         <is>
-          <t>Vivo Y70</t>
+          <t>Xiaomi Mi Note 3</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="C915" t="inlineStr">
         <is>
-          <t>Voadfone Smart 7</t>
+          <t>Xiaomi Mi Play</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="C916" t="inlineStr">
         <is>
-          <t>Vodafone Smart 6</t>
+          <t>Xiaomi Note 8</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="C917" t="inlineStr">
         <is>
-          <t>Vodafone Smart Style 7</t>
+          <t>Xiaomi Note 8 Pro</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="C918" t="inlineStr">
         <is>
-          <t>X700</t>
+          <t>Xiaomi Note 8T</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="C919" t="inlineStr">
         <is>
-          <t>Xiaomi 13</t>
+          <t>Xiaomi Redmi 10 2022</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="C920" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 11</t>
+          <t>Xiaomi Redmi 10A</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="C921" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 11 Lite</t>
+          <t>Xiaomi Redmi 10C</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="C922" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 11 Pro</t>
+          <t>Xiaomi Redmi 12</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="C923" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 11 Ultra</t>
+          <t>Xiaomi Redmi 12C</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="C924" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 13T</t>
+          <t>Xiaomi Redmi 12T</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="C925" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 13T Pro</t>
+          <t>Xiaomi Redmi 12T Pro</t>
         </is>
       </c>
     </row>
     <row r="926">
       <c r="C926" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 4</t>
+          <t>Xiaomi Redmi 13C</t>
         </is>
       </c>
     </row>
     <row r="927">
       <c r="C927" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 4C</t>
+          <t>Xiaomi Redmi 3 Pro</t>
         </is>
       </c>
     </row>
     <row r="928">
       <c r="C928" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 5</t>
+          <t>Xiaomi Redmi 3S</t>
         </is>
       </c>
     </row>
     <row r="929">
       <c r="C929" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 5S</t>
+          <t>Xiaomi Redmi 4</t>
         </is>
       </c>
     </row>
     <row r="930">
       <c r="C930" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 5S Plus</t>
+          <t>Xiaomi Redmi 4A</t>
         </is>
       </c>
     </row>
     <row r="931">
       <c r="C931" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 6</t>
+          <t>Xiaomi Redmi 4X</t>
         </is>
       </c>
     </row>
     <row r="932">
       <c r="C932" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 6X</t>
+          <t>Xiaomi Redmi 5</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="C933" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 8</t>
+          <t>Xiaomi Redmi 5+ Plus</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="C934" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 8 Lite</t>
+          <t>Xiaomi Redmi 5A</t>
         </is>
       </c>
     </row>
     <row r="935">
       <c r="C935" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 8 SE</t>
+          <t>Xiaomi Redmi 6</t>
         </is>
       </c>
     </row>
     <row r="936">
       <c r="C936" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 9</t>
+          <t>Xiaomi Redmi 6A</t>
         </is>
       </c>
     </row>
     <row r="937">
       <c r="C937" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 9 Lite</t>
+          <t>Xiaomi Redmi 6 Pro</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="C938" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 9 SE</t>
+          <t>Xiaomi Redmi 7</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="C939" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 9T</t>
+          <t>Xiaomi Redmi 7A</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="C940" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 9T Pro</t>
+          <t>Xiaomi Redmi 8</t>
         </is>
       </c>
     </row>
     <row r="941">
       <c r="C941" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A1</t>
+          <t>Xiaomi Redmi 8A</t>
         </is>
       </c>
     </row>
     <row r="942">
       <c r="C942" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A2 (Mi 6X)</t>
+          <t>Xiaomi Redmi 9</t>
         </is>
       </c>
     </row>
     <row r="943">
       <c r="C943" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A2 Lite</t>
+          <t>Xiaomi Redmi 9A</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="C944" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A3</t>
+          <t>Xiaomi Redmi 9c</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="C945" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Max</t>
+          <t>Xiaomi Redmi 9T</t>
         </is>
       </c>
     </row>
     <row r="946">
       <c r="C946" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Max 2</t>
+          <t>Xiaomi Redmi A1</t>
         </is>
       </c>
     </row>
     <row r="947">
       <c r="C947" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Max 3</t>
+          <t>Xiaomi Redmi Go</t>
         </is>
       </c>
     </row>
     <row r="948">
       <c r="C948" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Mix</t>
+          <t>Xiaomi Redmi K20</t>
         </is>
       </c>
     </row>
     <row r="949">
       <c r="C949" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Mix 2</t>
+          <t>Xiaomi Redmi K30</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="C950" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Mix 2S</t>
+          <t>Xiaomi Redmi K30 Pro</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="C951" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Mix 3</t>
+          <t>Xiaomi Redmi K40</t>
         </is>
       </c>
     </row>
     <row r="952">
       <c r="C952" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Note 10</t>
+          <t>Xiaomi Redmi K40 Pro</t>
         </is>
       </c>
     </row>
     <row r="953">
       <c r="C953" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Note 10 Lite</t>
+          <t>Xiaomi Redmi Note 10</t>
         </is>
       </c>
     </row>
     <row r="954">
       <c r="C954" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Note 2</t>
+          <t>Xiaomi Redmi Note 10 4G</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="C955" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Note 3</t>
+          <t>Xiaomi Redmi Note 10 5G</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="C956" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Play</t>
+          <t>Xiaomi Redmi Note 10 Lite</t>
         </is>
       </c>
     </row>
     <row r="957">
       <c r="C957" t="inlineStr">
         <is>
-          <t>Xiaomi Note 8</t>
+          <t>Xiaomi Redmi Note 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="958">
       <c r="C958" t="inlineStr">
         <is>
-          <t>Xiaomi Note 8 Pro</t>
+          <t>Xiaomi Redmi Note 10 Pro 5G</t>
         </is>
       </c>
     </row>
     <row r="959">
       <c r="C959" t="inlineStr">
         <is>
-          <t>Xiaomi Note 8T</t>
+          <t>Xiaomi Redmi Note 10 Pro Max</t>
         </is>
       </c>
     </row>
     <row r="960">
       <c r="C960" t="inlineStr">
         <is>
-          <t>Xiaomi Poco F2 Pro</t>
+          <t>Xiaomi Redmi Note 10S</t>
         </is>
       </c>
     </row>
     <row r="961">
       <c r="C961" t="inlineStr">
         <is>
-          <t>Xiaomi Poco F3</t>
+          <t>Xiaomi Redmi Note 11E</t>
         </is>
       </c>
     </row>
     <row r="962">
       <c r="C962" t="inlineStr">
         <is>
-          <t>Xiaomi Poco M3</t>
+          <t>Xiaomi Redmi Note 11 Pro</t>
         </is>
       </c>
     </row>
     <row r="963">
       <c r="C963" t="inlineStr">
         <is>
-          <t>Xiaomi Poco M3 Pro</t>
+          <t>Xiaomi Redmi Note 11 Pro Plus 5G</t>
         </is>
       </c>
     </row>
     <row r="964">
       <c r="C964" t="inlineStr">
         <is>
-          <t>Xiaomi Pocophone F1</t>
+          <t>Xiaomi Redmi Note 11S</t>
         </is>
       </c>
     </row>
     <row r="965">
       <c r="C965" t="inlineStr">
         <is>
-          <t>Xiaomi Poco X3</t>
+          <t>Xiaomi Redmi Note 11SE</t>
         </is>
       </c>
     </row>
     <row r="966">
       <c r="C966" t="inlineStr">
         <is>
-          <t>Xiaomi Poco X3 GT</t>
+          <t>Xiaomi Redmi Note 11T 5G</t>
         </is>
       </c>
     </row>
     <row r="967">
       <c r="C967" t="inlineStr">
         <is>
-          <t>Xiaomi Poco X4 Pro</t>
+          <t>Xiaomi Redmi Note 12 4G</t>
         </is>
       </c>
     </row>
     <row r="968">
       <c r="C968" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 10 2022</t>
+          <t>Xiaomi Redmi Note 12 Pro</t>
         </is>
       </c>
     </row>
     <row r="969">
       <c r="C969" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 3 Pro</t>
+          <t>Xiaomi Redmi Note 12 Pro 5G</t>
         </is>
       </c>
     </row>
     <row r="970">
       <c r="C970" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 3S</t>
+          <t>Xiaomi Redmi Note 12 Pro Plus</t>
         </is>
       </c>
     </row>
     <row r="971">
       <c r="C971" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 4A</t>
+          <t>Xiaomi Redmi Note 12S</t>
         </is>
       </c>
     </row>
     <row r="972">
       <c r="C972" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 4X</t>
+          <t>Xiaomi Redmi Note 13 Pro 4G</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="C973" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 5</t>
+          <t>Xiaomi Redmi Note 13 Pro 5G</t>
         </is>
       </c>
     </row>
     <row r="974">
       <c r="C974" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 5+ Plus</t>
+          <t>Xiaomi Redmi Note 3</t>
         </is>
       </c>
     </row>
     <row r="975">
       <c r="C975" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 5A</t>
+          <t>Xiaomi Redmi Note 4</t>
         </is>
       </c>
     </row>
     <row r="976">
       <c r="C976" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6</t>
+          <t>Xiaomi Redmi Note 4X</t>
         </is>
       </c>
     </row>
     <row r="977">
       <c r="C977" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 Pro</t>
+          <t>Xiaomi Redmi Note 5</t>
         </is>
       </c>
     </row>
     <row r="978">
       <c r="C978" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 7</t>
+          <t>Xiaomi Redmi Note 5A</t>
         </is>
       </c>
     </row>
     <row r="979">
       <c r="C979" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 7A</t>
+          <t>Xiaomi Redmi Note 5A Prime</t>
         </is>
       </c>
     </row>
     <row r="980">
       <c r="C980" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 8A</t>
+          <t>Xiaomi Redmi Note 5 Pro</t>
         </is>
       </c>
     </row>
     <row r="981">
       <c r="C981" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 9</t>
+          <t>Xiaomi Redmi Note 6A</t>
         </is>
       </c>
     </row>
     <row r="982">
       <c r="C982" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 9A</t>
+          <t>Xiaomi Redmi Note 6 Pro</t>
         </is>
       </c>
     </row>
     <row r="983">
       <c r="C983" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 9c</t>
+          <t>Xiaomi Redmi Note 7</t>
         </is>
       </c>
     </row>
     <row r="984">
       <c r="C984" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 9T</t>
+          <t>Xiaomi Redmi Note 7 Pro</t>
         </is>
       </c>
     </row>
     <row r="985">
       <c r="C985" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Go</t>
+          <t>Xiaomi Redmi Note 8</t>
         </is>
       </c>
     </row>
     <row r="986">
       <c r="C986" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi K20</t>
+          <t>Xiaomi Redmi Note 8 Pro</t>
         </is>
       </c>
     </row>
     <row r="987">
       <c r="C987" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi K30</t>
+          <t>Xiaomi Redmi Note 8S</t>
         </is>
       </c>
     </row>
     <row r="988">
       <c r="C988" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi K30 Pro</t>
+          <t>Xiaomi Redmi Note 8T</t>
         </is>
       </c>
     </row>
     <row r="989">
       <c r="C989" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi K40</t>
+          <t>Xiaomi Redmi Note 9</t>
         </is>
       </c>
     </row>
     <row r="990">
       <c r="C990" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 10 4G</t>
+          <t>Xiaomi Redmi Note 9 4G</t>
         </is>
       </c>
     </row>
     <row r="991">
       <c r="C991" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 10 5G</t>
+          <t>Xiaomi Redmi Note 9 5G</t>
         </is>
       </c>
     </row>
     <row r="992">
       <c r="C992" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 10 Lite</t>
+          <t>Xiaomi Redmi Note 9 Pro</t>
         </is>
       </c>
     </row>
     <row r="993">
       <c r="C993" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 10 Pro Max</t>
+          <t>Xiaomi Redmi Note 9s</t>
         </is>
       </c>
     </row>
     <row r="994">
       <c r="C994" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 10S</t>
+          <t>Xiaomi Redmi S2</t>
         </is>
       </c>
     </row>
     <row r="995">
       <c r="C995" t="inlineStr">
-        <is>
-          <t>Xiaomi Redmi Note 11 Pro</t>
-        </is>
-      </c>
-    </row>
-    <row r="996">
-      <c r="C996" t="inlineStr">
-        <is>
-          <t>Xiaomi Redmi Note 11S</t>
-        </is>
-      </c>
-    </row>
-    <row r="997">
-      <c r="C997" t="inlineStr">
-        <is>
-          <t>Xiaomi Redmi Note 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="998">
-      <c r="C998" t="inlineStr">
-        <is>
-          <t>Xiaomi Redmi Note 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="999">
-      <c r="C999" t="inlineStr">
-        <is>
-          <t>Xiaomi Redmi Note 4X</t>
-        </is>
-      </c>
-    </row>
-    <row r="1000">
-      <c r="C1000" t="inlineStr">
-        <is>
-          <t>Xiaomi Redmi Note 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="1001">
-      <c r="C1001" t="inlineStr">
-        <is>
-          <t>Xiaomi Redmi Note 5A</t>
-        </is>
-      </c>
-    </row>
-    <row r="1002">
-      <c r="C1002" t="inlineStr">
-        <is>
-          <t>Xiaomi Redmi Note 5A Prime</t>
-        </is>
-      </c>
-    </row>
-    <row r="1003">
-      <c r="C1003" t="inlineStr">
-        <is>
-          <t>Xiaomi Redmi Note 5 Pro</t>
-        </is>
-      </c>
-    </row>
-    <row r="1004">
-      <c r="C1004" t="inlineStr">
-        <is>
-          <t>Xiaomi Redmi Note 6 Pro</t>
-        </is>
-      </c>
-    </row>
-    <row r="1005">
-      <c r="C1005" t="inlineStr">
-        <is>
-          <t>Xiaomi Redmi Note 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="1006">
-      <c r="C1006" t="inlineStr">
-        <is>
-          <t>Xiaomi Redmi Note 9 4G</t>
-        </is>
-      </c>
-    </row>
-    <row r="1007">
-      <c r="C1007" t="inlineStr">
-        <is>
-          <t>Xiaomi Redmi Note 9 5G</t>
-        </is>
-      </c>
-    </row>
-    <row r="1008">
-      <c r="C1008" t="inlineStr">
-        <is>
-          <t>Xiaomi Redmi Note 9s</t>
-        </is>
-      </c>
-    </row>
-    <row r="1009">
-      <c r="C1009" t="inlineStr">
-        <is>
-          <t>Xiaomi Redmi S2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1010">
-      <c r="C1010" t="inlineStr">
-        <is>
-          <t>Y5p 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="1011">
-      <c r="C1011" t="inlineStr">
-        <is>
-          <t>Y6 Prime 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="1012">
-      <c r="C1012" t="inlineStr">
-        <is>
-          <t>Y7p 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="1013">
-      <c r="C1013" t="inlineStr">
-        <is>
-          <t>Y9 Prime 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="1014">
-      <c r="C1014" t="inlineStr">
         <is>
           <t>Zenfone 6</t>
         </is>
